--- a/Data/phenotypic data/RawData/2012 Data/BogUpper5-R9.xlsx
+++ b/Data/phenotypic data/RawData/2012 Data/BogUpper5-R9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="27800" windowHeight="18020"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="25440" windowHeight="18020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4900" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4899" uniqueCount="270">
   <si>
     <t>Bog: LW5</t>
   </si>
@@ -429,9 +429,6 @@
     <t>round/fur</t>
   </si>
   <si>
-    <t>rounf</t>
-  </si>
-  <si>
     <t>flat/pro</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
     <t>1.916*</t>
   </si>
   <si>
-    <t>2..7</t>
-  </si>
-  <si>
     <t>2.657*</t>
   </si>
   <si>
@@ -517,9 +511,6 @@
   </si>
   <si>
     <t>4.934*</t>
-  </si>
-  <si>
-    <t>29.00*</t>
   </si>
   <si>
     <t xml:space="preserve">closed </t>
@@ -553,9 +544,6 @@
   </si>
   <si>
     <t>7.792*</t>
-  </si>
-  <si>
-    <t>4./2</t>
   </si>
   <si>
     <t>1./2</t>
@@ -847,6 +835,12 @@
   </si>
   <si>
     <t>**2</t>
+  </si>
+  <si>
+    <t>meduim</t>
+  </si>
+  <si>
+    <t>2.900*</t>
   </si>
 </sst>
 </file>
@@ -1507,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="W786" sqref="W786"/>
+    <sheetView tabSelected="1" topLeftCell="B469" workbookViewId="0">
+      <selection activeCell="B473" sqref="B473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1746,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1914,7 +1908,7 @@
         <v>107</v>
       </c>
       <c r="W10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2674,7 +2668,7 @@
         <v>107</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2942,8 +2936,8 @@
       <c r="Q26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R26" s="22" t="s">
-        <v>104</v>
+      <c r="R26" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="S26" s="35">
         <v>2</v>
@@ -4319,8 +4313,8 @@
       <c r="S50" s="16">
         <v>1</v>
       </c>
-      <c r="T50" s="35" t="s">
-        <v>105</v>
+      <c r="T50" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U50" s="35">
         <v>12</v>
@@ -4361,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K51" s="35">
         <v>16.100000000000001</v>
@@ -4390,8 +4384,8 @@
       <c r="S51" s="16">
         <v>2</v>
       </c>
-      <c r="T51" s="35" t="s">
-        <v>106</v>
+      <c r="T51" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U51" s="35">
         <v>11</v>
@@ -6371,7 +6365,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="K84" s="35">
-        <v>15.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="L84" s="35">
         <v>16.600000000000001</v>
@@ -8683,8 +8677,8 @@
       <c r="O125" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="P125" s="38" t="s">
-        <v>41</v>
+      <c r="P125" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="Q125" s="22" t="s">
         <v>104</v>
@@ -8751,8 +8745,8 @@
       <c r="N126" s="36">
         <v>2.8</v>
       </c>
-      <c r="O126" s="38" t="s">
-        <v>8</v>
+      <c r="O126" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="P126" s="38" t="s">
         <v>26</v>
@@ -8896,8 +8890,8 @@
       <c r="O128" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P128" s="38" t="s">
-        <v>26</v>
+      <c r="P128" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="Q128" s="22" t="s">
         <v>104</v>
@@ -8967,8 +8961,8 @@
       <c r="O129" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P129" s="38" t="s">
-        <v>26</v>
+      <c r="P129" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="Q129" s="22" t="s">
         <v>104</v>
@@ -9035,8 +9029,8 @@
       <c r="N130" s="36">
         <v>2.6</v>
       </c>
-      <c r="O130" s="38" t="s">
-        <v>8</v>
+      <c r="O130" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="P130" s="38" t="s">
         <v>26</v>
@@ -9045,7 +9039,7 @@
         <v>104</v>
       </c>
       <c r="R130" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S130" s="35">
         <v>2</v>
@@ -9109,8 +9103,8 @@
       <c r="O131" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P131" s="38" t="s">
-        <v>41</v>
+      <c r="P131" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="Q131" s="22" t="s">
         <v>104</v>
@@ -9180,8 +9174,8 @@
       <c r="O132" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P132" s="38" t="s">
-        <v>41</v>
+      <c r="P132" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="Q132" s="22" t="s">
         <v>103</v>
@@ -9240,7 +9234,7 @@
         <v>25</v>
       </c>
       <c r="L133" s="35">
-        <v>18.2</v>
+        <v>18.5</v>
       </c>
       <c r="M133" s="35">
         <v>3.2730000000000001</v>
@@ -9325,8 +9319,8 @@
       <c r="P134" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Q134" s="22" t="s">
-        <v>132</v>
+      <c r="Q134" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="R134" s="22" t="s">
         <v>104</v>
@@ -10673,7 +10667,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I158" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J158" s="35">
         <v>0.13800000000000001</v>
@@ -11587,7 +11581,7 @@
         <v>11.7</v>
       </c>
       <c r="M172" s="35">
-        <v>8.2000000000000003E-2</v>
+        <v>0.82</v>
       </c>
       <c r="N172" s="36">
         <v>2.2999999999999998</v>
@@ -12251,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H185" s="22">
         <v>3.6</v>
@@ -12269,7 +12263,7 @@
         <v>18.5</v>
       </c>
       <c r="M185" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N185" s="36">
         <v>3.1</v>
@@ -12680,10 +12674,10 @@
         <v>7.2149999999999999</v>
       </c>
       <c r="H191" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I191" s="43" t="s">
         <v>136</v>
-      </c>
-      <c r="I191" s="43" t="s">
-        <v>137</v>
       </c>
       <c r="J191" s="35">
         <v>0.21299999999999999</v>
@@ -12698,7 +12692,7 @@
         <v>2.7389999999999999</v>
       </c>
       <c r="N191" s="36">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="O191" s="37" t="s">
         <v>40</v>
@@ -12896,13 +12890,13 @@
         <v>40</v>
       </c>
       <c r="P195" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q195" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R195" s="22" t="s">
         <v>139</v>
-      </c>
-      <c r="Q195" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R195" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="S195" s="35">
         <v>2</v>
@@ -12967,19 +12961,19 @@
         <v>40</v>
       </c>
       <c r="P196" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q196" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="R196" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="Q196" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="R196" s="22" t="s">
+      <c r="S196" s="35">
+        <v>1</v>
+      </c>
+      <c r="T196" s="35" t="s">
         <v>140</v>
-      </c>
-      <c r="S196" s="35">
-        <v>1</v>
-      </c>
-      <c r="T196" s="35" t="s">
-        <v>141</v>
       </c>
       <c r="U196" s="35">
         <v>27</v>
@@ -13011,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="G197" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H197" s="22">
         <v>3.4</v>
@@ -13029,7 +13023,7 @@
         <v>16.5</v>
       </c>
       <c r="M197" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N197" s="36">
         <v>2.2000000000000002</v>
@@ -13044,7 +13038,7 @@
         <v>104</v>
       </c>
       <c r="R197" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S197" s="35">
         <v>2</v>
@@ -13109,13 +13103,13 @@
         <v>40</v>
       </c>
       <c r="P198" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q198" s="22" t="s">
         <v>104</v>
       </c>
       <c r="R198" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S198" s="35">
         <v>2</v>
@@ -13183,10 +13177,10 @@
         <v>102</v>
       </c>
       <c r="Q199" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R199" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S199" s="35">
         <v>2</v>
@@ -13251,13 +13245,13 @@
         <v>40</v>
       </c>
       <c r="P200" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q200" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R200" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S200" s="35">
         <v>2</v>
@@ -13464,10 +13458,10 @@
         <v>40</v>
       </c>
       <c r="P203" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q203" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R203" s="22" t="s">
         <v>104</v>
@@ -13906,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="G213" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H213" s="22">
         <v>0.8</v>
@@ -13924,7 +13918,7 @@
         <v>12.9</v>
       </c>
       <c r="M213" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N213" s="36">
         <v>1.9</v>
@@ -13939,7 +13933,7 @@
         <v>104</v>
       </c>
       <c r="R213" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S213" s="35">
         <v>2</v>
@@ -13977,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H214" s="22">
         <v>3.3</v>
@@ -14281,8 +14275,8 @@
       <c r="M218" s="35">
         <v>2.5059999999999998</v>
       </c>
-      <c r="N218" s="36" t="s">
-        <v>152</v>
+      <c r="N218" s="36">
+        <v>2.7</v>
       </c>
       <c r="O218" s="37" t="s">
         <v>40</v>
@@ -14406,7 +14400,7 @@
         <v>6.49</v>
       </c>
       <c r="H220" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I220" s="22">
         <v>0</v>
@@ -14474,7 +14468,7 @@
         <v>0</v>
       </c>
       <c r="G221" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H221" s="22">
         <v>0.1</v>
@@ -14492,7 +14486,7 @@
         <v>15.1</v>
       </c>
       <c r="M221" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N221" s="36">
         <v>2.7</v>
@@ -14507,7 +14501,7 @@
         <v>103</v>
       </c>
       <c r="R221" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S221" s="35">
         <v>2</v>
@@ -14595,13 +14589,13 @@
         <v>0</v>
       </c>
       <c r="G224" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H224" s="22">
         <v>6.2</v>
       </c>
       <c r="I224" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J224" s="35">
         <v>0.16600000000000001</v>
@@ -14613,7 +14607,7 @@
         <v>19.2</v>
       </c>
       <c r="M224" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N224" s="36">
         <v>3</v>
@@ -14808,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="G227" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H227" s="22">
         <v>4.0999999999999996</v>
@@ -15234,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H233" s="22">
         <v>11.4</v>
@@ -15561,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="G241" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H241" s="22">
         <v>4</v>
@@ -16106,7 +16100,7 @@
         <v>107</v>
       </c>
       <c r="W248" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -16534,13 +16528,13 @@
         <v>0</v>
       </c>
       <c r="G256" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H256" s="22">
         <v>5.4</v>
       </c>
       <c r="I256" s="43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J256" s="35">
         <v>0.16500000000000001</v>
@@ -17314,7 +17308,7 @@
         <v>2.4</v>
       </c>
       <c r="O270" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P270" s="38" t="s">
         <v>41</v>
@@ -17335,7 +17329,7 @@
         <v>21</v>
       </c>
       <c r="V270" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W270">
         <v>1</v>
@@ -17385,7 +17379,7 @@
         <v>2.8</v>
       </c>
       <c r="O271" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P271" s="38" t="s">
         <v>26</v>
@@ -17406,7 +17400,7 @@
         <v>20</v>
       </c>
       <c r="V271" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W271">
         <v>1</v>
@@ -17456,13 +17450,13 @@
         <v>2.8</v>
       </c>
       <c r="O272" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P272" s="38" t="s">
         <v>41</v>
       </c>
       <c r="Q272" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R272" s="22" t="s">
         <v>104</v>
@@ -17477,7 +17471,7 @@
         <v>24</v>
       </c>
       <c r="V272" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W272">
         <v>1</v>
@@ -17527,7 +17521,7 @@
         <v>2.6</v>
       </c>
       <c r="O273" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P273" s="38" t="s">
         <v>26</v>
@@ -17548,7 +17542,7 @@
         <v>11</v>
       </c>
       <c r="V273" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W273">
         <v>1</v>
@@ -17598,7 +17592,7 @@
         <v>2.8</v>
       </c>
       <c r="O274" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P274" s="38" t="s">
         <v>26</v>
@@ -17619,7 +17613,7 @@
         <v>24</v>
       </c>
       <c r="V274" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W274">
         <v>1</v>
@@ -17669,7 +17663,7 @@
         <v>2.9</v>
       </c>
       <c r="O275" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P275" s="38" t="s">
         <v>26</v>
@@ -17690,7 +17684,7 @@
         <v>22</v>
       </c>
       <c r="V275" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W275">
         <v>1</v>
@@ -17740,7 +17734,7 @@
         <v>3.3</v>
       </c>
       <c r="O276" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P276" s="38" t="s">
         <v>102</v>
@@ -17761,7 +17755,7 @@
         <v>29</v>
       </c>
       <c r="V276" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W276">
         <v>1</v>
@@ -17808,19 +17802,19 @@
         <v>3.4249999999999998</v>
       </c>
       <c r="N277" s="36">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="O277" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="P277" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q277" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R277" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="P277" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q277" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R277" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="S277" s="35">
         <v>1</v>
@@ -17832,7 +17826,7 @@
         <v>15</v>
       </c>
       <c r="V277" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W277">
         <v>1</v>
@@ -17891,7 +17885,7 @@
         <v>103</v>
       </c>
       <c r="R278" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S278" s="35">
         <v>2</v>
@@ -17903,7 +17897,7 @@
         <v>20</v>
       </c>
       <c r="V278" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W278">
         <v>1</v>
@@ -17974,7 +17968,7 @@
         <v>14</v>
       </c>
       <c r="V279" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W279">
         <v>1</v>
@@ -18074,7 +18068,7 @@
         <v>2.8</v>
       </c>
       <c r="O282" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P282" s="38" t="s">
         <v>26</v>
@@ -18095,7 +18089,7 @@
         <v>21</v>
       </c>
       <c r="V282" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W282">
         <v>1</v>
@@ -18145,7 +18139,7 @@
         <v>2.7</v>
       </c>
       <c r="O283" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P283" s="38" t="s">
         <v>26</v>
@@ -18166,7 +18160,7 @@
         <v>21</v>
       </c>
       <c r="V283" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W283">
         <v>1</v>
@@ -18192,7 +18186,7 @@
         <v>1</v>
       </c>
       <c r="G284" s="43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H284" s="22">
         <v>3.4</v>
@@ -18209,14 +18203,14 @@
       <c r="L284" s="35">
         <v>17.7</v>
       </c>
-      <c r="M284" s="35" t="s">
-        <v>162</v>
+      <c r="M284" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="N284" s="36">
         <v>3.1</v>
       </c>
       <c r="O284" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P284" s="38" t="s">
         <v>41</v>
@@ -18225,7 +18219,7 @@
         <v>103</v>
       </c>
       <c r="R284" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S284" s="35">
         <v>2</v>
@@ -18237,7 +18231,7 @@
         <v>21</v>
       </c>
       <c r="V284" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W284">
         <v>1</v>
@@ -18308,7 +18302,7 @@
         <v>28</v>
       </c>
       <c r="V285" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W285">
         <v>1</v>
@@ -18358,7 +18352,7 @@
         <v>2.6</v>
       </c>
       <c r="O286" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P286" s="38" t="s">
         <v>26</v>
@@ -18379,7 +18373,7 @@
         <v>29</v>
       </c>
       <c r="V286" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W286">
         <v>1</v>
@@ -18429,7 +18423,7 @@
         <v>3.1</v>
       </c>
       <c r="O287" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P287" s="38" t="s">
         <v>26</v>
@@ -18450,7 +18444,7 @@
         <v>25</v>
       </c>
       <c r="V287" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W287">
         <v>1</v>
@@ -18521,7 +18515,7 @@
         <v>31</v>
       </c>
       <c r="V288" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W288">
         <v>1</v>
@@ -18571,7 +18565,7 @@
         <v>2.6</v>
       </c>
       <c r="O289" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P289" s="38" t="s">
         <v>26</v>
@@ -18592,7 +18586,7 @@
         <v>17</v>
       </c>
       <c r="V289" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W289">
         <v>1</v>
@@ -18642,7 +18636,7 @@
         <v>2.8</v>
       </c>
       <c r="O290" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P290" s="38" t="s">
         <v>26</v>
@@ -18663,7 +18657,7 @@
         <v>13</v>
       </c>
       <c r="V290" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W290">
         <v>1</v>
@@ -18713,7 +18707,7 @@
         <v>3.1</v>
       </c>
       <c r="O291" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P291" s="38" t="s">
         <v>41</v>
@@ -18734,7 +18728,7 @@
         <v>25</v>
       </c>
       <c r="V291" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W291">
         <v>1</v>
@@ -19062,7 +19056,7 @@
         <v>22</v>
       </c>
       <c r="V299" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W299">
         <v>1</v>
@@ -19131,10 +19125,10 @@
         <v>22</v>
       </c>
       <c r="V300" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W300" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -19157,7 +19151,7 @@
         <v>0</v>
       </c>
       <c r="G301" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H301" s="22">
         <v>3.3</v>
@@ -19179,7 +19173,7 @@
         <v>2</v>
       </c>
       <c r="O301" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P301" s="38" t="s">
         <v>41</v>
@@ -19200,7 +19194,7 @@
         <v>22</v>
       </c>
       <c r="V301" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W301">
         <v>1</v>
@@ -19229,10 +19223,10 @@
         <v>3.923</v>
       </c>
       <c r="H302" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I302" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J302" s="35"/>
       <c r="K302" s="35">
@@ -19254,7 +19248,7 @@
         <v>26</v>
       </c>
       <c r="Q302" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R302" s="22" t="s">
         <v>103</v>
@@ -19269,10 +19263,10 @@
         <v>18</v>
       </c>
       <c r="V302" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W302" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -19317,7 +19311,7 @@
         <v>2.1</v>
       </c>
       <c r="O303" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P303" s="38" t="s">
         <v>26</v>
@@ -19338,7 +19332,7 @@
         <v>24</v>
       </c>
       <c r="V303" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W303">
         <v>1</v>
@@ -19386,7 +19380,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O304" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P304" s="38" t="s">
         <v>26</v>
@@ -19407,7 +19401,7 @@
         <v>22</v>
       </c>
       <c r="V304" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W304">
         <v>1</v>
@@ -19439,7 +19433,7 @@
         <v>5.2</v>
       </c>
       <c r="I305" s="39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J305" s="35"/>
       <c r="K305" s="35">
@@ -19476,7 +19470,7 @@
         <v>22</v>
       </c>
       <c r="V305" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W305">
         <v>1</v>
@@ -19545,7 +19539,7 @@
         <v>15</v>
       </c>
       <c r="V306" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W306">
         <v>1</v>
@@ -19614,7 +19608,7 @@
         <v>5</v>
       </c>
       <c r="V307" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W307">
         <v>1</v>
@@ -19646,7 +19640,7 @@
         <v>3.7</v>
       </c>
       <c r="I308" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J308" s="35"/>
       <c r="K308" s="35">
@@ -19683,7 +19677,7 @@
         <v>21</v>
       </c>
       <c r="V308" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W308">
         <v>1</v>
@@ -19783,7 +19777,7 @@
         <v>2.8</v>
       </c>
       <c r="O311" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P311" s="38" t="s">
         <v>26</v>
@@ -19804,7 +19798,7 @@
         <v>20</v>
       </c>
       <c r="V311" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W311">
         <v>1</v>
@@ -19875,7 +19869,7 @@
         <v>10</v>
       </c>
       <c r="V312" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W312">
         <v>1</v>
@@ -19946,7 +19940,7 @@
         <v>20</v>
       </c>
       <c r="V313" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W313">
         <v>1</v>
@@ -19972,7 +19966,7 @@
         <v>0</v>
       </c>
       <c r="G314" s="43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H314" s="22">
         <v>4.9000000000000004</v>
@@ -20017,7 +20011,7 @@
         <v>35</v>
       </c>
       <c r="V314" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W314">
         <v>1</v>
@@ -20043,7 +20037,7 @@
         <v>1</v>
       </c>
       <c r="G315" s="43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H315" s="22">
         <v>3.2</v>
@@ -20088,7 +20082,7 @@
         <v>28</v>
       </c>
       <c r="V315" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W315">
         <v>1</v>
@@ -20132,7 +20126,7 @@
         <v>14.9</v>
       </c>
       <c r="M316" s="35">
-        <v>1.31</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="N316" s="36">
         <v>2.5</v>
@@ -20159,7 +20153,7 @@
         <v>9</v>
       </c>
       <c r="V316" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W316">
         <v>1</v>
@@ -20230,7 +20224,7 @@
         <v>10</v>
       </c>
       <c r="V317" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W317">
         <v>1</v>
@@ -20280,13 +20274,13 @@
         <v>2.7</v>
       </c>
       <c r="O318" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P318" s="38" t="s">
         <v>26</v>
       </c>
       <c r="Q318" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="R318" s="22" t="s">
         <v>103</v>
@@ -20301,7 +20295,7 @@
         <v>30</v>
       </c>
       <c r="V318" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W318">
         <v>1</v>
@@ -20351,7 +20345,7 @@
         <v>2.9</v>
       </c>
       <c r="O319" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P319" s="38" t="s">
         <v>102</v>
@@ -20372,7 +20366,7 @@
         <v>33</v>
       </c>
       <c r="V319" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W319">
         <v>1</v>
@@ -20422,7 +20416,7 @@
         <v>2.5</v>
       </c>
       <c r="O320" s="38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P320" s="38" t="s">
         <v>26</v>
@@ -20443,7 +20437,7 @@
         <v>19</v>
       </c>
       <c r="V320" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W320">
         <v>1</v>
@@ -20755,7 +20749,7 @@
         <v>102</v>
       </c>
       <c r="Q328" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R328" s="22" t="s">
         <v>104</v>
@@ -20770,7 +20764,7 @@
         <v>8</v>
       </c>
       <c r="V328" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W328">
         <v>1</v>
@@ -20841,7 +20835,7 @@
         <v>15</v>
       </c>
       <c r="V329" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W329">
         <v>1</v>
@@ -20897,7 +20891,7 @@
         <v>26</v>
       </c>
       <c r="Q330" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R330" s="22" t="s">
         <v>113</v>
@@ -20912,7 +20906,7 @@
         <v>13</v>
       </c>
       <c r="V330" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W330">
         <v>1</v>
@@ -20923,7 +20917,7 @@
         <v>4</v>
       </c>
       <c r="B331" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C331" s="22">
         <v>0</v>
@@ -20983,7 +20977,7 @@
         <v>2</v>
       </c>
       <c r="V331" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W331">
         <v>1</v>
@@ -20994,7 +20988,7 @@
         <v>5</v>
       </c>
       <c r="B332" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C332" s="22">
         <v>1</v>
@@ -21039,7 +21033,7 @@
         <v>26</v>
       </c>
       <c r="Q332" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R332" s="22" t="s">
         <v>104</v>
@@ -21054,7 +21048,7 @@
         <v>14</v>
       </c>
       <c r="V332" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W332">
         <v>1</v>
@@ -21110,7 +21104,7 @@
         <v>26</v>
       </c>
       <c r="Q333" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R333" s="22" t="s">
         <v>104</v>
@@ -21125,7 +21119,7 @@
         <v>2</v>
       </c>
       <c r="V333" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W333">
         <v>1</v>
@@ -21181,7 +21175,7 @@
         <v>102</v>
       </c>
       <c r="Q334" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R334" s="22" t="s">
         <v>104</v>
@@ -21196,7 +21190,7 @@
         <v>5</v>
       </c>
       <c r="V334" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W334">
         <v>1</v>
@@ -21267,7 +21261,7 @@
         <v>15</v>
       </c>
       <c r="V335" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W335">
         <v>1</v>
@@ -21293,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="G336" s="22">
-        <v>2.73</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="H336" s="22">
         <v>2.7</v>
@@ -21338,7 +21332,7 @@
         <v>20</v>
       </c>
       <c r="V336" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W336">
         <v>1</v>
@@ -21394,7 +21388,7 @@
         <v>102</v>
       </c>
       <c r="Q337" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R337" s="22" t="s">
         <v>113</v>
@@ -21409,7 +21403,7 @@
         <v>21</v>
       </c>
       <c r="V337" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W337">
         <v>1</v>
@@ -21527,10 +21521,10 @@
         <v>105</v>
       </c>
       <c r="U340" s="35">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="V340" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W340">
         <v>1</v>
@@ -21586,7 +21580,7 @@
         <v>102</v>
       </c>
       <c r="Q341" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R341" s="22" t="s">
         <v>104</v>
@@ -21598,10 +21592,10 @@
         <v>105</v>
       </c>
       <c r="U341" s="35">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="V341" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W341">
         <v>1</v>
@@ -21669,10 +21663,10 @@
         <v>105</v>
       </c>
       <c r="U342" s="35">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="V342" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W342">
         <v>1</v>
@@ -21682,26 +21676,26 @@
       <c r="A343" s="4">
         <v>4</v>
       </c>
-      <c r="B343" s="45" t="s">
-        <v>174</v>
+      <c r="B343" s="45">
+        <v>42827</v>
       </c>
       <c r="C343" s="43" t="s">
         <v>118</v>
       </c>
       <c r="D343" s="45" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E343" s="45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F343" s="44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G343" s="22">
         <v>6.7380000000000004</v>
       </c>
       <c r="H343" s="43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I343" s="22">
         <v>0</v>
@@ -21716,7 +21710,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="M343" s="35">
-        <v>2.173</v>
+        <v>2.4729999999999999</v>
       </c>
       <c r="N343" s="36">
         <v>2.2000000000000002</v>
@@ -21740,10 +21734,10 @@
         <v>105</v>
       </c>
       <c r="U343" s="35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V343" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W343">
         <v>1</v>
@@ -21811,10 +21805,10 @@
         <v>105</v>
       </c>
       <c r="U344" s="35">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V344" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W344">
         <v>1</v>
@@ -21882,10 +21876,10 @@
         <v>105</v>
       </c>
       <c r="U345" s="35">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="V345" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W345">
         <v>1</v>
@@ -21941,7 +21935,7 @@
         <v>102</v>
       </c>
       <c r="Q346" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R346" s="22" t="s">
         <v>104</v>
@@ -21953,10 +21947,10 @@
         <v>105</v>
       </c>
       <c r="U346" s="35">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V346" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W346">
         <v>1</v>
@@ -22024,10 +22018,10 @@
         <v>105</v>
       </c>
       <c r="U347" s="35">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="V347" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W347">
         <v>1</v>
@@ -22095,10 +22089,10 @@
         <v>105</v>
       </c>
       <c r="U348" s="35">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="V348" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W348">
         <v>1</v>
@@ -22109,25 +22103,25 @@
         <v>10</v>
       </c>
       <c r="B349" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C349" s="43" t="s">
         <v>116</v>
       </c>
       <c r="D349" s="45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E349" s="22" t="s">
         <v>118</v>
       </c>
       <c r="F349" s="43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G349" s="22">
         <v>4.5620000000000003</v>
       </c>
       <c r="H349" s="43" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I349" s="22">
         <v>0</v>
@@ -22166,10 +22160,10 @@
         <v>105</v>
       </c>
       <c r="U349" s="35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="V349" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W349">
         <v>1</v>
@@ -22451,7 +22445,7 @@
         <v>0</v>
       </c>
       <c r="G357" s="22">
-        <v>0</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="H357" s="22">
         <v>2.9</v>
@@ -22481,7 +22475,7 @@
         <v>26</v>
       </c>
       <c r="Q357" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R357" s="22" t="s">
         <v>104</v>
@@ -22496,7 +22490,7 @@
         <v>11</v>
       </c>
       <c r="V357" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W357">
         <v>1</v>
@@ -22522,7 +22516,7 @@
         <v>0</v>
       </c>
       <c r="G358" s="22">
-        <v>0</v>
+        <v>4.4569999999999999</v>
       </c>
       <c r="H358" s="22">
         <v>2.5</v>
@@ -22546,7 +22540,7 @@
         <v>2.5</v>
       </c>
       <c r="O358" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P358" s="38" t="s">
         <v>26</v>
@@ -22567,7 +22561,7 @@
         <v>9</v>
       </c>
       <c r="V358" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W358">
         <v>1</v>
@@ -22593,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="G359" s="22">
-        <v>1</v>
+        <v>1.734</v>
       </c>
       <c r="H359" s="22">
         <v>0</v>
@@ -22602,7 +22596,7 @@
         <v>0</v>
       </c>
       <c r="J359" s="35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K359" s="35">
         <v>20</v>
@@ -22617,7 +22611,7 @@
         <v>2.9</v>
       </c>
       <c r="O359" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P359" s="38" t="s">
         <v>102</v>
@@ -22638,7 +22632,7 @@
         <v>15</v>
       </c>
       <c r="V359" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W359">
         <v>1</v>
@@ -22664,7 +22658,7 @@
         <v>2</v>
       </c>
       <c r="G360" s="22">
-        <v>2</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="H360" s="22">
         <v>2.7</v>
@@ -22688,7 +22682,7 @@
         <v>2.8</v>
       </c>
       <c r="O360" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P360" s="38" t="s">
         <v>26</v>
@@ -22709,7 +22703,7 @@
         <v>20</v>
       </c>
       <c r="V360" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W360">
         <v>1</v>
@@ -22735,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="G361" s="22">
-        <v>0</v>
+        <v>3.2519999999999998</v>
       </c>
       <c r="H361" s="22">
         <v>2.6</v>
@@ -22774,7 +22768,7 @@
         <v>24</v>
       </c>
       <c r="V361" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W361">
         <v>1</v>
@@ -22800,7 +22794,7 @@
         <v>0</v>
       </c>
       <c r="G362" s="22">
-        <v>0</v>
+        <v>8.6340000000000003</v>
       </c>
       <c r="H362" s="22">
         <v>3.9</v>
@@ -22830,7 +22824,7 @@
         <v>26</v>
       </c>
       <c r="Q362" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R362" s="22" t="s">
         <v>114</v>
@@ -22845,7 +22839,7 @@
         <v>12</v>
       </c>
       <c r="V362" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W362">
         <v>1</v>
@@ -22871,7 +22865,7 @@
         <v>2</v>
       </c>
       <c r="G363" s="22">
-        <v>0</v>
+        <v>3.262</v>
       </c>
       <c r="H363" s="22">
         <v>1.8</v>
@@ -22916,7 +22910,7 @@
         <v>19</v>
       </c>
       <c r="V363" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W363">
         <v>1</v>
@@ -22942,7 +22936,7 @@
         <v>2</v>
       </c>
       <c r="G364" s="22">
-        <v>0</v>
+        <v>2.323</v>
       </c>
       <c r="H364" s="22">
         <v>3</v>
@@ -22987,7 +22981,7 @@
         <v>7</v>
       </c>
       <c r="V364" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W364">
         <v>1</v>
@@ -23013,7 +23007,7 @@
         <v>2</v>
       </c>
       <c r="G365" s="22">
-        <v>0</v>
+        <v>1.069</v>
       </c>
       <c r="H365" s="22">
         <v>0</v>
@@ -23022,7 +23016,7 @@
         <v>0</v>
       </c>
       <c r="J365" s="35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K365" s="35">
         <v>19.100000000000001</v>
@@ -23037,7 +23031,7 @@
         <v>2.8</v>
       </c>
       <c r="O365" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P365" s="38" t="s">
         <v>102</v>
@@ -23058,7 +23052,7 @@
         <v>8</v>
       </c>
       <c r="V365" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W365">
         <v>1</v>
@@ -23084,7 +23078,7 @@
         <v>1</v>
       </c>
       <c r="G366" s="22">
-        <v>0</v>
+        <v>8.1969999999999992</v>
       </c>
       <c r="H366" s="22">
         <v>3.2</v>
@@ -23129,7 +23123,7 @@
         <v>7</v>
       </c>
       <c r="V366" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W366">
         <v>1</v>
@@ -23205,7 +23199,7 @@
         <v>1</v>
       </c>
       <c r="G369" s="22">
-        <v>3.1070000000000002</v>
+        <v>3.907</v>
       </c>
       <c r="H369" s="22">
         <v>2.2599999999999998</v>
@@ -23250,7 +23244,7 @@
         <v>19</v>
       </c>
       <c r="V369" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W369">
         <v>1</v>
@@ -23294,7 +23288,7 @@
         <v>13.9</v>
       </c>
       <c r="M370" s="35">
-        <v>18.46</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="N370" s="36">
         <v>2.7</v>
@@ -23321,7 +23315,7 @@
         <v>12</v>
       </c>
       <c r="V370" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W370">
         <v>1</v>
@@ -23392,7 +23386,7 @@
         <v>10</v>
       </c>
       <c r="V371" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W371">
         <v>1</v>
@@ -23463,7 +23457,7 @@
         <v>12</v>
       </c>
       <c r="V372" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W372">
         <v>1</v>
@@ -23534,7 +23528,7 @@
         <v>6</v>
       </c>
       <c r="V373" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W373">
         <v>1</v>
@@ -23605,7 +23599,7 @@
         <v>16</v>
       </c>
       <c r="V374" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W374">
         <v>1</v>
@@ -23676,7 +23670,7 @@
         <v>16</v>
       </c>
       <c r="V375" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W375">
         <v>1</v>
@@ -23747,7 +23741,7 @@
         <v>12</v>
       </c>
       <c r="V376" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W376">
         <v>1</v>
@@ -23818,7 +23812,7 @@
         <v>3</v>
       </c>
       <c r="V377" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W377">
         <v>1</v>
@@ -23889,7 +23883,7 @@
         <v>9</v>
       </c>
       <c r="V378" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W378">
         <v>1</v>
@@ -24216,7 +24210,7 @@
         <v>11</v>
       </c>
       <c r="V386" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W386">
         <v>1</v>
@@ -24275,7 +24269,7 @@
         <v>104</v>
       </c>
       <c r="R387" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="S387" s="35">
         <v>2</v>
@@ -24287,7 +24281,7 @@
         <v>23</v>
       </c>
       <c r="V387" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W387">
         <v>1</v>
@@ -24313,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="G388" s="43" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H388" s="22">
         <v>2.2999999999999998</v>
@@ -24358,7 +24352,7 @@
         <v>15</v>
       </c>
       <c r="V388" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W388">
         <v>1</v>
@@ -24429,7 +24423,7 @@
         <v>9</v>
       </c>
       <c r="V389" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W389">
         <v>1</v>
@@ -24500,7 +24494,7 @@
         <v>21</v>
       </c>
       <c r="V390" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W390">
         <v>1</v>
@@ -24564,14 +24558,14 @@
       <c r="S391" s="35">
         <v>2</v>
       </c>
-      <c r="T391" s="35" t="s">
-        <v>106</v>
+      <c r="T391" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U391" s="35">
         <v>25</v>
       </c>
       <c r="V391" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W391">
         <v>1</v>
@@ -24597,7 +24591,7 @@
         <v>1</v>
       </c>
       <c r="G392" s="22">
-        <v>6.6210000000000004</v>
+        <v>2.621</v>
       </c>
       <c r="H392" s="22">
         <v>1.5</v>
@@ -24642,7 +24636,7 @@
         <v>20</v>
       </c>
       <c r="V392" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W392">
         <v>1</v>
@@ -24668,7 +24662,7 @@
         <v>0</v>
       </c>
       <c r="G393" s="43" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H393" s="22">
         <v>3.4</v>
@@ -24713,7 +24707,7 @@
         <v>20</v>
       </c>
       <c r="V393" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W393">
         <v>1</v>
@@ -24739,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="G394" s="43" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H394" s="22">
         <v>3.4</v>
@@ -24784,7 +24778,7 @@
         <v>2</v>
       </c>
       <c r="V394" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W394">
         <v>1</v>
@@ -24810,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="G395" s="43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H395" s="22">
         <v>3.6</v>
@@ -24855,7 +24849,7 @@
         <v>7</v>
       </c>
       <c r="V395" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W395">
         <v>1</v>
@@ -24976,7 +24970,7 @@
         <v>14</v>
       </c>
       <c r="V398" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W398">
         <v>1</v>
@@ -25002,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="G399" s="43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H399" s="22">
         <v>5.3</v>
@@ -25020,7 +25014,7 @@
         <v>17</v>
       </c>
       <c r="M399" s="35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N399" s="36">
         <v>2.8</v>
@@ -25047,7 +25041,7 @@
         <v>21</v>
       </c>
       <c r="V399" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W399">
         <v>1</v>
@@ -25073,7 +25067,7 @@
         <v>1</v>
       </c>
       <c r="G400" s="43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H400" s="22">
         <v>1.9</v>
@@ -25091,7 +25085,7 @@
         <v>19.3</v>
       </c>
       <c r="M400" s="35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N400" s="36">
         <v>2.8</v>
@@ -25118,7 +25112,7 @@
         <v>26</v>
       </c>
       <c r="V400" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W400">
         <v>1</v>
@@ -25144,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="G401" s="43" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H401" s="22">
         <v>2.2999999999999998</v>
@@ -25162,7 +25156,7 @@
         <v>20.7</v>
       </c>
       <c r="M401" s="35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N401" s="36">
         <v>3.3</v>
@@ -25174,7 +25168,7 @@
         <v>26</v>
       </c>
       <c r="Q401" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R401" s="22" t="s">
         <v>104</v>
@@ -25189,7 +25183,7 @@
         <v>20</v>
       </c>
       <c r="V401" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W401">
         <v>1</v>
@@ -25260,7 +25254,7 @@
         <v>23</v>
       </c>
       <c r="V402" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W402">
         <v>1</v>
@@ -25286,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="G403" s="43" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H403" s="22">
         <v>3.3</v>
@@ -25304,7 +25298,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="M403" s="35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N403" s="36">
         <v>2.9</v>
@@ -25331,7 +25325,7 @@
         <v>3</v>
       </c>
       <c r="V403" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W403">
         <v>1</v>
@@ -25356,8 +25350,8 @@
       <c r="F404" s="22">
         <v>1</v>
       </c>
-      <c r="G404" s="22">
-        <v>6.3719999999999999</v>
+      <c r="G404" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H404" s="22">
         <v>2.7</v>
@@ -25402,7 +25396,7 @@
         <v>10</v>
       </c>
       <c r="V404" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W404">
         <v>1</v>
@@ -25428,7 +25422,7 @@
         <v>0</v>
       </c>
       <c r="G405" s="43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H405" s="22">
         <v>2.5</v>
@@ -25473,7 +25467,7 @@
         <v>19</v>
       </c>
       <c r="V405" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W405">
         <v>1</v>
@@ -25544,7 +25538,7 @@
         <v>29</v>
       </c>
       <c r="V406" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W406">
         <v>1</v>
@@ -25570,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="G407" s="43" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H407" s="22">
         <v>2</v>
@@ -25615,7 +25609,7 @@
         <v>7</v>
       </c>
       <c r="V407" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W407">
         <v>1</v>
@@ -25942,7 +25936,7 @@
         <v>12</v>
       </c>
       <c r="V415" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W415">
         <v>1</v>
@@ -26013,7 +26007,7 @@
         <v>28</v>
       </c>
       <c r="V416" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W416">
         <v>1</v>
@@ -26084,7 +26078,7 @@
         <v>21</v>
       </c>
       <c r="V417" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W417">
         <v>1</v>
@@ -26155,7 +26149,7 @@
         <v>17</v>
       </c>
       <c r="V418" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W418">
         <v>1</v>
@@ -26226,7 +26220,7 @@
         <v>3</v>
       </c>
       <c r="V419" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W419">
         <v>1</v>
@@ -26297,7 +26291,7 @@
         <v>23</v>
       </c>
       <c r="V420" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W420">
         <v>1</v>
@@ -26355,8 +26349,8 @@
       <c r="Q421" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R421" s="22" t="s">
-        <v>104</v>
+      <c r="R421" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="S421" s="35">
         <v>2</v>
@@ -26368,7 +26362,7 @@
         <v>10</v>
       </c>
       <c r="V421" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W421">
         <v>1</v>
@@ -26424,10 +26418,10 @@
         <v>26</v>
       </c>
       <c r="Q422" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R422" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S422" s="35">
         <v>1</v>
@@ -26439,7 +26433,7 @@
         <v>22</v>
       </c>
       <c r="V422" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W422">
         <v>1</v>
@@ -26510,7 +26504,7 @@
         <v>14</v>
       </c>
       <c r="V423" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W423">
         <v>1</v>
@@ -26581,7 +26575,7 @@
         <v>18</v>
       </c>
       <c r="V424" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W424">
         <v>1</v>
@@ -26701,7 +26695,7 @@
         <v>28</v>
       </c>
       <c r="V427" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W427">
         <v>1</v>
@@ -26772,7 +26766,7 @@
         <v>10</v>
       </c>
       <c r="V428" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W428">
         <v>1</v>
@@ -26783,13 +26777,13 @@
         <v>3</v>
       </c>
       <c r="B429" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C429" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D429" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E429" s="22">
         <v>0</v>
@@ -26801,7 +26795,7 @@
         <v>8.8070000000000004</v>
       </c>
       <c r="H429" s="43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I429" s="22">
         <v>0</v>
@@ -26843,7 +26837,7 @@
         <v>25</v>
       </c>
       <c r="V429" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W429">
         <v>1</v>
@@ -26914,7 +26908,7 @@
         <v>28</v>
       </c>
       <c r="V430" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W430">
         <v>1</v>
@@ -26985,7 +26979,7 @@
         <v>11</v>
       </c>
       <c r="V431" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W431">
         <v>1</v>
@@ -27056,7 +27050,7 @@
         <v>26</v>
       </c>
       <c r="V432" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W432">
         <v>1</v>
@@ -27127,7 +27121,7 @@
         <v>7</v>
       </c>
       <c r="V433" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W433">
         <v>1</v>
@@ -27198,7 +27192,7 @@
         <v>28</v>
       </c>
       <c r="V434" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W434">
         <v>1</v>
@@ -27269,7 +27263,7 @@
         <v>20</v>
       </c>
       <c r="V435" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W435">
         <v>1</v>
@@ -27325,7 +27319,7 @@
         <v>102</v>
       </c>
       <c r="Q436" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R436" s="22" t="s">
         <v>104</v>
@@ -27340,7 +27334,7 @@
         <v>18</v>
       </c>
       <c r="V436" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W436">
         <v>1</v>
@@ -27667,7 +27661,7 @@
         <v>22</v>
       </c>
       <c r="V444" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W444">
         <v>1</v>
@@ -27723,7 +27717,7 @@
         <v>26</v>
       </c>
       <c r="Q445" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R445" s="22" t="s">
         <v>104</v>
@@ -27738,7 +27732,7 @@
         <v>26</v>
       </c>
       <c r="V445" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W445">
         <v>1</v>
@@ -27809,7 +27803,7 @@
         <v>24</v>
       </c>
       <c r="V446" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W446">
         <v>1</v>
@@ -27880,7 +27874,7 @@
         <v>5</v>
       </c>
       <c r="V447" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W447">
         <v>1</v>
@@ -27951,7 +27945,7 @@
         <v>21</v>
       </c>
       <c r="V448" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W448">
         <v>1</v>
@@ -27980,7 +27974,7 @@
         <v>7.35</v>
       </c>
       <c r="H449" s="43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I449" s="22">
         <v>0</v>
@@ -28022,10 +28016,10 @@
         <v>13</v>
       </c>
       <c r="V449" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W449" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="450" spans="1:23">
@@ -28093,7 +28087,7 @@
         <v>18</v>
       </c>
       <c r="V450" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W450">
         <v>1</v>
@@ -28164,7 +28158,7 @@
         <v>25</v>
       </c>
       <c r="V451" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W451">
         <v>1</v>
@@ -28235,7 +28229,7 @@
         <v>8</v>
       </c>
       <c r="V452" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W452">
         <v>1</v>
@@ -28306,7 +28300,7 @@
         <v>27</v>
       </c>
       <c r="V453" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W453">
         <v>1</v>
@@ -28427,7 +28421,7 @@
         <v>16</v>
       </c>
       <c r="V456" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W456">
         <v>1</v>
@@ -28498,7 +28492,7 @@
         <v>24</v>
       </c>
       <c r="V457" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W457">
         <v>1</v>
@@ -28569,7 +28563,7 @@
         <v>19</v>
       </c>
       <c r="V458" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W458">
         <v>1</v>
@@ -28640,7 +28634,7 @@
         <v>8</v>
       </c>
       <c r="V459" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W459">
         <v>1</v>
@@ -28711,7 +28705,7 @@
         <v>15</v>
       </c>
       <c r="V460" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W460">
         <v>1</v>
@@ -28782,7 +28776,7 @@
         <v>16</v>
       </c>
       <c r="V461" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W461">
         <v>1</v>
@@ -28853,7 +28847,7 @@
         <v>19</v>
       </c>
       <c r="V462" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W462">
         <v>1</v>
@@ -28924,7 +28918,7 @@
         <v>12</v>
       </c>
       <c r="V463" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W463">
         <v>1</v>
@@ -28995,7 +28989,7 @@
         <v>22</v>
       </c>
       <c r="V464" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W464">
         <v>1</v>
@@ -29051,7 +29045,7 @@
         <v>102</v>
       </c>
       <c r="Q465" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R465" s="22" t="s">
         <v>104</v>
@@ -29066,7 +29060,7 @@
         <v>20</v>
       </c>
       <c r="V465" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W465">
         <v>1</v>
@@ -29393,7 +29387,7 @@
         <v>6</v>
       </c>
       <c r="V473" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W473">
         <v>1</v>
@@ -29452,7 +29446,7 @@
         <v>103</v>
       </c>
       <c r="R474" s="22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="S474" s="35">
         <v>1</v>
@@ -29464,7 +29458,7 @@
         <v>9</v>
       </c>
       <c r="V474" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W474">
         <v>1</v>
@@ -29535,7 +29529,7 @@
         <v>11</v>
       </c>
       <c r="V475" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W475">
         <v>1</v>
@@ -29606,7 +29600,7 @@
         <v>3</v>
       </c>
       <c r="V476" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W476">
         <v>1</v>
@@ -29677,7 +29671,7 @@
         <v>13</v>
       </c>
       <c r="V477" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W477">
         <v>1</v>
@@ -29727,10 +29721,10 @@
         <v>2.5</v>
       </c>
       <c r="O478" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P478" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q478" s="22" t="s">
         <v>104</v>
@@ -29748,7 +29742,7 @@
         <v>22</v>
       </c>
       <c r="V478" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W478">
         <v>1</v>
@@ -29819,7 +29813,7 @@
         <v>7</v>
       </c>
       <c r="V479" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W479">
         <v>1</v>
@@ -29890,7 +29884,7 @@
         <v>21</v>
       </c>
       <c r="V480" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W480">
         <v>1</v>
@@ -29961,7 +29955,7 @@
         <v>13</v>
       </c>
       <c r="V481" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W481">
         <v>1</v>
@@ -30032,7 +30026,7 @@
         <v>20</v>
       </c>
       <c r="V482" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W482">
         <v>1</v>
@@ -30153,7 +30147,7 @@
         <v>5</v>
       </c>
       <c r="V485" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W485">
         <v>1</v>
@@ -30209,7 +30203,7 @@
         <v>102</v>
       </c>
       <c r="Q486" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R486" s="22" t="s">
         <v>103</v>
@@ -30224,7 +30218,7 @@
         <v>32</v>
       </c>
       <c r="V486" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W486">
         <v>1</v>
@@ -30295,7 +30289,7 @@
         <v>7</v>
       </c>
       <c r="V487" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W487">
         <v>1</v>
@@ -30366,7 +30360,7 @@
         <v>23</v>
       </c>
       <c r="V488" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W488">
         <v>1</v>
@@ -30422,7 +30416,7 @@
         <v>26</v>
       </c>
       <c r="Q489" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R489" s="22" t="s">
         <v>103</v>
@@ -30437,7 +30431,7 @@
         <v>12</v>
       </c>
       <c r="V489" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W489">
         <v>1</v>
@@ -30508,7 +30502,7 @@
         <v>7</v>
       </c>
       <c r="V490" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W490">
         <v>1</v>
@@ -30579,7 +30573,7 @@
         <v>12</v>
       </c>
       <c r="V491" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W491">
         <v>1</v>
@@ -30650,7 +30644,7 @@
         <v>8</v>
       </c>
       <c r="V492" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W492">
         <v>1</v>
@@ -30721,7 +30715,7 @@
         <v>8</v>
       </c>
       <c r="V493" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W493">
         <v>1</v>
@@ -30792,7 +30786,7 @@
         <v>20</v>
       </c>
       <c r="V494" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W494">
         <v>1</v>
@@ -31119,7 +31113,7 @@
         <v>12</v>
       </c>
       <c r="V502" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W502">
         <v>1</v>
@@ -31190,7 +31184,7 @@
         <v>15</v>
       </c>
       <c r="V503" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W503">
         <v>1</v>
@@ -31249,7 +31243,7 @@
         <v>103</v>
       </c>
       <c r="R504" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S504" s="35">
         <v>1</v>
@@ -31261,7 +31255,7 @@
         <v>30</v>
       </c>
       <c r="V504" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W504">
         <v>1</v>
@@ -31272,16 +31266,16 @@
         <v>4</v>
       </c>
       <c r="B505" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C505" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D505" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E505" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F505">
         <v>0</v>
@@ -31290,7 +31284,7 @@
         <v>3.488</v>
       </c>
       <c r="H505" s="47" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I505">
         <v>0</v>
@@ -31317,7 +31311,7 @@
         <v>26</v>
       </c>
       <c r="Q505" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R505" s="22" t="s">
         <v>104</v>
@@ -31332,7 +31326,7 @@
         <v>31</v>
       </c>
       <c r="V505" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W505">
         <v>1</v>
@@ -31403,7 +31397,7 @@
         <v>15</v>
       </c>
       <c r="V506" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W506">
         <v>1</v>
@@ -31462,7 +31456,7 @@
         <v>103</v>
       </c>
       <c r="R507" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S507" s="35">
         <v>1</v>
@@ -31474,7 +31468,7 @@
         <v>17</v>
       </c>
       <c r="V507" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W507">
         <v>1</v>
@@ -31530,10 +31524,10 @@
         <v>102</v>
       </c>
       <c r="Q508" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R508" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S508" s="35">
         <v>1</v>
@@ -31545,7 +31539,7 @@
         <v>35</v>
       </c>
       <c r="V508" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W508">
         <v>1</v>
@@ -31601,7 +31595,7 @@
         <v>26</v>
       </c>
       <c r="Q509" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R509" s="22" t="s">
         <v>103</v>
@@ -31616,7 +31610,7 @@
         <v>11</v>
       </c>
       <c r="V509" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W509">
         <v>1</v>
@@ -31675,7 +31669,7 @@
         <v>103</v>
       </c>
       <c r="R510" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S510" s="35">
         <v>2</v>
@@ -31687,7 +31681,7 @@
         <v>0</v>
       </c>
       <c r="V510" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W510">
         <v>1</v>
@@ -31743,10 +31737,10 @@
         <v>102</v>
       </c>
       <c r="Q511" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R511" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S511" s="35">
         <v>1</v>
@@ -31758,7 +31752,7 @@
         <v>24</v>
       </c>
       <c r="V511" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W511">
         <v>1</v>
@@ -31878,7 +31872,7 @@
         <v>9</v>
       </c>
       <c r="V514" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W514">
         <v>1</v>
@@ -31937,7 +31931,7 @@
         <v>104</v>
       </c>
       <c r="R515" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S515" s="35">
         <v>2</v>
@@ -31949,7 +31943,7 @@
         <v>24</v>
       </c>
       <c r="V515" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W515">
         <v>1</v>
@@ -32020,7 +32014,7 @@
         <v>30</v>
       </c>
       <c r="V516" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W516">
         <v>1</v>
@@ -32091,7 +32085,7 @@
         <v>21</v>
       </c>
       <c r="V517" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W517">
         <v>1</v>
@@ -32162,7 +32156,7 @@
         <v>35</v>
       </c>
       <c r="V518" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W518">
         <v>1</v>
@@ -32233,7 +32227,7 @@
         <v>32</v>
       </c>
       <c r="V519" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W519">
         <v>1</v>
@@ -32304,7 +32298,7 @@
         <v>30</v>
       </c>
       <c r="V520" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W520">
         <v>1</v>
@@ -32375,7 +32369,7 @@
         <v>20</v>
       </c>
       <c r="V521" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W521">
         <v>1</v>
@@ -32446,7 +32440,7 @@
         <v>33</v>
       </c>
       <c r="V522" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W522">
         <v>1</v>
@@ -32517,7 +32511,7 @@
         <v>22</v>
       </c>
       <c r="V523" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W523">
         <v>1</v>
@@ -32844,7 +32838,7 @@
         <v>29</v>
       </c>
       <c r="V531" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W531">
         <v>1</v>
@@ -32873,7 +32867,7 @@
         <v>5.4859999999999998</v>
       </c>
       <c r="H532" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I532" s="22">
         <v>0</v>
@@ -32915,7 +32909,7 @@
         <v>12</v>
       </c>
       <c r="V532" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W532">
         <v>1</v>
@@ -32986,7 +32980,7 @@
         <v>25</v>
       </c>
       <c r="V533" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W533">
         <v>1</v>
@@ -33012,7 +33006,7 @@
         <v>1</v>
       </c>
       <c r="G534" s="43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H534" s="22">
         <v>3.6</v>
@@ -33030,7 +33024,7 @@
         <v>17.3</v>
       </c>
       <c r="M534" s="35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N534" s="36">
         <v>2.5</v>
@@ -33057,7 +33051,7 @@
         <v>17</v>
       </c>
       <c r="V534" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W534">
         <v>1</v>
@@ -33068,13 +33062,13 @@
         <v>5</v>
       </c>
       <c r="B535" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C535" s="22">
         <v>0</v>
       </c>
       <c r="D535" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E535" s="22">
         <v>0</v>
@@ -33083,7 +33077,7 @@
         <v>0</v>
       </c>
       <c r="G535" s="43" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H535" s="22">
         <v>4.3</v>
@@ -33128,7 +33122,7 @@
         <v>18</v>
       </c>
       <c r="V535" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W535">
         <v>1</v>
@@ -33199,7 +33193,7 @@
         <v>15</v>
       </c>
       <c r="V536" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W536">
         <v>1</v>
@@ -33258,7 +33252,7 @@
         <v>104</v>
       </c>
       <c r="R537" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="S537" s="35">
         <v>2</v>
@@ -33270,7 +33264,7 @@
         <v>11</v>
       </c>
       <c r="V537" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W537">
         <v>1</v>
@@ -33296,7 +33290,7 @@
         <v>0</v>
       </c>
       <c r="G538" s="43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H538" s="22">
         <v>3.5</v>
@@ -33341,7 +33335,7 @@
         <v>19</v>
       </c>
       <c r="V538" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W538">
         <v>1</v>
@@ -33376,7 +33370,7 @@
         <v>3.5</v>
       </c>
       <c r="J539" s="35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K539" s="35">
         <v>28.2</v>
@@ -33412,7 +33406,7 @@
         <v>20</v>
       </c>
       <c r="V539" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W539">
         <v>1</v>
@@ -33483,7 +33477,7 @@
         <v>14</v>
       </c>
       <c r="V540" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W540">
         <v>1</v>
@@ -33583,16 +33577,16 @@
         <v>2.9</v>
       </c>
       <c r="O543" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P543" s="38" t="s">
         <v>102</v>
       </c>
       <c r="Q543" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R543" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S543" s="35">
         <v>1</v>
@@ -33604,7 +33598,7 @@
         <v>21</v>
       </c>
       <c r="V543" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W543">
         <v>1</v>
@@ -33654,7 +33648,7 @@
         <v>2.9</v>
       </c>
       <c r="O544" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P544" s="38" t="s">
         <v>26</v>
@@ -33663,7 +33657,7 @@
         <v>103</v>
       </c>
       <c r="R544" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S544" s="35">
         <v>1</v>
@@ -33675,7 +33669,7 @@
         <v>23</v>
       </c>
       <c r="V544" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W544">
         <v>1</v>
@@ -33701,7 +33695,7 @@
         <v>1</v>
       </c>
       <c r="G545" s="43" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H545" s="22">
         <v>1.1000000000000001</v>
@@ -33725,7 +33719,7 @@
         <v>2.9</v>
       </c>
       <c r="O545" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P545" s="38" t="s">
         <v>26</v>
@@ -33746,7 +33740,7 @@
         <v>21</v>
       </c>
       <c r="V545" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W545">
         <v>1</v>
@@ -33796,10 +33790,10 @@
         <v>2.9</v>
       </c>
       <c r="O546" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P546" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q546" s="22" t="s">
         <v>103</v>
@@ -33817,7 +33811,7 @@
         <v>29</v>
       </c>
       <c r="V546" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W546">
         <v>1</v>
@@ -33849,7 +33843,7 @@
         <v>5.2</v>
       </c>
       <c r="I547" s="43" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J547" s="35">
         <v>0.106</v>
@@ -33867,7 +33861,7 @@
         <v>3</v>
       </c>
       <c r="O547" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P547" s="38" t="s">
         <v>26</v>
@@ -33888,7 +33882,7 @@
         <v>37</v>
       </c>
       <c r="V547" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W547">
         <v>1</v>
@@ -33938,7 +33932,7 @@
         <v>2.6</v>
       </c>
       <c r="O548" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P548" s="38" t="s">
         <v>26</v>
@@ -33959,7 +33953,7 @@
         <v>18</v>
       </c>
       <c r="V548" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W548">
         <v>1</v>
@@ -34009,7 +34003,7 @@
         <v>2.6</v>
       </c>
       <c r="O549" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P549" s="38" t="s">
         <v>26</v>
@@ -34030,7 +34024,7 @@
         <v>13</v>
       </c>
       <c r="V549" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W549">
         <v>1</v>
@@ -34080,10 +34074,10 @@
         <v>2.6</v>
       </c>
       <c r="O550" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P550" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q550" s="22" t="s">
         <v>104</v>
@@ -34101,7 +34095,7 @@
         <v>4</v>
       </c>
       <c r="V550" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W550">
         <v>1</v>
@@ -34127,7 +34121,7 @@
         <v>0</v>
       </c>
       <c r="G551" s="43" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H551" s="22">
         <v>4.5</v>
@@ -34172,7 +34166,7 @@
         <v>15</v>
       </c>
       <c r="V551" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W551">
         <v>1</v>
@@ -34198,7 +34192,7 @@
         <v>0</v>
       </c>
       <c r="G552" s="43" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H552" s="22">
         <v>4.7</v>
@@ -34231,7 +34225,7 @@
         <v>104</v>
       </c>
       <c r="R552" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="S552" s="35">
         <v>2</v>
@@ -34243,7 +34237,7 @@
         <v>20</v>
       </c>
       <c r="V552" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W552">
         <v>1</v>
@@ -34573,7 +34567,7 @@
         <v>17</v>
       </c>
       <c r="V560" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W560">
         <v>1</v>
@@ -34629,7 +34623,7 @@
         <v>26</v>
       </c>
       <c r="Q561" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R561" s="22" t="s">
         <v>104</v>
@@ -34644,7 +34638,7 @@
         <v>30</v>
       </c>
       <c r="V561" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W561">
         <v>1</v>
@@ -34715,7 +34709,7 @@
         <v>22</v>
       </c>
       <c r="V562" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W562">
         <v>1</v>
@@ -34786,7 +34780,7 @@
         <v>20</v>
       </c>
       <c r="V563" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W563">
         <v>1</v>
@@ -34857,7 +34851,7 @@
         <v>12</v>
       </c>
       <c r="V564" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W564">
         <v>1</v>
@@ -34913,7 +34907,7 @@
         <v>26</v>
       </c>
       <c r="Q565" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R565" s="22" t="s">
         <v>104</v>
@@ -34928,7 +34922,7 @@
         <v>21</v>
       </c>
       <c r="V565" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W565">
         <v>1</v>
@@ -34984,7 +34978,7 @@
         <v>102</v>
       </c>
       <c r="Q566" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R566" s="22" t="s">
         <v>113</v>
@@ -34999,7 +34993,7 @@
         <v>23</v>
       </c>
       <c r="V566" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W566">
         <v>1</v>
@@ -35070,7 +35064,7 @@
         <v>17</v>
       </c>
       <c r="V567" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W567">
         <v>1</v>
@@ -35141,7 +35135,7 @@
         <v>1</v>
       </c>
       <c r="V568" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W568">
         <v>1</v>
@@ -35212,7 +35206,7 @@
         <v>18</v>
       </c>
       <c r="V569" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W569">
         <v>1</v>
@@ -35333,7 +35327,7 @@
         <v>17</v>
       </c>
       <c r="V572" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W572">
         <v>1</v>
@@ -35404,7 +35398,7 @@
         <v>25</v>
       </c>
       <c r="V573" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W573">
         <v>1</v>
@@ -35475,7 +35469,7 @@
         <v>12</v>
       </c>
       <c r="V574" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W574">
         <v>1</v>
@@ -35546,7 +35540,7 @@
         <v>26</v>
       </c>
       <c r="V575" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W575">
         <v>1</v>
@@ -35617,7 +35611,7 @@
         <v>19</v>
       </c>
       <c r="V576" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W576">
         <v>1</v>
@@ -35688,7 +35682,7 @@
         <v>24</v>
       </c>
       <c r="V577" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W577">
         <v>1</v>
@@ -35759,7 +35753,7 @@
         <v>20</v>
       </c>
       <c r="V578" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W578">
         <v>1</v>
@@ -35830,7 +35824,7 @@
         <v>12</v>
       </c>
       <c r="V579" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W579">
         <v>1</v>
@@ -35901,7 +35895,7 @@
         <v>4</v>
       </c>
       <c r="V580" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W580">
         <v>1</v>
@@ -35972,7 +35966,7 @@
         <v>14</v>
       </c>
       <c r="V581" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W581">
         <v>1</v>
@@ -35980,7 +35974,7 @@
     </row>
     <row r="582" spans="1:23">
       <c r="J582" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="583" spans="1:23" ht="15">
@@ -36304,7 +36298,7 @@
         <v>21</v>
       </c>
       <c r="V589" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W589">
         <v>1</v>
@@ -36330,7 +36324,7 @@
         <v>0</v>
       </c>
       <c r="G590" s="43" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H590" s="22">
         <v>0.3</v>
@@ -36348,7 +36342,7 @@
         <v>12.2</v>
       </c>
       <c r="M590" s="35" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N590" s="36">
         <v>2.5</v>
@@ -36375,7 +36369,7 @@
         <v>14</v>
       </c>
       <c r="V590" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W590">
         <v>1</v>
@@ -36446,7 +36440,7 @@
         <v>23</v>
       </c>
       <c r="V591" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W591">
         <v>1</v>
@@ -36517,7 +36511,7 @@
         <v>24</v>
       </c>
       <c r="V592" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W592">
         <v>1</v>
@@ -36588,7 +36582,7 @@
         <v>2</v>
       </c>
       <c r="V593" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W593">
         <v>1</v>
@@ -36659,7 +36653,7 @@
         <v>26</v>
       </c>
       <c r="V594" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W594">
         <v>1</v>
@@ -36685,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="G595" s="43" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H595" s="22">
         <v>1.9</v>
@@ -36703,7 +36697,7 @@
         <v>18.7</v>
       </c>
       <c r="M595" s="35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N595" s="36">
         <v>2.5</v>
@@ -36730,7 +36724,7 @@
         <v>23</v>
       </c>
       <c r="V595" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W595">
         <v>1</v>
@@ -36801,7 +36795,7 @@
         <v>27</v>
       </c>
       <c r="V596" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W596">
         <v>1</v>
@@ -36872,7 +36866,7 @@
         <v>12</v>
       </c>
       <c r="V597" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W597">
         <v>1</v>
@@ -36943,7 +36937,7 @@
         <v>35</v>
       </c>
       <c r="V598" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W598">
         <v>1</v>
@@ -37050,7 +37044,7 @@
         <v>104</v>
       </c>
       <c r="R601" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="S601" s="35">
         <v>1</v>
@@ -37062,7 +37056,7 @@
         <v>25</v>
       </c>
       <c r="V601" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W601">
         <v>1</v>
@@ -37131,7 +37125,7 @@
         <v>16</v>
       </c>
       <c r="V602" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W602">
         <v>1</v>
@@ -37157,7 +37151,7 @@
         <v>1</v>
       </c>
       <c r="G603" s="43" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H603" s="22">
         <v>4.0999999999999996</v>
@@ -37200,7 +37194,7 @@
         <v>24</v>
       </c>
       <c r="V603" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W603">
         <v>1</v>
@@ -37226,7 +37220,7 @@
         <v>1</v>
       </c>
       <c r="G604" s="43" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H604" s="22">
         <v>3.4</v>
@@ -37269,7 +37263,7 @@
         <v>7</v>
       </c>
       <c r="V604" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W604">
         <v>1</v>
@@ -37338,7 +37332,7 @@
         <v>25</v>
       </c>
       <c r="V605" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W605">
         <v>1</v>
@@ -37364,7 +37358,7 @@
         <v>1</v>
       </c>
       <c r="G606" s="43" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H606" s="22">
         <v>3.8</v>
@@ -37407,7 +37401,7 @@
         <v>24</v>
       </c>
       <c r="V606" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W606">
         <v>1</v>
@@ -37476,7 +37470,7 @@
         <v>23</v>
       </c>
       <c r="V607" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W607">
         <v>1</v>
@@ -37545,7 +37539,7 @@
         <v>27</v>
       </c>
       <c r="V608" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W608">
         <v>1</v>
@@ -37571,7 +37565,7 @@
         <v>0</v>
       </c>
       <c r="G609" s="43" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H609" s="22">
         <v>3.4</v>
@@ -37614,7 +37608,7 @@
         <v>19</v>
       </c>
       <c r="V609" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W609">
         <v>1</v>
@@ -37640,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="G610" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H610" s="22">
         <v>4.2</v>
@@ -37656,7 +37650,7 @@
         <v>19.3</v>
       </c>
       <c r="M610" s="35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N610" s="36">
         <v>2.5</v>
@@ -37683,7 +37677,7 @@
         <v>18</v>
       </c>
       <c r="V610" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W610">
         <v>1</v>
@@ -37974,7 +37968,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I618" s="43" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J618" s="35"/>
       <c r="K618" s="35">
@@ -38011,7 +38005,7 @@
         <v>19</v>
       </c>
       <c r="V618" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W618">
         <v>1</v>
@@ -38080,7 +38074,7 @@
         <v>24</v>
       </c>
       <c r="V619" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W619">
         <v>1</v>
@@ -38106,7 +38100,7 @@
         <v>0</v>
       </c>
       <c r="G620" s="43" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H620" s="22">
         <v>4.5999999999999996</v>
@@ -38122,7 +38116,7 @@
         <v>17.3</v>
       </c>
       <c r="M620" s="35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N620" s="36">
         <v>2.7</v>
@@ -38131,7 +38125,7 @@
         <v>40</v>
       </c>
       <c r="P620" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q620" s="22" t="s">
         <v>103</v>
@@ -38149,7 +38143,7 @@
         <v>9</v>
       </c>
       <c r="V620" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W620">
         <v>1</v>
@@ -38200,7 +38194,7 @@
         <v>40</v>
       </c>
       <c r="P621" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q621" s="22" t="s">
         <v>103</v>
@@ -38218,7 +38212,7 @@
         <v>7</v>
       </c>
       <c r="V621" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W621">
         <v>1</v>
@@ -38244,7 +38238,7 @@
         <v>1</v>
       </c>
       <c r="G622" s="43" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H622" s="22">
         <v>1.6</v>
@@ -38269,7 +38263,7 @@
         <v>40</v>
       </c>
       <c r="P622" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q622" s="22" t="s">
         <v>103</v>
@@ -38287,7 +38281,7 @@
         <v>17</v>
       </c>
       <c r="V622" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W622">
         <v>1</v>
@@ -38313,7 +38307,7 @@
         <v>0</v>
       </c>
       <c r="G623" s="43" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H623" s="22">
         <v>3.4</v>
@@ -38354,7 +38348,7 @@
         <v>20</v>
       </c>
       <c r="V623" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W623">
         <v>1</v>
@@ -38423,7 +38417,7 @@
         <v>19</v>
       </c>
       <c r="V624" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W624">
         <v>1</v>
@@ -38449,7 +38443,7 @@
         <v>1</v>
       </c>
       <c r="G625" s="43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H625" s="22">
         <v>0.3</v>
@@ -38474,7 +38468,7 @@
         <v>40</v>
       </c>
       <c r="P625" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q625" s="22" t="s">
         <v>103</v>
@@ -38492,7 +38486,7 @@
         <v>20</v>
       </c>
       <c r="V625" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W625">
         <v>1</v>
@@ -38561,7 +38555,7 @@
         <v>8</v>
       </c>
       <c r="V626" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W626">
         <v>1</v>
@@ -38587,7 +38581,7 @@
         <v>0</v>
       </c>
       <c r="G627" s="43" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H627" s="22">
         <v>7.2</v>
@@ -38603,7 +38597,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="M627" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N627" s="36">
         <v>2.7</v>
@@ -38630,7 +38624,7 @@
         <v>23</v>
       </c>
       <c r="V627" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W627">
         <v>1</v>
@@ -38749,7 +38743,7 @@
         <v>9</v>
       </c>
       <c r="V630" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W630">
         <v>1</v>
@@ -38818,7 +38812,7 @@
         <v>12</v>
       </c>
       <c r="V631" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W631">
         <v>1</v>
@@ -38872,7 +38866,7 @@
         <v>26</v>
       </c>
       <c r="Q632" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R632" s="22" t="s">
         <v>104</v>
@@ -38887,7 +38881,7 @@
         <v>12</v>
       </c>
       <c r="V632" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W632">
         <v>1</v>
@@ -38941,7 +38935,7 @@
         <v>102</v>
       </c>
       <c r="Q633" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R633" s="22" t="s">
         <v>104</v>
@@ -38956,7 +38950,7 @@
         <v>21</v>
       </c>
       <c r="V633" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W633">
         <v>1</v>
@@ -39010,7 +39004,7 @@
         <v>40</v>
       </c>
       <c r="Q634" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R634" s="22" t="s">
         <v>104</v>
@@ -39025,7 +39019,7 @@
         <v>21</v>
       </c>
       <c r="V634" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W634">
         <v>1</v>
@@ -39079,7 +39073,7 @@
         <v>26</v>
       </c>
       <c r="Q635" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R635" s="22" t="s">
         <v>104</v>
@@ -39094,7 +39088,7 @@
         <v>8</v>
       </c>
       <c r="V635" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W635">
         <v>1</v>
@@ -39163,7 +39157,7 @@
         <v>21</v>
       </c>
       <c r="V636" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W636">
         <v>1</v>
@@ -39232,7 +39226,7 @@
         <v>23</v>
       </c>
       <c r="V637" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W637">
         <v>1</v>
@@ -39301,7 +39295,7 @@
         <v>29</v>
       </c>
       <c r="V638" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W638">
         <v>1</v>
@@ -39352,10 +39346,10 @@
         <v>8</v>
       </c>
       <c r="P639" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q639" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R639" s="22" t="s">
         <v>104</v>
@@ -39370,7 +39364,7 @@
         <v>14</v>
       </c>
       <c r="V639" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W639">
         <v>1</v>
@@ -39698,7 +39692,7 @@
         <v>5</v>
       </c>
       <c r="V647" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W647">
         <v>1</v>
@@ -39752,7 +39746,7 @@
         <v>26</v>
       </c>
       <c r="Q648" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R648" s="22" t="s">
         <v>113</v>
@@ -39767,7 +39761,7 @@
         <v>30</v>
       </c>
       <c r="V648" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W648">
         <v>1</v>
@@ -39862,7 +39856,7 @@
         <v>10</v>
       </c>
       <c r="V650" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W650">
         <v>1</v>
@@ -39916,7 +39910,7 @@
         <v>102</v>
       </c>
       <c r="Q651" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R651" s="22" t="s">
         <v>104</v>
@@ -39931,7 +39925,7 @@
         <v>11</v>
       </c>
       <c r="V651" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W651">
         <v>1</v>
@@ -40000,7 +39994,7 @@
         <v>11</v>
       </c>
       <c r="V652" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W652">
         <v>1</v>
@@ -40069,7 +40063,7 @@
         <v>7</v>
       </c>
       <c r="V653" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W653">
         <v>1</v>
@@ -40138,7 +40132,7 @@
         <v>23</v>
       </c>
       <c r="V654" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W654">
         <v>1</v>
@@ -40192,7 +40186,7 @@
         <v>26</v>
       </c>
       <c r="Q655" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R655" s="22" t="s">
         <v>103</v>
@@ -40207,7 +40201,7 @@
         <v>31</v>
       </c>
       <c r="V655" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W655">
         <v>1</v>
@@ -40276,7 +40270,7 @@
         <v>22</v>
       </c>
       <c r="V656" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W656">
         <v>1</v>
@@ -40383,7 +40377,7 @@
         <v>104</v>
       </c>
       <c r="R659" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="S659" s="35">
         <v>1</v>
@@ -40395,7 +40389,7 @@
         <v>24</v>
       </c>
       <c r="V659" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W659">
         <v>1</v>
@@ -40464,7 +40458,7 @@
         <v>26</v>
       </c>
       <c r="V660" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W660">
         <v>1</v>
@@ -40533,7 +40527,7 @@
         <v>23</v>
       </c>
       <c r="V661" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W661">
         <v>1</v>
@@ -40602,7 +40596,7 @@
         <v>20</v>
       </c>
       <c r="V662" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W662">
         <v>1</v>
@@ -40671,7 +40665,7 @@
         <v>19</v>
       </c>
       <c r="V663" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W663">
         <v>1</v>
@@ -40740,7 +40734,7 @@
         <v>20</v>
       </c>
       <c r="V664" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W664">
         <v>1</v>
@@ -40809,7 +40803,7 @@
         <v>25</v>
       </c>
       <c r="V665" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W665">
         <v>1</v>
@@ -40878,7 +40872,7 @@
         <v>26</v>
       </c>
       <c r="V666" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W666">
         <v>1</v>
@@ -40904,7 +40898,7 @@
         <v>0</v>
       </c>
       <c r="G667" s="43" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H667" s="43">
         <v>2.5</v>
@@ -40947,7 +40941,7 @@
         <v>26</v>
       </c>
       <c r="V667" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W667">
         <v>1</v>
@@ -41016,7 +41010,7 @@
         <v>24</v>
       </c>
       <c r="V668" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W668">
         <v>1</v>
@@ -41929,7 +41923,7 @@
         <v>102</v>
       </c>
       <c r="Q685" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R685" s="22" t="s">
         <v>113</v>
@@ -42984,13 +42978,13 @@
         <v>3</v>
       </c>
       <c r="T705" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U705" s="35">
         <v>16</v>
       </c>
       <c r="V705" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W705">
         <v>1</v>
@@ -43022,7 +43016,7 @@
         <v>3.8</v>
       </c>
       <c r="I706" s="43" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J706" s="35"/>
       <c r="K706" s="35">
@@ -43059,7 +43053,7 @@
         <v>27</v>
       </c>
       <c r="V706" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W706">
         <v>1</v>
@@ -43122,13 +43116,13 @@
         <v>1</v>
       </c>
       <c r="T707" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U707" s="35">
         <v>22</v>
       </c>
       <c r="V707" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W707">
         <v>1</v>
@@ -43197,7 +43191,7 @@
         <v>14</v>
       </c>
       <c r="V708" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W708">
         <v>1</v>
@@ -43223,13 +43217,13 @@
         <v>1</v>
       </c>
       <c r="G709" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H709" s="43" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I709" s="43" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J709" s="35"/>
       <c r="K709" s="35">
@@ -43260,16 +43254,16 @@
         <v>2</v>
       </c>
       <c r="T709" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="U709" s="35">
         <v>8</v>
       </c>
       <c r="V709" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W709" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="710" spans="1:23">
@@ -43292,7 +43286,7 @@
         <v>2</v>
       </c>
       <c r="G710" s="43" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H710" s="43">
         <v>3.5</v>
@@ -43335,7 +43329,7 @@
         <v>12</v>
       </c>
       <c r="V710" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W710">
         <v>2</v>
@@ -43361,7 +43355,7 @@
         <v>0</v>
       </c>
       <c r="G711" s="43" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H711" s="43">
         <v>2.7</v>
@@ -43404,7 +43398,7 @@
         <v>20</v>
       </c>
       <c r="V711" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W711">
         <v>2</v>
@@ -43473,7 +43467,7 @@
         <v>19</v>
       </c>
       <c r="V712" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W712">
         <v>2</v>
@@ -43499,7 +43493,7 @@
         <v>0</v>
       </c>
       <c r="G713" s="43" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H713" s="43">
         <v>2.8</v>
@@ -43542,7 +43536,7 @@
         <v>22</v>
       </c>
       <c r="V713" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W713">
         <v>2</v>
@@ -43568,7 +43562,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="43" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H714" s="43">
         <v>2</v>
@@ -43611,7 +43605,7 @@
         <v>11</v>
       </c>
       <c r="V714" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W714">
         <v>2</v>
@@ -43687,7 +43681,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="43" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H717" s="43">
         <v>3.1</v>
@@ -43730,7 +43724,7 @@
         <v>27</v>
       </c>
       <c r="V717" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W717">
         <v>2</v>
@@ -43756,7 +43750,7 @@
         <v>1</v>
       </c>
       <c r="G718" s="43" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H718" s="43">
         <v>2.7</v>
@@ -43799,7 +43793,7 @@
         <v>22</v>
       </c>
       <c r="V718" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W718">
         <v>2</v>
@@ -43828,10 +43822,10 @@
         <v>8.1639999999999997</v>
       </c>
       <c r="H719" s="43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I719" s="43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J719" s="35"/>
       <c r="K719" s="35">
@@ -43868,10 +43862,10 @@
         <v>21</v>
       </c>
       <c r="V719" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W719" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="720" spans="1:23">
@@ -43894,13 +43888,13 @@
         <v>1</v>
       </c>
       <c r="G720" s="43" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H720" s="43">
         <v>4.5999999999999996</v>
       </c>
       <c r="I720" s="43" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J720" s="35"/>
       <c r="K720" s="35">
@@ -43937,7 +43931,7 @@
         <v>34</v>
       </c>
       <c r="V720" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="W720">
         <v>1</v>
@@ -44006,7 +44000,7 @@
         <v>33</v>
       </c>
       <c r="V721" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W721">
         <v>1</v>
@@ -44075,7 +44069,7 @@
         <v>30</v>
       </c>
       <c r="V722" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W722">
         <v>1</v>
@@ -44101,7 +44095,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="43" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H723" s="43">
         <v>4.7</v>
@@ -44117,7 +44111,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="M723" s="35" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N723" s="36">
         <v>2.6</v>
@@ -44144,7 +44138,7 @@
         <v>25</v>
       </c>
       <c r="V723" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W723">
         <v>1</v>
@@ -44213,7 +44207,7 @@
         <v>31</v>
       </c>
       <c r="V724" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W724">
         <v>1</v>
@@ -44282,7 +44276,7 @@
         <v>21</v>
       </c>
       <c r="V725" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W725">
         <v>1</v>
@@ -44351,7 +44345,7 @@
         <v>26</v>
       </c>
       <c r="V726" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W726">
         <v>1</v>
@@ -44705,7 +44699,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H735" s="22">
         <v>3.5</v>
@@ -44805,7 +44799,7 @@
         <v>104</v>
       </c>
       <c r="R736" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S736" s="35">
         <v>1</v>
@@ -44849,7 +44843,7 @@
         <v>7.9</v>
       </c>
       <c r="I737" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J737" s="35"/>
       <c r="K737" s="35">
@@ -45147,7 +45141,7 @@
         <v>26</v>
       </c>
       <c r="Q741" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R741" s="22" t="s">
         <v>104</v>
@@ -45288,7 +45282,7 @@
         <v>104</v>
       </c>
       <c r="R743" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S743" s="35">
         <v>1</v>
@@ -45518,7 +45512,7 @@
         <v>0</v>
       </c>
       <c r="G748" s="43" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H748" s="22">
         <v>6.2</v>
@@ -45873,7 +45867,7 @@
         <v>0</v>
       </c>
       <c r="G753" s="43" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H753" s="22">
         <v>4.5</v>
@@ -46048,7 +46042,7 @@
         <v>104</v>
       </c>
       <c r="R755" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S755" s="35">
         <v>1</v>
@@ -46348,7 +46342,7 @@
         <v>5.2629999999999999</v>
       </c>
       <c r="H763" s="43" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I763" s="22">
         <v>0</v>
@@ -46393,7 +46387,7 @@
         <v>108</v>
       </c>
       <c r="W763" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="764" spans="1:23">
@@ -47105,7 +47099,7 @@
         <v>0</v>
       </c>
       <c r="G775" s="43" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H775" s="22">
         <v>5.0999999999999996</v>
@@ -47280,7 +47274,7 @@
         <v>103</v>
       </c>
       <c r="R777" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="S777" s="35">
         <v>1</v>
@@ -47419,7 +47413,7 @@
         <v>26</v>
       </c>
       <c r="Q779" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R779" s="22" t="s">
         <v>113</v>
@@ -47490,7 +47484,7 @@
         <v>102</v>
       </c>
       <c r="Q780" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R780" s="22" t="s">
         <v>113</v>
@@ -47579,7 +47573,7 @@
         <v>107</v>
       </c>
       <c r="W781" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="782" spans="1:23">
@@ -47602,7 +47596,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="43" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H782" s="22">
         <v>7.5</v>
@@ -47635,7 +47629,7 @@
         <v>104</v>
       </c>
       <c r="R782" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="S782" s="35">
         <v>2</v>
@@ -47673,7 +47667,7 @@
         <v>0</v>
       </c>
       <c r="G783" s="43" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H783" s="22">
         <v>3.5</v>
@@ -47797,6 +47791,78 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="K208:M208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="O236:P236"/>
+    <mergeCell ref="K237:M237"/>
+    <mergeCell ref="Q237:R237"/>
+    <mergeCell ref="O265:P265"/>
+    <mergeCell ref="K266:M266"/>
+    <mergeCell ref="Q266:R266"/>
+    <mergeCell ref="O294:P294"/>
+    <mergeCell ref="K295:M295"/>
+    <mergeCell ref="Q295:R295"/>
+    <mergeCell ref="O323:P323"/>
+    <mergeCell ref="K324:M324"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="O352:P352"/>
+    <mergeCell ref="K353:M353"/>
+    <mergeCell ref="Q353:R353"/>
+    <mergeCell ref="O381:P381"/>
+    <mergeCell ref="K382:M382"/>
+    <mergeCell ref="Q382:R382"/>
+    <mergeCell ref="O410:P410"/>
+    <mergeCell ref="K411:M411"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="K440:M440"/>
+    <mergeCell ref="Q440:R440"/>
+    <mergeCell ref="O468:P468"/>
+    <mergeCell ref="K469:M469"/>
+    <mergeCell ref="Q469:R469"/>
+    <mergeCell ref="O497:P497"/>
+    <mergeCell ref="K498:M498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="O526:P526"/>
+    <mergeCell ref="K527:M527"/>
+    <mergeCell ref="Q527:R527"/>
+    <mergeCell ref="O555:P555"/>
+    <mergeCell ref="K556:M556"/>
+    <mergeCell ref="Q556:R556"/>
+    <mergeCell ref="O584:P584"/>
+    <mergeCell ref="K585:M585"/>
+    <mergeCell ref="Q585:R585"/>
+    <mergeCell ref="O613:P613"/>
+    <mergeCell ref="K614:M614"/>
+    <mergeCell ref="Q614:R614"/>
+    <mergeCell ref="O642:P642"/>
+    <mergeCell ref="K643:M643"/>
+    <mergeCell ref="Q643:R643"/>
+    <mergeCell ref="O671:P671"/>
+    <mergeCell ref="K672:M672"/>
+    <mergeCell ref="Q672:R672"/>
     <mergeCell ref="O758:P758"/>
     <mergeCell ref="K759:M759"/>
     <mergeCell ref="Q759:R759"/>
@@ -47806,78 +47872,6 @@
     <mergeCell ref="O729:P729"/>
     <mergeCell ref="K730:M730"/>
     <mergeCell ref="Q730:R730"/>
-    <mergeCell ref="O642:P642"/>
-    <mergeCell ref="K643:M643"/>
-    <mergeCell ref="Q643:R643"/>
-    <mergeCell ref="O671:P671"/>
-    <mergeCell ref="K672:M672"/>
-    <mergeCell ref="Q672:R672"/>
-    <mergeCell ref="O584:P584"/>
-    <mergeCell ref="K585:M585"/>
-    <mergeCell ref="Q585:R585"/>
-    <mergeCell ref="O613:P613"/>
-    <mergeCell ref="K614:M614"/>
-    <mergeCell ref="Q614:R614"/>
-    <mergeCell ref="O526:P526"/>
-    <mergeCell ref="K527:M527"/>
-    <mergeCell ref="Q527:R527"/>
-    <mergeCell ref="O555:P555"/>
-    <mergeCell ref="K556:M556"/>
-    <mergeCell ref="Q556:R556"/>
-    <mergeCell ref="O468:P468"/>
-    <mergeCell ref="K469:M469"/>
-    <mergeCell ref="Q469:R469"/>
-    <mergeCell ref="O497:P497"/>
-    <mergeCell ref="K498:M498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="O410:P410"/>
-    <mergeCell ref="K411:M411"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="K440:M440"/>
-    <mergeCell ref="Q440:R440"/>
-    <mergeCell ref="O352:P352"/>
-    <mergeCell ref="K353:M353"/>
-    <mergeCell ref="Q353:R353"/>
-    <mergeCell ref="O381:P381"/>
-    <mergeCell ref="K382:M382"/>
-    <mergeCell ref="Q382:R382"/>
-    <mergeCell ref="O294:P294"/>
-    <mergeCell ref="K295:M295"/>
-    <mergeCell ref="Q295:R295"/>
-    <mergeCell ref="O323:P323"/>
-    <mergeCell ref="K324:M324"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="O236:P236"/>
-    <mergeCell ref="K237:M237"/>
-    <mergeCell ref="Q237:R237"/>
-    <mergeCell ref="O265:P265"/>
-    <mergeCell ref="K266:M266"/>
-    <mergeCell ref="Q266:R266"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="K208:M208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="Q34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/phenotypic data/RawData/2012 Data/BogUpper5-R9.xlsx
+++ b/Data/phenotypic data/RawData/2012 Data/BogUpper5-R9.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4899" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="259">
   <si>
     <t>Bog: LW5</t>
   </si>
@@ -651,99 +651,6 @@
     <t>round/protruded</t>
   </si>
   <si>
-    <t>3*</t>
-  </si>
-  <si>
-    <t>5.231*</t>
-  </si>
-  <si>
-    <t>8.407*</t>
-  </si>
-  <si>
-    <t>3.274*</t>
-  </si>
-  <si>
-    <t>3.5/2.1/.4</t>
-  </si>
-  <si>
-    <t>2.686*</t>
-  </si>
-  <si>
-    <t>colsed</t>
-  </si>
-  <si>
-    <t>lare</t>
-  </si>
-  <si>
-    <t>8.043*</t>
-  </si>
-  <si>
-    <t>5.088*</t>
-  </si>
-  <si>
-    <t>5.526*</t>
-  </si>
-  <si>
-    <t>1.3/3.3</t>
-  </si>
-  <si>
-    <t>1.134*</t>
-  </si>
-  <si>
-    <t>6.236*</t>
-  </si>
-  <si>
-    <t>.645*</t>
-  </si>
-  <si>
-    <t>3.337*</t>
-  </si>
-  <si>
-    <t>4.720*</t>
-  </si>
-  <si>
-    <t>8.57*</t>
-  </si>
-  <si>
-    <t>8.152*</t>
-  </si>
-  <si>
-    <t>8.538*</t>
-  </si>
-  <si>
-    <t>5.220*</t>
-  </si>
-  <si>
-    <t>2.994*</t>
-  </si>
-  <si>
-    <t>flat/pointed</t>
-  </si>
-  <si>
-    <t>2.392*</t>
-  </si>
-  <si>
-    <t>4.310*</t>
-  </si>
-  <si>
-    <t>3.937*</t>
-  </si>
-  <si>
-    <t>2.683*</t>
-  </si>
-  <si>
-    <t>5.848*</t>
-  </si>
-  <si>
-    <t>.6/1.3</t>
-  </si>
-  <si>
-    <t>3.190*</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>5.452*</t>
   </si>
   <si>
@@ -841,6 +748,66 @@
   </si>
   <si>
     <t>2.900*</t>
+  </si>
+  <si>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>0.726*</t>
+  </si>
+  <si>
+    <t>1.674*</t>
+  </si>
+  <si>
+    <t>2.244*</t>
+  </si>
+  <si>
+    <t>3.1/2.3</t>
+  </si>
+  <si>
+    <t>oblond</t>
+  </si>
+  <si>
+    <t>protuding</t>
+  </si>
+  <si>
+    <t>4.613*</t>
+  </si>
+  <si>
+    <t>5.271*</t>
+  </si>
+  <si>
+    <t>2|3</t>
+  </si>
+  <si>
+    <t>0|1</t>
+  </si>
+  <si>
+    <t>2.4|2.1</t>
+  </si>
+  <si>
+    <t>4.1|3.4</t>
+  </si>
+  <si>
+    <t>N/N</t>
+  </si>
+  <si>
+    <t>1.64|2.18</t>
+  </si>
+  <si>
+    <t>4.94|3.18</t>
+  </si>
+  <si>
+    <t>0.8|1.57</t>
+  </si>
+  <si>
+    <t>2.8|2.6</t>
+  </si>
+  <si>
+    <t>4.6|4.3</t>
+  </si>
+  <si>
+    <t>Y|Y</t>
   </si>
 </sst>
 </file>
@@ -975,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1154,6 +1121,13 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1501,12 +1475,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B469" workbookViewId="0">
-      <selection activeCell="B473" sqref="B473"/>
+    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="V775" sqref="V775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1557,10 +1532,10 @@
       <c r="L4" s="13"/>
       <c r="M4" s="12"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="49"/>
+      <c r="P4" s="51"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="11"/>
       <c r="S4" s="16"/>
@@ -1581,11 +1556,11 @@
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1595,10 +1570,10 @@
       <c r="P5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="51"/>
+      <c r="R5" s="53"/>
       <c r="S5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1740,7 +1715,7 @@
         <v>45</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1908,7 +1883,7 @@
         <v>107</v>
       </c>
       <c r="W10" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2668,7 +2643,7 @@
         <v>107</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3286,10 +3261,10 @@
       <c r="L33" s="13"/>
       <c r="M33" s="12"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="49" t="s">
+      <c r="O33" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="49"/>
+      <c r="P33" s="51"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="11"/>
       <c r="S33" s="16"/>
@@ -3310,11 +3285,11 @@
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="20" t="s">
         <v>7</v>
       </c>
@@ -3324,10 +3299,10 @@
       <c r="P34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q34" s="51" t="s">
+      <c r="Q34" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R34" s="51"/>
+      <c r="R34" s="53"/>
       <c r="S34" s="4" t="s">
         <v>11</v>
       </c>
@@ -4355,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="K51" s="35">
         <v>16.100000000000001</v>
@@ -5012,10 +4987,10 @@
       <c r="L62" s="13"/>
       <c r="M62" s="12"/>
       <c r="N62" s="14"/>
-      <c r="O62" s="49" t="s">
+      <c r="O62" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="49"/>
+      <c r="P62" s="51"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="11"/>
       <c r="S62" s="16"/>
@@ -5036,11 +5011,11 @@
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="18"/>
-      <c r="K63" s="50" t="s">
+      <c r="K63" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
       <c r="N63" s="20" t="s">
         <v>7</v>
       </c>
@@ -5050,10 +5025,10 @@
       <c r="P63" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q63" s="51" t="s">
+      <c r="Q63" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R63" s="51"/>
+      <c r="R63" s="53"/>
       <c r="S63" s="4" t="s">
         <v>11</v>
       </c>
@@ -6738,10 +6713,10 @@
       <c r="L91" s="13"/>
       <c r="M91" s="12"/>
       <c r="N91" s="14"/>
-      <c r="O91" s="49" t="s">
+      <c r="O91" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="49"/>
+      <c r="P91" s="51"/>
       <c r="Q91" s="15"/>
       <c r="R91" s="11"/>
       <c r="S91" s="16"/>
@@ -6762,11 +6737,11 @@
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="18"/>
-      <c r="K92" s="50" t="s">
+      <c r="K92" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L92" s="50"/>
-      <c r="M92" s="50"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
       <c r="N92" s="20" t="s">
         <v>7</v>
       </c>
@@ -6776,10 +6751,10 @@
       <c r="P92" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q92" s="51" t="s">
+      <c r="Q92" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R92" s="51"/>
+      <c r="R92" s="53"/>
       <c r="S92" s="4" t="s">
         <v>11</v>
       </c>
@@ -8422,10 +8397,10 @@
       <c r="L120" s="13"/>
       <c r="M120" s="12"/>
       <c r="N120" s="14"/>
-      <c r="O120" s="49" t="s">
+      <c r="O120" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P120" s="49"/>
+      <c r="P120" s="51"/>
       <c r="Q120" s="15"/>
       <c r="R120" s="11"/>
       <c r="S120" s="16"/>
@@ -8446,11 +8421,11 @@
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="18"/>
-      <c r="K121" s="50" t="s">
+      <c r="K121" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L121" s="50"/>
-      <c r="M121" s="50"/>
+      <c r="L121" s="52"/>
+      <c r="M121" s="52"/>
       <c r="N121" s="20" t="s">
         <v>7</v>
       </c>
@@ -8460,10 +8435,10 @@
       <c r="P121" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q121" s="51" t="s">
+      <c r="Q121" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R121" s="51"/>
+      <c r="R121" s="53"/>
       <c r="S121" s="4" t="s">
         <v>11</v>
       </c>
@@ -9175,7 +9150,7 @@
         <v>40</v>
       </c>
       <c r="P132" s="15" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="Q132" s="22" t="s">
         <v>103</v>
@@ -10148,10 +10123,10 @@
       <c r="L149" s="13"/>
       <c r="M149" s="12"/>
       <c r="N149" s="14"/>
-      <c r="O149" s="49" t="s">
+      <c r="O149" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P149" s="49"/>
+      <c r="P149" s="51"/>
       <c r="Q149" s="15"/>
       <c r="R149" s="11"/>
       <c r="S149" s="16"/>
@@ -10172,11 +10147,11 @@
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="18"/>
-      <c r="K150" s="50" t="s">
+      <c r="K150" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L150" s="50"/>
-      <c r="M150" s="50"/>
+      <c r="L150" s="52"/>
+      <c r="M150" s="52"/>
       <c r="N150" s="20" t="s">
         <v>7</v>
       </c>
@@ -10186,10 +10161,10 @@
       <c r="P150" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q150" s="51" t="s">
+      <c r="Q150" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R150" s="51"/>
+      <c r="R150" s="53"/>
       <c r="S150" s="4" t="s">
         <v>11</v>
       </c>
@@ -11874,10 +11849,10 @@
       <c r="L178" s="13"/>
       <c r="M178" s="12"/>
       <c r="N178" s="14"/>
-      <c r="O178" s="49" t="s">
+      <c r="O178" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P178" s="49"/>
+      <c r="P178" s="51"/>
       <c r="Q178" s="15"/>
       <c r="R178" s="11"/>
       <c r="S178" s="16"/>
@@ -11898,11 +11873,11 @@
       </c>
       <c r="I179" s="11"/>
       <c r="J179" s="18"/>
-      <c r="K179" s="50" t="s">
+      <c r="K179" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L179" s="50"/>
-      <c r="M179" s="50"/>
+      <c r="L179" s="52"/>
+      <c r="M179" s="52"/>
       <c r="N179" s="20" t="s">
         <v>7</v>
       </c>
@@ -11912,10 +11887,10 @@
       <c r="P179" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q179" s="51" t="s">
+      <c r="Q179" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R179" s="51"/>
+      <c r="R179" s="53"/>
       <c r="S179" s="4" t="s">
         <v>11</v>
       </c>
@@ -13600,10 +13575,10 @@
       <c r="L207" s="13"/>
       <c r="M207" s="12"/>
       <c r="N207" s="14"/>
-      <c r="O207" s="49" t="s">
+      <c r="O207" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P207" s="49"/>
+      <c r="P207" s="51"/>
       <c r="Q207" s="15"/>
       <c r="R207" s="11"/>
       <c r="S207" s="16"/>
@@ -13624,11 +13599,11 @@
       </c>
       <c r="I208" s="11"/>
       <c r="J208" s="18"/>
-      <c r="K208" s="50" t="s">
+      <c r="K208" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L208" s="50"/>
-      <c r="M208" s="50"/>
+      <c r="L208" s="52"/>
+      <c r="M208" s="52"/>
       <c r="N208" s="20" t="s">
         <v>7</v>
       </c>
@@ -13638,10 +13613,10 @@
       <c r="P208" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q208" s="51" t="s">
+      <c r="Q208" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R208" s="51"/>
+      <c r="R208" s="53"/>
       <c r="S208" s="4" t="s">
         <v>11</v>
       </c>
@@ -15326,10 +15301,10 @@
       <c r="L236" s="13"/>
       <c r="M236" s="12"/>
       <c r="N236" s="14"/>
-      <c r="O236" s="49" t="s">
+      <c r="O236" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P236" s="49"/>
+      <c r="P236" s="51"/>
       <c r="Q236" s="15"/>
       <c r="R236" s="11"/>
       <c r="S236" s="16"/>
@@ -15350,11 +15325,11 @@
       </c>
       <c r="I237" s="11"/>
       <c r="J237" s="18"/>
-      <c r="K237" s="50" t="s">
+      <c r="K237" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L237" s="50"/>
-      <c r="M237" s="50"/>
+      <c r="L237" s="52"/>
+      <c r="M237" s="52"/>
       <c r="N237" s="20" t="s">
         <v>7</v>
       </c>
@@ -15364,10 +15339,10 @@
       <c r="P237" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q237" s="51" t="s">
+      <c r="Q237" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R237" s="51"/>
+      <c r="R237" s="53"/>
       <c r="S237" s="4" t="s">
         <v>11</v>
       </c>
@@ -16100,7 +16075,7 @@
         <v>107</v>
       </c>
       <c r="W248" s="16" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -17055,10 +17030,10 @@
       <c r="L265" s="13"/>
       <c r="M265" s="12"/>
       <c r="N265" s="14"/>
-      <c r="O265" s="49" t="s">
+      <c r="O265" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P265" s="49"/>
+      <c r="P265" s="51"/>
       <c r="Q265" s="15"/>
       <c r="R265" s="11"/>
       <c r="S265" s="16"/>
@@ -17079,11 +17054,11 @@
       </c>
       <c r="I266" s="11"/>
       <c r="J266" s="18"/>
-      <c r="K266" s="50" t="s">
+      <c r="K266" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L266" s="50"/>
-      <c r="M266" s="50"/>
+      <c r="L266" s="52"/>
+      <c r="M266" s="52"/>
       <c r="N266" s="20" t="s">
         <v>7</v>
       </c>
@@ -17093,10 +17068,10 @@
       <c r="P266" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q266" s="51" t="s">
+      <c r="Q266" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R266" s="51"/>
+      <c r="R266" s="53"/>
       <c r="S266" s="4" t="s">
         <v>11</v>
       </c>
@@ -18204,7 +18179,7 @@
         <v>17.7</v>
       </c>
       <c r="M284" s="16" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="N284" s="36">
         <v>3.1</v>
@@ -18784,10 +18759,10 @@
       <c r="L294" s="13"/>
       <c r="M294" s="12"/>
       <c r="N294" s="14"/>
-      <c r="O294" s="49" t="s">
+      <c r="O294" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P294" s="49"/>
+      <c r="P294" s="51"/>
       <c r="Q294" s="15"/>
       <c r="R294" s="11"/>
       <c r="S294" s="16"/>
@@ -18808,11 +18783,11 @@
       </c>
       <c r="I295" s="11"/>
       <c r="J295" s="18"/>
-      <c r="K295" s="50" t="s">
+      <c r="K295" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L295" s="50"/>
-      <c r="M295" s="50"/>
+      <c r="L295" s="52"/>
+      <c r="M295" s="52"/>
       <c r="N295" s="20" t="s">
         <v>7</v>
       </c>
@@ -18822,10 +18797,10 @@
       <c r="P295" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q295" s="51" t="s">
+      <c r="Q295" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R295" s="51"/>
+      <c r="R295" s="53"/>
       <c r="S295" s="4" t="s">
         <v>11</v>
       </c>
@@ -19128,7 +19103,7 @@
         <v>158</v>
       </c>
       <c r="W300" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -19266,7 +19241,7 @@
         <v>158</v>
       </c>
       <c r="W302" s="16" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -20490,10 +20465,10 @@
       <c r="L323" s="13"/>
       <c r="M323" s="12"/>
       <c r="N323" s="14"/>
-      <c r="O323" s="49" t="s">
+      <c r="O323" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P323" s="49"/>
+      <c r="P323" s="51"/>
       <c r="Q323" s="15"/>
       <c r="R323" s="11"/>
       <c r="S323" s="16"/>
@@ -20514,11 +20489,11 @@
       </c>
       <c r="I324" s="11"/>
       <c r="J324" s="18"/>
-      <c r="K324" s="50" t="s">
+      <c r="K324" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L324" s="50"/>
-      <c r="M324" s="50"/>
+      <c r="L324" s="52"/>
+      <c r="M324" s="52"/>
       <c r="N324" s="20" t="s">
         <v>7</v>
       </c>
@@ -20528,10 +20503,10 @@
       <c r="P324" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q324" s="51" t="s">
+      <c r="Q324" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R324" s="51"/>
+      <c r="R324" s="53"/>
       <c r="S324" s="4" t="s">
         <v>11</v>
       </c>
@@ -22216,10 +22191,10 @@
       <c r="L352" s="13"/>
       <c r="M352" s="12"/>
       <c r="N352" s="14"/>
-      <c r="O352" s="49" t="s">
+      <c r="O352" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P352" s="49"/>
+      <c r="P352" s="51"/>
       <c r="Q352" s="15"/>
       <c r="R352" s="11"/>
       <c r="S352" s="16"/>
@@ -22240,11 +22215,11 @@
       </c>
       <c r="I353" s="11"/>
       <c r="J353" s="18"/>
-      <c r="K353" s="50" t="s">
+      <c r="K353" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L353" s="50"/>
-      <c r="M353" s="50"/>
+      <c r="L353" s="52"/>
+      <c r="M353" s="52"/>
       <c r="N353" s="20" t="s">
         <v>7</v>
       </c>
@@ -22254,10 +22229,10 @@
       <c r="P353" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q353" s="51" t="s">
+      <c r="Q353" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R353" s="51"/>
+      <c r="R353" s="53"/>
       <c r="S353" s="4" t="s">
         <v>11</v>
       </c>
@@ -22596,7 +22571,7 @@
         <v>0</v>
       </c>
       <c r="J359" s="35" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="K359" s="35">
         <v>20</v>
@@ -23016,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="J365" s="35" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="K365" s="35">
         <v>19.100000000000001</v>
@@ -23936,10 +23911,10 @@
       <c r="L381" s="13"/>
       <c r="M381" s="12"/>
       <c r="N381" s="14"/>
-      <c r="O381" s="49" t="s">
+      <c r="O381" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P381" s="49"/>
+      <c r="P381" s="51"/>
       <c r="Q381" s="15"/>
       <c r="R381" s="11"/>
       <c r="S381" s="16"/>
@@ -23960,11 +23935,11 @@
       </c>
       <c r="I382" s="11"/>
       <c r="J382" s="18"/>
-      <c r="K382" s="50" t="s">
+      <c r="K382" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L382" s="50"/>
-      <c r="M382" s="50"/>
+      <c r="L382" s="52"/>
+      <c r="M382" s="52"/>
       <c r="N382" s="20" t="s">
         <v>7</v>
       </c>
@@ -23974,10 +23949,10 @@
       <c r="P382" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q382" s="51" t="s">
+      <c r="Q382" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R382" s="51"/>
+      <c r="R382" s="53"/>
       <c r="S382" s="4" t="s">
         <v>11</v>
       </c>
@@ -25351,7 +25326,7 @@
         <v>1</v>
       </c>
       <c r="G404" s="11" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="H404" s="22">
         <v>2.7</v>
@@ -25662,10 +25637,10 @@
       <c r="L410" s="13"/>
       <c r="M410" s="12"/>
       <c r="N410" s="14"/>
-      <c r="O410" s="49" t="s">
+      <c r="O410" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P410" s="49"/>
+      <c r="P410" s="51"/>
       <c r="Q410" s="15"/>
       <c r="R410" s="11"/>
       <c r="S410" s="16"/>
@@ -25686,11 +25661,11 @@
       </c>
       <c r="I411" s="11"/>
       <c r="J411" s="18"/>
-      <c r="K411" s="50" t="s">
+      <c r="K411" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L411" s="50"/>
-      <c r="M411" s="50"/>
+      <c r="L411" s="52"/>
+      <c r="M411" s="52"/>
       <c r="N411" s="20" t="s">
         <v>7</v>
       </c>
@@ -25700,10 +25675,10 @@
       <c r="P411" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q411" s="51" t="s">
+      <c r="Q411" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R411" s="51"/>
+      <c r="R411" s="53"/>
       <c r="S411" s="4" t="s">
         <v>11</v>
       </c>
@@ -27387,10 +27362,10 @@
       <c r="L439" s="13"/>
       <c r="M439" s="12"/>
       <c r="N439" s="14"/>
-      <c r="O439" s="49" t="s">
+      <c r="O439" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P439" s="49"/>
+      <c r="P439" s="51"/>
       <c r="Q439" s="15"/>
       <c r="R439" s="11"/>
       <c r="S439" s="16"/>
@@ -27411,11 +27386,11 @@
       </c>
       <c r="I440" s="11"/>
       <c r="J440" s="18"/>
-      <c r="K440" s="50" t="s">
+      <c r="K440" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L440" s="50"/>
-      <c r="M440" s="50"/>
+      <c r="L440" s="52"/>
+      <c r="M440" s="52"/>
       <c r="N440" s="20" t="s">
         <v>7</v>
       </c>
@@ -27425,10 +27400,10 @@
       <c r="P440" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q440" s="51" t="s">
+      <c r="Q440" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R440" s="51"/>
+      <c r="R440" s="53"/>
       <c r="S440" s="4" t="s">
         <v>11</v>
       </c>
@@ -28019,7 +27994,7 @@
         <v>158</v>
       </c>
       <c r="W449" s="16" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="450" spans="1:23">
@@ -29113,10 +29088,10 @@
       <c r="L468" s="13"/>
       <c r="M468" s="12"/>
       <c r="N468" s="14"/>
-      <c r="O468" s="49" t="s">
+      <c r="O468" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P468" s="49"/>
+      <c r="P468" s="51"/>
       <c r="Q468" s="15"/>
       <c r="R468" s="11"/>
       <c r="S468" s="16"/>
@@ -29137,11 +29112,11 @@
       </c>
       <c r="I469" s="11"/>
       <c r="J469" s="18"/>
-      <c r="K469" s="50" t="s">
+      <c r="K469" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L469" s="50"/>
-      <c r="M469" s="50"/>
+      <c r="L469" s="52"/>
+      <c r="M469" s="52"/>
       <c r="N469" s="20" t="s">
         <v>7</v>
       </c>
@@ -29151,10 +29126,10 @@
       <c r="P469" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q469" s="51" t="s">
+      <c r="Q469" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R469" s="51"/>
+      <c r="R469" s="53"/>
       <c r="S469" s="4" t="s">
         <v>11</v>
       </c>
@@ -29584,8 +29559,8 @@
       <c r="P476" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Q476" s="22" t="s">
-        <v>103</v>
+      <c r="Q476" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="R476" s="22" t="s">
         <v>103</v>
@@ -29797,8 +29772,8 @@
       <c r="P479" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="Q479" s="22" t="s">
-        <v>104</v>
+      <c r="Q479" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="R479" s="22" t="s">
         <v>103</v>
@@ -30839,10 +30814,10 @@
       <c r="L497" s="13"/>
       <c r="M497" s="12"/>
       <c r="N497" s="14"/>
-      <c r="O497" s="49" t="s">
+      <c r="O497" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P497" s="49"/>
+      <c r="P497" s="51"/>
       <c r="Q497" s="15"/>
       <c r="R497" s="11"/>
       <c r="S497" s="16"/>
@@ -30863,11 +30838,11 @@
       </c>
       <c r="I498" s="11"/>
       <c r="J498" s="18"/>
-      <c r="K498" s="50" t="s">
+      <c r="K498" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L498" s="50"/>
-      <c r="M498" s="50"/>
+      <c r="L498" s="52"/>
+      <c r="M498" s="52"/>
       <c r="N498" s="20" t="s">
         <v>7</v>
       </c>
@@ -30877,10 +30852,10 @@
       <c r="P498" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q498" s="51" t="s">
+      <c r="Q498" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R498" s="51"/>
+      <c r="R498" s="53"/>
       <c r="S498" s="4" t="s">
         <v>11</v>
       </c>
@@ -31277,8 +31252,8 @@
       <c r="E505" t="s">
         <v>203</v>
       </c>
-      <c r="F505">
-        <v>0</v>
+      <c r="F505" t="s">
+        <v>239</v>
       </c>
       <c r="G505">
         <v>3.488</v>
@@ -32564,10 +32539,10 @@
       <c r="L526" s="13"/>
       <c r="M526" s="12"/>
       <c r="N526" s="14"/>
-      <c r="O526" s="49" t="s">
+      <c r="O526" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P526" s="49"/>
+      <c r="P526" s="51"/>
       <c r="Q526" s="15"/>
       <c r="R526" s="11"/>
       <c r="S526" s="16"/>
@@ -32588,11 +32563,11 @@
       </c>
       <c r="I527" s="11"/>
       <c r="J527" s="18"/>
-      <c r="K527" s="50" t="s">
+      <c r="K527" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L527" s="50"/>
-      <c r="M527" s="50"/>
+      <c r="L527" s="52"/>
+      <c r="M527" s="52"/>
       <c r="N527" s="20" t="s">
         <v>7</v>
       </c>
@@ -32602,10 +32577,10 @@
       <c r="P527" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q527" s="51" t="s">
+      <c r="Q527" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R527" s="51"/>
+      <c r="R527" s="53"/>
       <c r="S527" s="4" t="s">
         <v>11</v>
       </c>
@@ -32784,37 +32759,37 @@
         <v>1</v>
       </c>
       <c r="D531" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E531" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F531" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G531" s="22">
-        <v>4.1879999999999997</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="H531" s="22">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="I531" s="22">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J531" s="35">
         <v>1.9E-2</v>
       </c>
       <c r="K531" s="35">
-        <v>22</v>
+        <v>21.1</v>
       </c>
       <c r="L531" s="35">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="M531" s="35">
-        <v>2.2890000000000001</v>
+        <v>2.9260000000000002</v>
       </c>
       <c r="N531" s="36">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O531" s="37" t="s">
         <v>40</v>
@@ -32822,23 +32797,23 @@
       <c r="P531" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Q531" s="22" t="s">
+      <c r="Q531" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R531" s="22" t="s">
-        <v>113</v>
+      <c r="R531" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="S531" s="35">
         <v>1</v>
       </c>
-      <c r="T531" s="35" t="s">
-        <v>106</v>
+      <c r="T531" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U531" s="35">
-        <v>29</v>
-      </c>
-      <c r="V531" s="22" t="s">
-        <v>158</v>
+        <v>7</v>
+      </c>
+      <c r="V531" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W531">
         <v>1</v>
@@ -32849,25 +32824,25 @@
         <v>2</v>
       </c>
       <c r="B532" s="22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C532" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D532" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E532" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F532" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G532" s="22">
-        <v>5.4859999999999998</v>
-      </c>
-      <c r="H532" s="22" t="s">
-        <v>210</v>
+        <v>5.29</v>
+      </c>
+      <c r="H532" s="22">
+        <v>2.2999999999999998</v>
       </c>
       <c r="I532" s="22">
         <v>0</v>
@@ -32876,39 +32851,39 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="K532" s="35">
-        <v>21</v>
+        <v>23.1</v>
       </c>
       <c r="L532" s="35">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="M532" s="35">
-        <v>2.0089999999999999</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="N532" s="36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O532" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P532" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q532" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R532" s="22" t="s">
+      <c r="P532" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q532" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R532" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S532" s="35">
         <v>1</v>
       </c>
-      <c r="T532" s="35" t="s">
+      <c r="T532" s="16" t="s">
         <v>105</v>
       </c>
       <c r="U532" s="35">
-        <v>12</v>
-      </c>
-      <c r="V532" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="V532" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W532">
@@ -32920,40 +32895,40 @@
         <v>3</v>
       </c>
       <c r="B533" s="22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C533" s="22">
         <v>0</v>
       </c>
       <c r="D533" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E533" s="22">
         <v>1</v>
       </c>
       <c r="F533" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G533" s="43">
-        <v>3.1459999999999999</v>
-      </c>
-      <c r="H533" s="22">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I533" s="22">
-        <v>0</v>
+        <v>8.7680000000000007</v>
+      </c>
+      <c r="H533" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I533" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="J533" s="35">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="K533" s="35">
-        <v>24.1</v>
+        <v>18.5</v>
       </c>
       <c r="L533" s="35">
-        <v>19.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="M533" s="35">
-        <v>3.1459999999999999</v>
+        <v>2.145</v>
       </c>
       <c r="N533" s="36">
         <v>2.5</v>
@@ -32961,26 +32936,26 @@
       <c r="O533" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P533" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q533" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R533" s="22" t="s">
+      <c r="P533" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q533" s="11" t="s">
         <v>103</v>
       </c>
+      <c r="R533" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="S533" s="35">
-        <v>2</v>
-      </c>
-      <c r="T533" s="35" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="T533" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U533" s="35">
-        <v>25</v>
-      </c>
-      <c r="V533" s="22" t="s">
-        <v>158</v>
+        <v>13</v>
+      </c>
+      <c r="V533" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W533">
         <v>1</v>
@@ -32991,67 +32966,67 @@
         <v>4</v>
       </c>
       <c r="B534" s="22">
+        <v>4</v>
+      </c>
+      <c r="C534" s="22">
+        <v>1</v>
+      </c>
+      <c r="D534" s="22">
         <v>3</v>
       </c>
-      <c r="C534" s="22">
-        <v>0</v>
-      </c>
-      <c r="D534" s="22">
-        <v>2</v>
-      </c>
       <c r="E534" s="22">
         <v>0</v>
       </c>
       <c r="F534" s="22">
-        <v>1</v>
-      </c>
-      <c r="G534" s="43" t="s">
-        <v>207</v>
+        <v>0</v>
+      </c>
+      <c r="G534" s="43">
+        <v>8.6739999999999995</v>
       </c>
       <c r="H534" s="22">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I534" s="22">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="J534" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="K534" s="35">
-        <v>20.9</v>
+        <v>23.1</v>
       </c>
       <c r="L534" s="35">
-        <v>17.3</v>
-      </c>
-      <c r="M534" s="35" t="s">
-        <v>211</v>
+        <v>19.2</v>
+      </c>
+      <c r="M534" s="35">
+        <v>3.0219999999999998</v>
       </c>
       <c r="N534" s="36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O534" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P534" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q534" s="22" t="s">
+      <c r="P534" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q534" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R534" s="22" t="s">
+      <c r="R534" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S534" s="35">
         <v>2</v>
       </c>
-      <c r="T534" s="35" t="s">
-        <v>105</v>
+      <c r="T534" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="U534" s="35">
-        <v>17</v>
-      </c>
-      <c r="V534" s="22" t="s">
-        <v>158</v>
+        <v>27</v>
+      </c>
+      <c r="V534" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W534">
         <v>1</v>
@@ -33061,68 +33036,68 @@
       <c r="A535" s="4">
         <v>5</v>
       </c>
-      <c r="B535" s="22" t="s">
-        <v>206</v>
+      <c r="B535" s="22">
+        <v>3</v>
       </c>
       <c r="C535" s="22">
-        <v>0</v>
-      </c>
-      <c r="D535" s="22" t="s">
-        <v>206</v>
+        <v>1</v>
+      </c>
+      <c r="D535" s="22">
+        <v>1</v>
       </c>
       <c r="E535" s="22">
         <v>0</v>
       </c>
       <c r="F535" s="22">
-        <v>0</v>
-      </c>
-      <c r="G535" s="43" t="s">
-        <v>208</v>
+        <v>1</v>
+      </c>
+      <c r="G535" s="43">
+        <v>4.4770000000000003</v>
       </c>
       <c r="H535" s="22">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="I535" s="22">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J535" s="35">
         <v>3.6900000000000002E-2</v>
       </c>
       <c r="K535" s="35">
-        <v>27.1</v>
+        <v>26</v>
       </c>
       <c r="L535" s="35">
-        <v>21.1</v>
+        <v>22.4</v>
       </c>
       <c r="M535" s="35">
-        <v>4.173</v>
+        <v>4.4770000000000003</v>
       </c>
       <c r="N535" s="36">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O535" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P535" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q535" s="22" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="O535" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P535" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q535" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R535" s="22" t="s">
-        <v>113</v>
+      <c r="R535" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S535" s="35">
-        <v>2</v>
-      </c>
-      <c r="T535" s="35" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="T535" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U535" s="35">
-        <v>18</v>
-      </c>
-      <c r="V535" s="22" t="s">
-        <v>157</v>
+        <v>33</v>
+      </c>
+      <c r="V535" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W535">
         <v>1</v>
@@ -33139,19 +33114,19 @@
         <v>0</v>
       </c>
       <c r="D536" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E536" s="22">
         <v>0</v>
       </c>
       <c r="F536" s="22">
-        <v>0</v>
-      </c>
-      <c r="G536" s="43">
-        <v>3.617</v>
+        <v>1</v>
+      </c>
+      <c r="G536" s="49" t="s">
+        <v>241</v>
       </c>
       <c r="H536" s="22">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I536" s="22">
         <v>0</v>
@@ -33160,40 +33135,40 @@
         <v>9.4E-2</v>
       </c>
       <c r="K536" s="35">
-        <v>20.399999999999999</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L536" s="35">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="M536" s="35">
-        <v>2.1640000000000001</v>
+        <v>13.7</v>
+      </c>
+      <c r="M536" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="N536" s="36">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O536" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P536" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q536" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R536" s="22" t="s">
+      <c r="P536" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q536" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R536" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S536" s="35">
         <v>2</v>
       </c>
-      <c r="T536" s="35" t="s">
-        <v>105</v>
+      <c r="T536" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U536" s="35">
-        <v>15</v>
-      </c>
-      <c r="V536" s="22" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="V536" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W536">
         <v>1</v>
@@ -33204,67 +33179,67 @@
         <v>7</v>
       </c>
       <c r="B537" s="22">
+        <v>4</v>
+      </c>
+      <c r="C537" s="22">
+        <v>1</v>
+      </c>
+      <c r="D537" s="22">
+        <v>1</v>
+      </c>
+      <c r="E537" s="22">
+        <v>0</v>
+      </c>
+      <c r="F537" s="22">
+        <v>2</v>
+      </c>
+      <c r="G537" s="43">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="H537" s="22">
+        <v>3.4</v>
+      </c>
+      <c r="I537" s="39">
         <v>3</v>
-      </c>
-      <c r="C537" s="22">
-        <v>1</v>
-      </c>
-      <c r="D537" s="22">
-        <v>1</v>
-      </c>
-      <c r="E537" s="22">
-        <v>0</v>
-      </c>
-      <c r="F537" s="22">
-        <v>1</v>
-      </c>
-      <c r="G537" s="43">
-        <v>2.056</v>
-      </c>
-      <c r="H537" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="I537" s="39">
-        <v>0</v>
       </c>
       <c r="J537" s="35">
         <v>0.11799999999999999</v>
       </c>
       <c r="K537" s="35">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="L537" s="35">
-        <v>16.899999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="M537" s="35">
-        <v>2.056</v>
+        <v>1.9490000000000001</v>
       </c>
       <c r="N537" s="36">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O537" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P537" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q537" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R537" s="22" t="s">
-        <v>179</v>
+        <v>2.7</v>
+      </c>
+      <c r="O537" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P537" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q537" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R537" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S537" s="35">
         <v>2</v>
       </c>
-      <c r="T537" s="35" t="s">
-        <v>104</v>
+      <c r="T537" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U537" s="35">
-        <v>11</v>
-      </c>
-      <c r="V537" s="22" t="s">
-        <v>158</v>
+        <v>3</v>
+      </c>
+      <c r="V537" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W537">
         <v>1</v>
@@ -33275,7 +33250,7 @@
         <v>8</v>
       </c>
       <c r="B538" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C538" s="22">
         <v>0</v>
@@ -33284,13 +33259,13 @@
         <v>2</v>
       </c>
       <c r="E538" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F538" s="22">
         <v>0</v>
       </c>
-      <c r="G538" s="43" t="s">
-        <v>209</v>
+      <c r="G538" s="43">
+        <v>4.1349999999999998</v>
       </c>
       <c r="H538" s="22">
         <v>3.5</v>
@@ -33302,27 +33277,27 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="K538" s="35">
-        <v>19.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L538" s="35">
-        <v>16.100000000000001</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M538" s="35">
-        <v>1.8360000000000001</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="N538" s="36">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O538" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P538" s="38" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="O538" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P538" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q538" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R538" s="22" t="s">
+      <c r="Q538" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R538" s="11" t="s">
         <v>103</v>
       </c>
       <c r="S538" s="35">
@@ -33332,10 +33307,10 @@
         <v>105</v>
       </c>
       <c r="U538" s="35">
-        <v>19</v>
-      </c>
-      <c r="V538" s="22" t="s">
-        <v>157</v>
+        <v>21</v>
+      </c>
+      <c r="V538" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W538">
         <v>1</v>
@@ -33346,13 +33321,13 @@
         <v>9</v>
       </c>
       <c r="B539" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C539" s="22">
         <v>0</v>
       </c>
       <c r="D539" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E539" s="22">
         <v>0</v>
@@ -33360,52 +33335,52 @@
       <c r="F539" s="22">
         <v>0</v>
       </c>
-      <c r="G539" s="43">
-        <v>8.4749999999999996</v>
+      <c r="G539" s="49" t="s">
+        <v>240</v>
       </c>
       <c r="H539" s="22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I539" s="22">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J539" s="35" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="K539" s="35">
-        <v>28.2</v>
+        <v>15.9</v>
       </c>
       <c r="L539" s="35">
-        <v>21.1</v>
-      </c>
-      <c r="M539" s="35">
-        <v>4.3550000000000004</v>
+        <v>14.6</v>
+      </c>
+      <c r="M539" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="N539" s="36">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="O539" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P539" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q539" s="22" t="s">
+      <c r="P539" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q539" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R539" s="22" t="s">
-        <v>113</v>
+      <c r="R539" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S539" s="35">
-        <v>1</v>
-      </c>
-      <c r="T539" s="35" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="T539" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U539" s="35">
-        <v>20</v>
-      </c>
-      <c r="V539" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V539" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W539">
@@ -33417,13 +33392,13 @@
         <v>10</v>
       </c>
       <c r="B540" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C540" s="22">
         <v>0</v>
       </c>
       <c r="D540" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E540" s="22">
         <v>0</v>
@@ -33431,11 +33406,11 @@
       <c r="F540" s="22">
         <v>0</v>
       </c>
-      <c r="G540" s="22">
-        <v>10.026</v>
+      <c r="G540" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="H540" s="22">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="I540" s="22">
         <v>0</v>
@@ -33444,39 +33419,39 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="K540" s="35">
-        <v>21.9</v>
+        <v>20.8</v>
       </c>
       <c r="L540" s="35">
-        <v>17.8</v>
-      </c>
-      <c r="M540" s="35">
-        <v>2.6059999999999999</v>
+        <v>16.8</v>
+      </c>
+      <c r="M540" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="N540" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="O540" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P540" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q540" s="22" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="O540" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P540" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q540" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R540" s="22" t="s">
-        <v>103</v>
+      <c r="R540" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S540" s="35">
         <v>2</v>
       </c>
-      <c r="T540" s="35" t="s">
-        <v>105</v>
+      <c r="T540" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U540" s="35">
-        <v>14</v>
-      </c>
-      <c r="V540" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V540" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W540">
@@ -33538,13 +33513,13 @@
         <v>1</v>
       </c>
       <c r="B543" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C543" s="22">
         <v>0</v>
       </c>
       <c r="D543" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E543" s="22">
         <v>0</v>
@@ -33553,49 +33528,49 @@
         <v>0</v>
       </c>
       <c r="G543" s="22">
-        <v>3.1320000000000001</v>
+        <v>9.8119999999999994</v>
       </c>
       <c r="H543" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I543" s="22">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J543" s="35">
         <v>0.1</v>
       </c>
       <c r="K543" s="35">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L543" s="35">
-        <v>17.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M543" s="35">
-        <v>3.1320000000000001</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="N543" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="O543" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P543" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q543" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="R543" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="S543" s="35">
-        <v>1</v>
-      </c>
-      <c r="T543" s="35" t="s">
-        <v>105</v>
+        <v>2.5</v>
+      </c>
+      <c r="O543" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P543" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q543" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R543" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="S543" s="11">
+        <v>1</v>
+      </c>
+      <c r="T543" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U543" s="35">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V543" s="22" t="s">
         <v>158</v>
@@ -33609,67 +33584,67 @@
         <v>2</v>
       </c>
       <c r="B544" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C544" s="22">
         <v>0</v>
       </c>
       <c r="D544" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E544" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F544" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G544" s="22">
-        <v>5.8079999999999998</v>
+        <v>7.274</v>
       </c>
       <c r="H544" s="22">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="I544" s="22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J544" s="35">
         <v>7.8E-2</v>
       </c>
       <c r="K544" s="35">
-        <v>23.7</v>
+        <v>27.1</v>
       </c>
       <c r="L544" s="35">
-        <v>17.100000000000001</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M544" s="35">
-        <v>2.5720000000000001</v>
+        <v>3.9929999999999999</v>
       </c>
       <c r="N544" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="O544" s="38" t="s">
-        <v>212</v>
+        <v>2.5</v>
+      </c>
+      <c r="O544" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="P544" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Q544" s="22" t="s">
+      <c r="Q544" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R544" s="22" t="s">
-        <v>156</v>
+      <c r="R544" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="S544" s="35">
         <v>1</v>
       </c>
-      <c r="T544" s="35" t="s">
-        <v>105</v>
+      <c r="T544" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U544" s="35">
-        <v>23</v>
-      </c>
-      <c r="V544" s="22" t="s">
-        <v>157</v>
+        <v>27</v>
+      </c>
+      <c r="V544" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W544">
         <v>1</v>
@@ -33680,13 +33655,13 @@
         <v>3</v>
       </c>
       <c r="B545" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C545" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D545" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E545" s="22">
         <v>0</v>
@@ -33694,53 +33669,53 @@
       <c r="F545" s="22">
         <v>1</v>
       </c>
-      <c r="G545" s="43" t="s">
-        <v>214</v>
+      <c r="G545" s="49" t="s">
+        <v>246</v>
       </c>
       <c r="H545" s="22">
-        <v>1.1000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="I545" s="22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J545" s="35">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="K545" s="35">
-        <v>21.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L545" s="35">
-        <v>17</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="M545" s="35">
-        <v>2.2719999999999998</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="N545" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="O545" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P545" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q545" s="22" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="O545" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P545" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q545" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R545" s="22" t="s">
-        <v>104</v>
+      <c r="R545" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="S545" s="35">
-        <v>2</v>
-      </c>
-      <c r="T545" s="35" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="T545" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U545" s="35">
-        <v>21</v>
-      </c>
-      <c r="V545" s="22" t="s">
-        <v>158</v>
+        <v>18</v>
+      </c>
+      <c r="V545" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W545">
         <v>1</v>
@@ -33751,25 +33726,25 @@
         <v>4</v>
       </c>
       <c r="B546" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C546" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D546" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E546" s="22">
         <v>1</v>
       </c>
       <c r="F546" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G546" s="22">
-        <v>7.367</v>
+        <v>4.0220000000000002</v>
       </c>
       <c r="H546" s="22">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I546" s="22">
         <v>0</v>
@@ -33778,40 +33753,40 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K546" s="35">
-        <v>24.6</v>
+        <v>27.7</v>
       </c>
       <c r="L546" s="35">
-        <v>18.100000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M546" s="35">
-        <v>2.948</v>
+        <v>4.0220000000000002</v>
       </c>
       <c r="N546" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="O546" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P546" s="38" t="s">
-        <v>213</v>
+        <v>2.5</v>
+      </c>
+      <c r="O546" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P546" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="Q546" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R546" s="22" t="s">
-        <v>104</v>
+      <c r="R546" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="S546" s="35">
         <v>1</v>
       </c>
-      <c r="T546" s="35" t="s">
-        <v>106</v>
+      <c r="T546" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="U546" s="35">
-        <v>29</v>
-      </c>
-      <c r="V546" s="22" t="s">
-        <v>157</v>
+        <v>22</v>
+      </c>
+      <c r="V546" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W546">
         <v>1</v>
@@ -33828,61 +33803,61 @@
         <v>0</v>
       </c>
       <c r="D547" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E547" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F547" s="22">
         <v>0</v>
       </c>
       <c r="G547" s="22">
-        <v>10.135999999999999</v>
+        <v>10.765000000000001</v>
       </c>
       <c r="H547" s="22">
-        <v>5.2</v>
-      </c>
-      <c r="I547" s="43" t="s">
-        <v>217</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I547" s="43">
+        <v>0</v>
       </c>
       <c r="J547" s="35">
         <v>0.106</v>
       </c>
       <c r="K547" s="35">
-        <v>22</v>
+        <v>25.9</v>
       </c>
       <c r="L547" s="35">
-        <v>18.8</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M547" s="35">
-        <v>3.024</v>
+        <v>3.7250000000000001</v>
       </c>
       <c r="N547" s="36">
-        <v>3</v>
-      </c>
-      <c r="O547" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P547" s="38" t="s">
-        <v>26</v>
+        <v>2.5</v>
+      </c>
+      <c r="O547" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P547" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="Q547" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R547" s="22" t="s">
-        <v>113</v>
+      <c r="R547" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S547" s="35">
         <v>1</v>
       </c>
-      <c r="T547" s="35" t="s">
-        <v>105</v>
+      <c r="T547" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U547" s="35">
-        <v>37</v>
-      </c>
-      <c r="V547" s="22" t="s">
-        <v>158</v>
+        <v>20</v>
+      </c>
+      <c r="V547" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W547">
         <v>1</v>
@@ -33893,13 +33868,13 @@
         <v>6</v>
       </c>
       <c r="B548" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C548" s="22">
         <v>0</v>
       </c>
       <c r="D548" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E548" s="22">
         <v>0</v>
@@ -33908,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G548" s="22">
-        <v>7.2560000000000002</v>
+        <v>3.4159999999999999</v>
       </c>
       <c r="H548" s="22">
-        <v>4.5999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="I548" s="22">
         <v>0</v>
@@ -33920,39 +33895,39 @@
         <v>0.06</v>
       </c>
       <c r="K548" s="35">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="L548" s="35">
-        <v>18.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="M548" s="35">
-        <v>2.9510000000000001</v>
+        <v>3.4159999999999999</v>
       </c>
       <c r="N548" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O548" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P548" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q548" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R548" s="22" t="s">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O548" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P548" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q548" s="11" t="s">
         <v>103</v>
       </c>
+      <c r="R548" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="S548" s="35">
-        <v>2</v>
-      </c>
-      <c r="T548" s="35" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="T548" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U548" s="35">
-        <v>18</v>
-      </c>
-      <c r="V548" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V548" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W548">
@@ -33979,39 +33954,39 @@
         <v>0</v>
       </c>
       <c r="G549" s="22">
-        <v>5.5709999999999997</v>
+        <v>5.8490000000000002</v>
       </c>
       <c r="H549" s="22">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I549" s="22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J549" s="35">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="K549" s="35">
-        <v>22.8</v>
+        <v>24</v>
       </c>
       <c r="L549" s="35">
-        <v>18.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M549" s="35">
-        <v>3.0049999999999999</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="N549" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O549" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P549" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q549" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R549" s="22" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="O549" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P549" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q549" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R549" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S549" s="35">
@@ -34021,9 +33996,9 @@
         <v>106</v>
       </c>
       <c r="U549" s="35">
-        <v>13</v>
-      </c>
-      <c r="V549" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V549" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W549">
@@ -34035,13 +34010,13 @@
         <v>8</v>
       </c>
       <c r="B550" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C550" s="22">
         <v>0</v>
       </c>
       <c r="D550" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E550" s="22">
         <v>0</v>
@@ -34049,11 +34024,11 @@
       <c r="F550" s="22">
         <v>1</v>
       </c>
-      <c r="G550" s="22">
-        <v>1.071</v>
+      <c r="G550" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="H550" s="22">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I550" s="22">
         <v>0</v>
@@ -34062,39 +34037,39 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="K550" s="35">
-        <v>15.9</v>
+        <v>20.5</v>
       </c>
       <c r="L550" s="35">
-        <v>13.1</v>
+        <v>17.3</v>
       </c>
       <c r="M550" s="35">
-        <v>1.071</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="N550" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O550" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P550" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q550" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R550" s="22" t="s">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O550" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P550" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q550" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R550" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S550" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T550" s="35" t="s">
         <v>106</v>
       </c>
       <c r="U550" s="35">
-        <v>4</v>
-      </c>
-      <c r="V550" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V550" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W550">
@@ -34106,13 +34081,13 @@
         <v>9</v>
       </c>
       <c r="B551" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C551" s="22">
         <v>0</v>
       </c>
       <c r="D551" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E551" s="22">
         <v>0</v>
@@ -34120,53 +34095,53 @@
       <c r="F551" s="22">
         <v>0</v>
       </c>
-      <c r="G551" s="43" t="s">
-        <v>215</v>
+      <c r="G551" s="43">
+        <v>3.4169999999999998</v>
       </c>
       <c r="H551" s="22">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I551" s="22">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J551" s="35">
         <v>0.13200000000000001</v>
       </c>
       <c r="K551" s="35">
-        <v>19.5</v>
+        <v>23.4</v>
       </c>
       <c r="L551" s="35">
-        <v>16.3</v>
+        <v>20</v>
       </c>
       <c r="M551" s="35">
-        <v>1.9750000000000001</v>
+        <v>3.4169999999999998</v>
       </c>
       <c r="N551" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O551" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P551" s="38" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O551" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P551" s="15" t="s">
         <v>26</v>
       </c>
       <c r="Q551" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R551" s="22" t="s">
+      <c r="R551" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S551" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T551" s="35" t="s">
         <v>106</v>
       </c>
       <c r="U551" s="35">
-        <v>15</v>
-      </c>
-      <c r="V551" s="22" t="s">
-        <v>158</v>
+        <v>21</v>
+      </c>
+      <c r="V551" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W551">
         <v>1</v>
@@ -34177,66 +34152,66 @@
         <v>10</v>
       </c>
       <c r="B552" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C552" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D552" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E552" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F552" s="22">
         <v>0</v>
       </c>
-      <c r="G552" s="43" t="s">
-        <v>216</v>
+      <c r="G552" s="43">
+        <v>2.57</v>
       </c>
       <c r="H552" s="22">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="I552" s="22">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J552" s="35">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="K552" s="35">
-        <v>21.9</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L552" s="35">
-        <v>16.100000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="M552" s="35">
-        <v>2.2309999999999999</v>
+        <v>2.57</v>
       </c>
       <c r="N552" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O552" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P552" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q552" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R552" s="22" t="s">
-        <v>156</v>
+        <v>2.4</v>
+      </c>
+      <c r="O552" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P552" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q552" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R552" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S552" s="35">
-        <v>2</v>
-      </c>
-      <c r="T552" s="35" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="T552" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U552" s="35">
-        <v>20</v>
-      </c>
-      <c r="V552" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="V552" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W552">
@@ -34293,10 +34268,10 @@
       <c r="L555" s="13"/>
       <c r="M555" s="12"/>
       <c r="N555" s="14"/>
-      <c r="O555" s="49" t="s">
+      <c r="O555" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P555" s="49"/>
+      <c r="P555" s="51"/>
       <c r="Q555" s="15"/>
       <c r="R555" s="11"/>
       <c r="S555" s="16"/>
@@ -34317,11 +34292,11 @@
       </c>
       <c r="I556" s="11"/>
       <c r="J556" s="18"/>
-      <c r="K556" s="50" t="s">
+      <c r="K556" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L556" s="50"/>
-      <c r="M556" s="50"/>
+      <c r="L556" s="52"/>
+      <c r="M556" s="52"/>
       <c r="N556" s="20" t="s">
         <v>7</v>
       </c>
@@ -34331,10 +34306,10 @@
       <c r="P556" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q556" s="51" t="s">
+      <c r="Q556" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R556" s="51"/>
+      <c r="R556" s="53"/>
       <c r="S556" s="4" t="s">
         <v>11</v>
       </c>
@@ -34507,54 +34482,54 @@
         <v>1</v>
       </c>
       <c r="B560" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C560" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D560" s="22">
         <v>2</v>
       </c>
       <c r="E560" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F560" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G560" s="22">
-        <v>5.9880000000000004</v>
+        <v>3.645</v>
       </c>
       <c r="H560" s="22">
-        <v>3.96</v>
+        <v>2.8</v>
       </c>
       <c r="I560" s="22">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J560" s="35">
         <v>0.06</v>
       </c>
       <c r="K560" s="35">
-        <v>26.1</v>
+        <v>20.5</v>
       </c>
       <c r="L560" s="35">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="M560" s="35">
-        <v>3.2109999999999999</v>
+        <v>1.911</v>
       </c>
       <c r="N560" s="36">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O560" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="P560" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q560" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R560" s="22" t="s">
+      <c r="P560" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q560" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R560" s="11" t="s">
         <v>113</v>
       </c>
       <c r="S560" s="35">
@@ -34564,7 +34539,7 @@
         <v>105</v>
       </c>
       <c r="U560" s="35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V560" s="22" t="s">
         <v>157</v>
@@ -34578,67 +34553,67 @@
         <v>2</v>
       </c>
       <c r="B561" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C561" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D561" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E561" s="22">
         <v>0</v>
       </c>
       <c r="F561" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G561" s="22">
-        <v>10.109</v>
+        <v>6.8230000000000004</v>
       </c>
       <c r="H561" s="22">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I561" s="22">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J561" s="35">
         <v>0.11600000000000001</v>
       </c>
       <c r="K561" s="35">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="L561" s="35">
-        <v>19.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="M561" s="35">
-        <v>3.5979999999999999</v>
+        <v>3.8130000000000002</v>
       </c>
       <c r="N561" s="36">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O561" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P561" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q561" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="R561" s="22" t="s">
-        <v>104</v>
+      <c r="P561" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q561" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R561" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="S561" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T561" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U561" s="35">
-        <v>30</v>
-      </c>
-      <c r="V561" s="22" t="s">
-        <v>157</v>
+        <v>31</v>
+      </c>
+      <c r="V561" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W561">
         <v>1</v>
@@ -34649,25 +34624,25 @@
         <v>3</v>
       </c>
       <c r="B562" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C562" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D562" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E562" s="22">
         <v>0</v>
       </c>
       <c r="F562" s="22">
-        <v>1</v>
-      </c>
-      <c r="G562" s="22">
-        <v>3.5640000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="G562" s="11">
+        <v>4.5720000000000001</v>
       </c>
       <c r="H562" s="22">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="I562" s="22">
         <v>0</v>
@@ -34676,39 +34651,39 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="K562" s="35">
-        <v>26.8</v>
+        <v>19.8</v>
       </c>
       <c r="L562" s="35">
-        <v>19.2</v>
+        <v>18.2</v>
       </c>
       <c r="M562" s="35">
-        <v>3.5640000000000001</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="N562" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O562" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P562" s="38" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O562" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P562" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q562" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R562" s="22" t="s">
+      <c r="Q562" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R562" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S562" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T562" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U562" s="35">
-        <v>22</v>
-      </c>
-      <c r="V562" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V562" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W562">
@@ -34720,7 +34695,7 @@
         <v>4</v>
       </c>
       <c r="B563" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C563" s="22">
         <v>0</v>
@@ -34729,16 +34704,16 @@
         <v>2</v>
       </c>
       <c r="E563" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F563" s="22">
         <v>0</v>
       </c>
       <c r="G563" s="22">
-        <v>4.76</v>
+        <v>5.4180000000000001</v>
       </c>
       <c r="H563" s="22">
-        <v>3.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I563" s="22">
         <v>0</v>
@@ -34747,39 +34722,39 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="K563" s="35">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="L563" s="35">
-        <v>16.5</v>
+        <v>18.8</v>
       </c>
       <c r="M563" s="35">
-        <v>2.4049999999999998</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="N563" s="36">
         <v>2.6</v>
       </c>
-      <c r="O563" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P563" s="38" t="s">
+      <c r="O563" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P563" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q563" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R563" s="22" t="s">
-        <v>113</v>
+      <c r="Q563" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R563" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="S563" s="35">
-        <v>2</v>
-      </c>
-      <c r="T563" s="35" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="T563" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U563" s="35">
-        <v>20</v>
-      </c>
-      <c r="V563" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V563" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W563">
@@ -34791,7 +34766,7 @@
         <v>5</v>
       </c>
       <c r="B564" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C564" s="22">
         <v>0</v>
@@ -34803,55 +34778,55 @@
         <v>0</v>
       </c>
       <c r="F564" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G564" s="22">
-        <v>4.7039999999999997</v>
+        <v>5.6070000000000002</v>
       </c>
       <c r="H564" s="22">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="I564" s="22">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="J564" s="35">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="K564" s="35">
-        <v>24.5</v>
+        <v>26.2</v>
       </c>
       <c r="L564" s="35">
         <v>18.600000000000001</v>
       </c>
       <c r="M564" s="35">
-        <v>3.016</v>
+        <v>3.09</v>
       </c>
       <c r="N564" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O564" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P564" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q564" s="22" t="s">
+        <v>2.9</v>
+      </c>
+      <c r="O564" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P564" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q564" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R564" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R564" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="S564" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T564" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U564" s="35">
-        <v>12</v>
-      </c>
-      <c r="V564" s="22" t="s">
-        <v>158</v>
+        <v>19</v>
+      </c>
+      <c r="V564" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W564">
         <v>1</v>
@@ -34862,25 +34837,25 @@
         <v>6</v>
       </c>
       <c r="B565" s="22">
+        <v>4</v>
+      </c>
+      <c r="C565" s="22">
+        <v>0</v>
+      </c>
+      <c r="D565" s="22">
+        <v>2</v>
+      </c>
+      <c r="E565" s="22">
+        <v>0</v>
+      </c>
+      <c r="F565" s="22">
+        <v>2</v>
+      </c>
+      <c r="G565" s="22">
+        <v>4.3940000000000001</v>
+      </c>
+      <c r="H565" s="22">
         <v>3</v>
-      </c>
-      <c r="C565" s="22">
-        <v>0</v>
-      </c>
-      <c r="D565" s="22">
-        <v>1</v>
-      </c>
-      <c r="E565" s="22">
-        <v>2</v>
-      </c>
-      <c r="F565" s="22">
-        <v>0</v>
-      </c>
-      <c r="G565" s="22">
-        <v>3.5590000000000002</v>
-      </c>
-      <c r="H565" s="22">
-        <v>2.8</v>
       </c>
       <c r="I565" s="22">
         <v>0</v>
@@ -34889,40 +34864,40 @@
         <v>0.03</v>
       </c>
       <c r="K565" s="35">
-        <v>27</v>
+        <v>21.1</v>
       </c>
       <c r="L565" s="35">
-        <v>19.3</v>
+        <v>15.1</v>
       </c>
       <c r="M565" s="35">
-        <v>3.5539999999999998</v>
+        <v>1.8340000000000001</v>
       </c>
       <c r="N565" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O565" s="38" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="O565" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P565" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q565" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="R565" s="22" t="s">
+      <c r="P565" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q565" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R565" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S565" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T565" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U565" s="35">
-        <v>21</v>
-      </c>
-      <c r="V565" s="22" t="s">
-        <v>158</v>
+        <v>23</v>
+      </c>
+      <c r="V565" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W565">
         <v>1</v>
@@ -34932,67 +34907,67 @@
       <c r="A566" s="4">
         <v>7</v>
       </c>
-      <c r="B566" s="22">
-        <v>3</v>
-      </c>
-      <c r="C566" s="22">
-        <v>2</v>
-      </c>
-      <c r="D566" s="22">
-        <v>1</v>
-      </c>
-      <c r="E566" s="22">
-        <v>0</v>
-      </c>
-      <c r="F566" s="22">
-        <v>0</v>
+      <c r="B566" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C566" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D566" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E566" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F566" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="G566" s="22">
-        <v>2.6509999999999998</v>
-      </c>
-      <c r="H566" s="22">
-        <v>3.4</v>
-      </c>
-      <c r="I566" s="39">
-        <v>0</v>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="H566" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="I566" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="J566" s="35">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="K566" s="35">
-        <v>24.7</v>
+        <v>17</v>
       </c>
       <c r="L566" s="35">
-        <v>18</v>
+        <v>15.2</v>
       </c>
       <c r="M566" s="35">
-        <v>2.6509999999999998</v>
+        <v>1.387</v>
       </c>
       <c r="N566" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O566" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P566" s="38" t="s">
+        <v>2.1</v>
+      </c>
+      <c r="O566" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P566" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q566" s="22" t="s">
+      <c r="Q566" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="R566" s="22" t="s">
-        <v>113</v>
+      <c r="R566" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S566" s="35">
-        <v>1</v>
-      </c>
-      <c r="T566" s="35" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="T566" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U566" s="35">
         <v>23</v>
       </c>
-      <c r="V566" s="22" t="s">
+      <c r="V566" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W566">
@@ -35004,13 +34979,13 @@
         <v>8</v>
       </c>
       <c r="B567" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C567" s="22">
         <v>0</v>
       </c>
       <c r="D567" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E567" s="22">
         <v>1</v>
@@ -35019,10 +34994,10 @@
         <v>0</v>
       </c>
       <c r="G567" s="22">
-        <v>5.2469999999999999</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="H567" s="22">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="I567" s="22">
         <v>0</v>
@@ -35031,39 +35006,39 @@
         <v>3.9E-2</v>
       </c>
       <c r="K567" s="35">
-        <v>21.4</v>
+        <v>17.7</v>
       </c>
       <c r="L567" s="35">
-        <v>16.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="M567" s="35">
-        <v>2.0760000000000001</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="N567" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="O567" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P567" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q567" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R567" s="22" t="s">
+        <v>2.1</v>
+      </c>
+      <c r="O567" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P567" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q567" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R567" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S567" s="35">
         <v>1</v>
       </c>
-      <c r="T567" s="35" t="s">
-        <v>106</v>
+      <c r="T567" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U567" s="35">
         <v>17</v>
       </c>
-      <c r="V567" s="22" t="s">
+      <c r="V567" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W567">
@@ -35084,16 +35059,16 @@
         <v>2</v>
       </c>
       <c r="E568" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F568" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G568" s="22">
-        <v>2.5990000000000002</v>
+        <v>3.605</v>
       </c>
       <c r="H568" s="22">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I568" s="22">
         <v>0</v>
@@ -35102,40 +35077,40 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="K568" s="35">
-        <v>17.899999999999999</v>
+        <v>20</v>
       </c>
       <c r="L568" s="35">
-        <v>13.2</v>
+        <v>16.7</v>
       </c>
       <c r="M568" s="35">
-        <v>1.2090000000000001</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="N568" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O568" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P568" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q568" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R568" s="22" t="s">
+        <v>2.8</v>
+      </c>
+      <c r="O568" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P568" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q568" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R568" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S568" s="35">
         <v>2</v>
       </c>
-      <c r="T568" s="35" t="s">
-        <v>106</v>
+      <c r="T568" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U568" s="35">
-        <v>1</v>
-      </c>
-      <c r="V568" s="22" t="s">
-        <v>158</v>
+        <v>22</v>
+      </c>
+      <c r="V568" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W568">
         <v>1</v>
@@ -35145,26 +35120,26 @@
       <c r="A569" s="4">
         <v>10</v>
       </c>
-      <c r="B569" s="22">
-        <v>2</v>
-      </c>
-      <c r="C569" s="22">
-        <v>0</v>
-      </c>
-      <c r="D569" s="22">
-        <v>1</v>
-      </c>
-      <c r="E569" s="22">
-        <v>1</v>
-      </c>
-      <c r="F569" s="22">
-        <v>0</v>
+      <c r="B569" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C569" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D569" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E569" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F569" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="G569" s="22">
-        <v>2.4489999999999998</v>
-      </c>
-      <c r="H569" s="22">
-        <v>2.2000000000000002</v>
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="H569" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="I569" s="22">
         <v>0</v>
@@ -35173,40 +35148,40 @@
         <v>0.124</v>
       </c>
       <c r="K569" s="35">
-        <v>23.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L569" s="35">
-        <v>17.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="M569" s="35">
-        <v>2.4489999999999998</v>
+        <v>1.718</v>
       </c>
       <c r="N569" s="36">
-        <v>2.4</v>
-      </c>
-      <c r="O569" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P569" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q569" s="22" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="O569" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P569" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q569" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R569" s="22" t="s">
-        <v>104</v>
+      <c r="R569" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="S569" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T569" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U569" s="35">
-        <v>18</v>
-      </c>
-      <c r="V569" s="22" t="s">
-        <v>157</v>
+        <v>8</v>
+      </c>
+      <c r="V569" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="W569">
         <v>1</v>
@@ -35267,7 +35242,7 @@
         <v>1</v>
       </c>
       <c r="B572" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C572" s="22">
         <v>0</v>
@@ -35276,16 +35251,16 @@
         <v>2</v>
       </c>
       <c r="E572" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F572" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G572" s="22">
-        <v>3.6080000000000001</v>
+        <v>6.2779999999999996</v>
       </c>
       <c r="H572" s="22">
-        <v>3.3</v>
+        <v>7.23</v>
       </c>
       <c r="I572" s="22">
         <v>0</v>
@@ -35294,40 +35269,40 @@
         <v>0.158</v>
       </c>
       <c r="K572" s="35">
-        <v>22.3</v>
+        <v>24.1</v>
       </c>
       <c r="L572" s="35">
-        <v>16.7</v>
+        <v>19.2</v>
       </c>
       <c r="M572" s="35">
-        <v>2.1819999999999999</v>
+        <v>3.2450000000000001</v>
       </c>
       <c r="N572" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O572" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P572" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q572" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R572" s="22" t="s">
-        <v>104</v>
+        <v>3.1</v>
+      </c>
+      <c r="O572" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P572" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q572" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R572" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="S572" s="35">
         <v>1</v>
       </c>
-      <c r="T572" s="35" t="s">
-        <v>106</v>
+      <c r="T572" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U572" s="35">
-        <v>17</v>
-      </c>
-      <c r="V572" s="22" t="s">
-        <v>158</v>
+        <v>22</v>
+      </c>
+      <c r="V572" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W572">
         <v>1</v>
@@ -35344,60 +35319,60 @@
         <v>0</v>
       </c>
       <c r="D573" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E573" s="22">
         <v>1</v>
       </c>
       <c r="F573" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G573" s="22">
-        <v>2.3290000000000002</v>
+        <v>3.589</v>
       </c>
       <c r="H573" s="22">
-        <v>2</v>
+        <v>2.64</v>
       </c>
       <c r="I573" s="22">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J573" s="35">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="K573" s="35">
-        <v>22.6</v>
+        <v>19.8</v>
       </c>
       <c r="L573" s="35">
-        <v>17.399999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="M573" s="35">
-        <v>2.3290000000000002</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="N573" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="O573" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P573" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q573" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R573" s="22" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="O573" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P573" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q573" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R573" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S573" s="35">
-        <v>1</v>
-      </c>
-      <c r="T573" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T573" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U573" s="35">
-        <v>25</v>
-      </c>
-      <c r="V573" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V573" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W573">
@@ -35424,10 +35399,10 @@
         <v>0</v>
       </c>
       <c r="G574" s="22">
-        <v>4.944</v>
+        <v>5.9180000000000001</v>
       </c>
       <c r="H574" s="22">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="I574" s="22">
         <v>0</v>
@@ -35436,40 +35411,40 @@
         <v>0.12</v>
       </c>
       <c r="K574" s="35">
-        <v>21.5</v>
+        <v>22.8</v>
       </c>
       <c r="L574" s="35">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="M574" s="35">
-        <v>2.7269999999999999</v>
+        <v>3.2210000000000001</v>
       </c>
       <c r="N574" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="O574" s="38" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="O574" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P574" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q574" s="22" t="s">
+      <c r="P574" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q574" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R574" s="22" t="s">
+      <c r="R574" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S574" s="35">
-        <v>1</v>
-      </c>
-      <c r="T574" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T574" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U574" s="35">
-        <v>12</v>
-      </c>
-      <c r="V574" s="22" t="s">
-        <v>157</v>
+        <v>10</v>
+      </c>
+      <c r="V574" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W574">
         <v>1</v>
@@ -35480,66 +35455,66 @@
         <v>4</v>
       </c>
       <c r="B575" s="22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C575" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D575" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E575" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F575" s="22">
         <v>0</v>
       </c>
       <c r="G575" s="22">
-        <v>4.13</v>
+        <v>10.94</v>
       </c>
       <c r="H575" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="I575" s="22">
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="I575" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="J575" s="35">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="K575" s="35">
-        <v>20.6</v>
+        <v>22.3</v>
       </c>
       <c r="L575" s="35">
-        <v>17.399999999999999</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="M575" s="35">
-        <v>2.3109999999999999</v>
+        <v>2.94</v>
       </c>
       <c r="N575" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O575" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P575" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q575" s="22" t="s">
+        <v>2.9</v>
+      </c>
+      <c r="O575" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P575" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q575" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R575" s="22" t="s">
+      <c r="R575" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S575" s="35">
-        <v>1</v>
-      </c>
-      <c r="T575" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T575" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U575" s="35">
-        <v>26</v>
-      </c>
-      <c r="V575" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V575" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W575">
@@ -35557,61 +35532,61 @@
         <v>0</v>
       </c>
       <c r="D576" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E576" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F576" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G576" s="22">
-        <v>6.0519999999999996</v>
+        <v>7.8860000000000001</v>
       </c>
       <c r="H576" s="22">
-        <v>3.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I576" s="22">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J576" s="35">
         <v>0.105</v>
       </c>
       <c r="K576" s="35">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="L576" s="35">
-        <v>17.100000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="M576" s="35">
-        <v>2.403</v>
+        <v>2.5990000000000002</v>
       </c>
       <c r="N576" s="36">
-        <v>3</v>
-      </c>
-      <c r="O576" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P576" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q576" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R576" s="22" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="O576" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P576" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q576" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R576" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S576" s="35">
-        <v>1</v>
-      </c>
-      <c r="T576" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T576" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="U576" s="35">
-        <v>19</v>
-      </c>
-      <c r="V576" s="22" t="s">
-        <v>158</v>
+        <v>25</v>
+      </c>
+      <c r="V576" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W576">
         <v>1</v>
@@ -35622,67 +35597,67 @@
         <v>6</v>
       </c>
       <c r="B577" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C577" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D577" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E577" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F577" s="22">
         <v>0</v>
       </c>
       <c r="G577" s="22">
-        <v>7.266</v>
+        <v>6.4080000000000004</v>
       </c>
       <c r="H577" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="I577" s="22">
-        <v>0</v>
+        <v>5.04</v>
+      </c>
+      <c r="I577" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="J577" s="35">
         <v>0.28499999999999998</v>
       </c>
       <c r="K577" s="35">
-        <v>21.1</v>
+        <v>26.1</v>
       </c>
       <c r="L577" s="35">
-        <v>16.7</v>
+        <v>20.6</v>
       </c>
       <c r="M577" s="35">
-        <v>2.266</v>
+        <v>3.71</v>
       </c>
       <c r="N577" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O577" s="38" t="s">
+        <v>2.9</v>
+      </c>
+      <c r="O577" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P577" s="38" t="s">
+      <c r="P577" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q577" s="22" t="s">
+      <c r="Q577" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R577" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R577" s="22" t="s">
-        <v>104</v>
-      </c>
       <c r="S577" s="35">
-        <v>1</v>
-      </c>
-      <c r="T577" s="35" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="T577" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U577" s="35">
-        <v>24</v>
-      </c>
-      <c r="V577" s="22" t="s">
-        <v>158</v>
+        <v>26</v>
+      </c>
+      <c r="V577" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W577">
         <v>1</v>
@@ -35693,66 +35668,66 @@
         <v>7</v>
       </c>
       <c r="B578" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C578" s="22">
         <v>1</v>
       </c>
       <c r="D578" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E578" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F578" s="22">
         <v>0</v>
       </c>
       <c r="G578" s="22">
-        <v>4.3099999999999996</v>
+        <v>7.54</v>
       </c>
       <c r="H578" s="22">
-        <v>2.6</v>
+        <v>3.16</v>
       </c>
       <c r="I578" s="22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J578" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="K578" s="35">
-        <v>22.8</v>
+        <v>22.2</v>
       </c>
       <c r="L578" s="35">
-        <v>18.899999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="M578" s="35">
-        <v>2.9289999999999998</v>
+        <v>2.95</v>
       </c>
       <c r="N578" s="36">
-        <v>2.7</v>
-      </c>
-      <c r="O578" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P578" s="38" t="s">
+        <v>3.4</v>
+      </c>
+      <c r="O578" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P578" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q578" s="22" t="s">
+      <c r="Q578" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R578" s="22" t="s">
+      <c r="R578" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S578" s="35">
-        <v>2</v>
-      </c>
-      <c r="T578" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T578" s="16" t="s">
         <v>105</v>
       </c>
       <c r="U578" s="35">
-        <v>20</v>
-      </c>
-      <c r="V578" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="V578" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W578">
@@ -35764,25 +35739,25 @@
         <v>8</v>
       </c>
       <c r="B579" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C579" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D579" s="22">
         <v>2</v>
       </c>
       <c r="E579" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F579" s="22">
         <v>1</v>
       </c>
       <c r="G579" s="22">
-        <v>2.0950000000000002</v>
+        <v>2.77</v>
       </c>
       <c r="H579" s="22">
-        <v>2.4</v>
+        <v>3.71</v>
       </c>
       <c r="I579" s="22">
         <v>0</v>
@@ -35791,40 +35766,40 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K579" s="35">
-        <v>16.899999999999999</v>
+        <v>22</v>
       </c>
       <c r="L579" s="35">
-        <v>13.2</v>
+        <v>14.8</v>
       </c>
       <c r="M579" s="35">
-        <v>1.107</v>
+        <v>1.893</v>
       </c>
       <c r="N579" s="36">
-        <v>2.4</v>
-      </c>
-      <c r="O579" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P579" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q579" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R579" s="22" t="s">
-        <v>113</v>
+        <v>2.8</v>
+      </c>
+      <c r="O579" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P579" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q579" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R579" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S579" s="35">
-        <v>2</v>
-      </c>
-      <c r="T579" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T579" s="16" t="s">
         <v>106</v>
       </c>
       <c r="U579" s="35">
-        <v>12</v>
-      </c>
-      <c r="V579" s="22" t="s">
-        <v>157</v>
+        <v>19</v>
+      </c>
+      <c r="V579" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W579">
         <v>1</v>
@@ -35835,66 +35810,66 @@
         <v>9</v>
       </c>
       <c r="B580" s="22">
+        <v>4</v>
+      </c>
+      <c r="C580" s="22">
         <v>3</v>
       </c>
-      <c r="C580" s="22">
-        <v>1</v>
-      </c>
       <c r="D580" s="22">
         <v>1</v>
       </c>
       <c r="E580" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F580" s="22">
         <v>0</v>
       </c>
       <c r="G580" s="22">
-        <v>0.97499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H580" s="22">
-        <v>1.8</v>
+        <v>2.73</v>
       </c>
       <c r="I580" s="22">
-        <v>0.5</v>
+        <v>1.62</v>
       </c>
       <c r="J580" s="35">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="K580" s="35">
-        <v>15.9</v>
+        <v>20.5</v>
       </c>
       <c r="L580" s="35">
-        <v>12</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M580" s="35">
-        <v>9.7500000000000003E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N580" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O580" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P580" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q580" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R580" s="22" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="O580" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P580" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q580" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R580" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S580" s="35">
         <v>2</v>
       </c>
-      <c r="T580" s="35" t="s">
+      <c r="T580" s="16" t="s">
         <v>106</v>
       </c>
       <c r="U580" s="35">
-        <v>4</v>
-      </c>
-      <c r="V580" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="V580" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W580">
@@ -35906,66 +35881,66 @@
         <v>10</v>
       </c>
       <c r="B581" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C581" s="22">
         <v>0</v>
       </c>
       <c r="D581" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E581" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F581" s="22">
         <v>0</v>
       </c>
       <c r="G581" s="22">
-        <v>1.931</v>
+        <v>4.84</v>
       </c>
       <c r="H581" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="I581" s="22">
-        <v>0</v>
+        <v>3.67</v>
+      </c>
+      <c r="I581" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="J581" s="35">
         <v>0.125</v>
       </c>
       <c r="K581" s="35">
-        <v>21</v>
+        <v>24.6</v>
       </c>
       <c r="L581" s="35">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="M581" s="35">
-        <v>1.931</v>
+        <v>2.3929999999999998</v>
       </c>
       <c r="N581" s="36">
-        <v>2.7</v>
-      </c>
-      <c r="O581" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P581" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q581" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R581" s="22" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="O581" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P581" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q581" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R581" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S581" s="35">
-        <v>1</v>
-      </c>
-      <c r="T581" s="35" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="T581" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="U581" s="35">
-        <v>14</v>
-      </c>
-      <c r="V581" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V581" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W581">
@@ -35974,7 +35949,7 @@
     </row>
     <row r="582" spans="1:23">
       <c r="J582" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="583" spans="1:23" ht="15">
@@ -36024,10 +35999,10 @@
       <c r="L584" s="13"/>
       <c r="M584" s="12"/>
       <c r="N584" s="14"/>
-      <c r="O584" s="49" t="s">
+      <c r="O584" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P584" s="49"/>
+      <c r="P584" s="51"/>
       <c r="Q584" s="15"/>
       <c r="R584" s="11"/>
       <c r="S584" s="16"/>
@@ -36048,11 +36023,11 @@
       </c>
       <c r="I585" s="11"/>
       <c r="J585" s="18"/>
-      <c r="K585" s="50" t="s">
+      <c r="K585" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L585" s="50"/>
-      <c r="M585" s="50"/>
+      <c r="L585" s="52"/>
+      <c r="M585" s="52"/>
       <c r="N585" s="20" t="s">
         <v>7</v>
       </c>
@@ -36062,10 +36037,10 @@
       <c r="P585" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q585" s="51" t="s">
+      <c r="Q585" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R585" s="51"/>
+      <c r="R585" s="53"/>
       <c r="S585" s="4" t="s">
         <v>11</v>
       </c>
@@ -36238,7 +36213,7 @@
         <v>1</v>
       </c>
       <c r="B589" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C589" s="22">
         <v>0</v>
@@ -36250,55 +36225,53 @@
         <v>0</v>
       </c>
       <c r="F589" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G589" s="22">
-        <v>4.5990000000000002</v>
+        <v>4.97</v>
       </c>
       <c r="H589" s="22">
-        <v>2.7</v>
-      </c>
-      <c r="I589" s="22">
-        <v>0</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="I589" s="22"/>
       <c r="J589" s="35">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="K589" s="35">
-        <v>20.399999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="L589" s="35">
-        <v>18.100000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="M589" s="35">
-        <v>2.552</v>
+        <v>2.7810000000000001</v>
       </c>
       <c r="N589" s="36">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="O589" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="P589" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q589" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R589" s="22" t="s">
-        <v>103</v>
+        <v>26</v>
+      </c>
+      <c r="P589" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q589" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R589" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S589" s="35">
-        <v>2</v>
-      </c>
-      <c r="T589" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T589" s="16" t="s">
         <v>105</v>
       </c>
       <c r="U589" s="35">
-        <v>21</v>
-      </c>
-      <c r="V589" s="22" t="s">
-        <v>158</v>
+        <v>11</v>
+      </c>
+      <c r="V589" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W589">
         <v>1</v>
@@ -36309,7 +36282,7 @@
         <v>2</v>
       </c>
       <c r="B590" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C590" s="22">
         <v>0</v>
@@ -36318,58 +36291,58 @@
         <v>2</v>
       </c>
       <c r="E590" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F590" s="22">
-        <v>0</v>
-      </c>
-      <c r="G590" s="43" t="s">
-        <v>218</v>
+        <v>1</v>
+      </c>
+      <c r="G590" s="43">
+        <v>5.2359999999999998</v>
       </c>
       <c r="H590" s="22">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="I590" s="22">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J590" s="35">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K590" s="35">
-        <v>14.2</v>
+        <v>24.4</v>
       </c>
       <c r="L590" s="35">
-        <v>12.2</v>
-      </c>
-      <c r="M590" s="35" t="s">
-        <v>220</v>
+        <v>17.2</v>
+      </c>
+      <c r="M590" s="35">
+        <v>2.7370000000000001</v>
       </c>
       <c r="N590" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O590" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P590" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q590" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R590" s="22" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O590" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P590" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q590" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R590" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S590" s="35">
-        <v>2</v>
-      </c>
-      <c r="T590" s="35" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="T590" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U590" s="35">
-        <v>14</v>
-      </c>
-      <c r="V590" s="22" t="s">
-        <v>158</v>
+        <v>8</v>
+      </c>
+      <c r="V590" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W590">
         <v>1</v>
@@ -36380,13 +36353,13 @@
         <v>3</v>
       </c>
       <c r="B591" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C591" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D591" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E591" s="22">
         <v>0</v>
@@ -36395,51 +36368,49 @@
         <v>0</v>
       </c>
       <c r="G591" s="22">
-        <v>1.905</v>
+        <v>4.4390000000000001</v>
       </c>
       <c r="H591" s="22">
         <v>2.6</v>
       </c>
-      <c r="I591" s="22">
-        <v>0</v>
-      </c>
+      <c r="I591" s="22"/>
       <c r="J591" s="35">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="K591" s="35">
-        <v>20.3</v>
+        <v>29.8</v>
       </c>
       <c r="L591" s="35">
-        <v>16.3</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="M591" s="35">
-        <v>1.905</v>
+        <v>2.891</v>
       </c>
       <c r="N591" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="O591" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P591" s="38" t="s">
+        <v>2.7</v>
+      </c>
+      <c r="O591" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P591" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q591" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R591" s="22" t="s">
+      <c r="Q591" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R591" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S591" s="35">
-        <v>2</v>
-      </c>
-      <c r="T591" s="35" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="T591" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U591" s="35">
-        <v>23</v>
-      </c>
-      <c r="V591" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="V591" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W591">
@@ -36451,67 +36422,65 @@
         <v>4</v>
       </c>
       <c r="B592" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C592" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D592" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E592" s="22">
         <v>0</v>
       </c>
       <c r="F592" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G592" s="22">
-        <v>5.125</v>
+        <v>6.1550000000000002</v>
       </c>
       <c r="H592" s="22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I592" s="22">
-        <v>0</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="I592" s="22"/>
       <c r="J592" s="35">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="K592" s="35">
-        <v>21.3</v>
+        <v>23.4</v>
       </c>
       <c r="L592" s="35">
-        <v>18.3</v>
+        <v>17</v>
       </c>
       <c r="M592" s="35">
-        <v>2.66</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="N592" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O592" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P592" s="38" t="s">
+        <v>2.7</v>
+      </c>
+      <c r="O592" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P592" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q592" s="22" t="s">
+      <c r="Q592" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R592" s="22" t="s">
+      <c r="R592" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S592" s="35">
-        <v>2</v>
-      </c>
-      <c r="T592" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T592" s="16" t="s">
         <v>105</v>
       </c>
       <c r="U592" s="35">
-        <v>24</v>
-      </c>
-      <c r="V592" s="22" t="s">
-        <v>158</v>
+        <v>11</v>
+      </c>
+      <c r="V592" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W592">
         <v>1</v>
@@ -36521,67 +36490,55 @@
       <c r="A593" s="4">
         <v>5</v>
       </c>
-      <c r="B593" s="22">
-        <v>3</v>
-      </c>
-      <c r="C593" s="22">
-        <v>1</v>
-      </c>
-      <c r="D593" s="22">
-        <v>2</v>
-      </c>
-      <c r="E593" s="22">
-        <v>0</v>
-      </c>
-      <c r="F593" s="22">
-        <v>0</v>
-      </c>
+      <c r="B593" s="22"/>
+      <c r="C593" s="22"/>
+      <c r="D593" s="22"/>
+      <c r="E593" s="22"/>
+      <c r="F593" s="22"/>
       <c r="G593" s="22">
-        <v>1.8360000000000001</v>
-      </c>
-      <c r="H593" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="I593" s="22">
-        <v>0</v>
-      </c>
+        <v>8.423</v>
+      </c>
+      <c r="H593" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="I593" s="22"/>
       <c r="J593" s="35">
         <v>0.13300000000000001</v>
       </c>
       <c r="K593" s="35">
-        <v>16.100000000000001</v>
+        <v>27</v>
       </c>
       <c r="L593" s="35">
-        <v>15</v>
+        <v>15.6</v>
       </c>
       <c r="M593" s="35">
-        <v>1.44</v>
+        <v>2.4809999999999999</v>
       </c>
       <c r="N593" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O593" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P593" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q593" s="22" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O593" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P593" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q593" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R593" s="22" t="s">
+      <c r="R593" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S593" s="35">
         <v>1</v>
       </c>
-      <c r="T593" s="35" t="s">
-        <v>105</v>
+      <c r="T593" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U593" s="35">
-        <v>2</v>
-      </c>
-      <c r="V593" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="V593" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W593">
@@ -36593,7 +36550,7 @@
         <v>6</v>
       </c>
       <c r="B594" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C594" s="22">
         <v>0</v>
@@ -36605,54 +36562,52 @@
         <v>0</v>
       </c>
       <c r="F594" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G594" s="22">
-        <v>2.5720000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="H594" s="22">
-        <v>1.7</v>
-      </c>
-      <c r="I594" s="22">
-        <v>1.9</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="I594" s="22"/>
       <c r="J594" s="35">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="K594" s="35">
-        <v>20.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="L594" s="35">
-        <v>17.7</v>
+        <v>14.1</v>
       </c>
       <c r="M594" s="35">
-        <v>2.5720000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="N594" s="36">
-        <v>3</v>
-      </c>
-      <c r="O594" s="38" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O594" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P594" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q594" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R594" s="22" t="s">
-        <v>103</v>
+      <c r="P594" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q594" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R594" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S594" s="35">
-        <v>1</v>
-      </c>
-      <c r="T594" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="T594" s="16" t="s">
         <v>105</v>
       </c>
       <c r="U594" s="35">
-        <v>26</v>
-      </c>
-      <c r="V594" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="V594" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W594">
@@ -36664,66 +36619,64 @@
         <v>7</v>
       </c>
       <c r="B595" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C595" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D595" s="22">
         <v>2</v>
       </c>
       <c r="E595" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F595" s="22">
         <v>0</v>
       </c>
-      <c r="G595" s="43" t="s">
-        <v>219</v>
+      <c r="G595" s="43">
+        <v>5.5919999999999996</v>
       </c>
       <c r="H595" s="22">
-        <v>1.9</v>
-      </c>
-      <c r="I595" s="39">
-        <v>0</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="I595" s="39"/>
       <c r="J595" s="35">
         <v>0.156</v>
       </c>
       <c r="K595" s="35">
-        <v>21.4</v>
+        <v>27.3</v>
       </c>
       <c r="L595" s="35">
-        <v>18.7</v>
-      </c>
-      <c r="M595" s="35" t="s">
-        <v>221</v>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M595" s="35">
+        <v>3.2829999999999999</v>
       </c>
       <c r="N595" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="O595" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P595" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q595" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R595" s="22" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="O595" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P595" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q595" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R595" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S595" s="35">
         <v>1</v>
       </c>
-      <c r="T595" s="35" t="s">
-        <v>106</v>
+      <c r="T595" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U595" s="35">
-        <v>23</v>
-      </c>
-      <c r="V595" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V595" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W595">
@@ -36735,67 +36688,65 @@
         <v>8</v>
       </c>
       <c r="B596" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C596" s="22">
         <v>0</v>
       </c>
       <c r="D596" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E596" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F596" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G596" s="22">
-        <v>6.6950000000000003</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="H596" s="22">
-        <v>3.4</v>
-      </c>
-      <c r="I596" s="22">
-        <v>0</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="I596" s="22"/>
       <c r="J596" s="35">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="K596" s="35">
-        <v>22.4</v>
+        <v>25.4</v>
       </c>
       <c r="L596" s="35">
-        <v>19.100000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="M596" s="35">
-        <v>3.4039999999999999</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="N596" s="36">
-        <v>2.6</v>
-      </c>
-      <c r="O596" s="38" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O596" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P596" s="38" t="s">
+      <c r="P596" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q596" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R596" s="22" t="s">
-        <v>103</v>
+      <c r="Q596" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R596" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S596" s="35">
-        <v>2</v>
-      </c>
-      <c r="T596" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="T596" s="16" t="s">
         <v>105</v>
       </c>
       <c r="U596" s="35">
-        <v>27</v>
-      </c>
-      <c r="V596" s="22" t="s">
-        <v>158</v>
+        <v>13</v>
+      </c>
+      <c r="V596" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W596">
         <v>1</v>
@@ -36806,67 +36757,65 @@
         <v>9</v>
       </c>
       <c r="B597" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C597" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D597" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E597" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F597" s="22">
         <v>0</v>
       </c>
       <c r="G597" s="22">
-        <v>1.992</v>
+        <v>3.5139999999999998</v>
       </c>
       <c r="H597" s="22">
-        <v>3</v>
-      </c>
-      <c r="I597" s="22">
-        <v>0</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="I597" s="22"/>
       <c r="J597" s="35">
         <v>5.5E-2</v>
       </c>
       <c r="K597" s="35">
-        <v>19.399999999999999</v>
+        <v>21.6</v>
       </c>
       <c r="L597" s="35">
         <v>16.3</v>
       </c>
       <c r="M597" s="35">
-        <v>1.992</v>
+        <v>2.363</v>
       </c>
       <c r="N597" s="36">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O597" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P597" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q597" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R597" s="22" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O597" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P597" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q597" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R597" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S597" s="35">
         <v>2</v>
       </c>
-      <c r="T597" s="35" t="s">
-        <v>106</v>
+      <c r="T597" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U597" s="35">
-        <v>12</v>
-      </c>
-      <c r="V597" s="22" t="s">
-        <v>158</v>
+        <v>16</v>
+      </c>
+      <c r="V597" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W597">
         <v>1</v>
@@ -36876,68 +36825,56 @@
       <c r="A598" s="4">
         <v>10</v>
       </c>
-      <c r="B598" s="22">
-        <v>3</v>
-      </c>
-      <c r="C598" s="22">
-        <v>2</v>
-      </c>
-      <c r="D598" s="22">
-        <v>1</v>
-      </c>
-      <c r="E598" s="22">
-        <v>0</v>
-      </c>
-      <c r="F598" s="22">
-        <v>0</v>
-      </c>
+      <c r="B598" s="22"/>
+      <c r="C598" s="22"/>
+      <c r="D598" s="22"/>
+      <c r="E598" s="22"/>
+      <c r="F598" s="22"/>
       <c r="G598" s="22">
-        <v>3.8079999999999998</v>
-      </c>
-      <c r="H598" s="22">
-        <v>0</v>
-      </c>
-      <c r="I598" s="22">
-        <v>0</v>
-      </c>
+        <v>5.6740000000000004</v>
+      </c>
+      <c r="H598" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I598" s="22"/>
       <c r="J598" s="35">
         <v>0.191</v>
       </c>
       <c r="K598" s="35">
-        <v>23.8</v>
+        <v>26.3</v>
       </c>
       <c r="L598" s="35">
-        <v>20.3</v>
+        <v>15.9</v>
       </c>
       <c r="M598" s="35">
-        <v>3.8069999999999999</v>
+        <v>2.7210000000000001</v>
       </c>
       <c r="N598" s="36">
-        <v>2.8</v>
-      </c>
-      <c r="O598" s="38" t="s">
+        <v>2.9</v>
+      </c>
+      <c r="O598" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P598" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q598" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R598" s="22" t="s">
+      <c r="P598" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q598" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R598" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S598" s="35">
         <v>2</v>
       </c>
-      <c r="T598" s="35" t="s">
-        <v>106</v>
+      <c r="T598" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U598" s="35">
-        <v>35</v>
-      </c>
-      <c r="V598" s="22" t="s">
-        <v>157</v>
+        <v>19</v>
+      </c>
+      <c r="V598" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="W598">
         <v>1</v>
@@ -36998,65 +36935,63 @@
         <v>1</v>
       </c>
       <c r="B601" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C601" s="22">
         <v>0</v>
       </c>
       <c r="D601" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E601" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F601" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G601" s="22">
-        <v>5.6779999999999999</v>
+        <v>6.476</v>
       </c>
       <c r="H601" s="22">
-        <v>4.2</v>
-      </c>
-      <c r="I601" s="22">
-        <v>0</v>
-      </c>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I601" s="22"/>
       <c r="J601" s="35"/>
       <c r="K601" s="35">
-        <v>25.1</v>
+        <v>20.8</v>
       </c>
       <c r="L601" s="35">
-        <v>17.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="M601" s="35">
-        <v>2.9359999999999999</v>
+        <v>2.6019999999999999</v>
       </c>
       <c r="N601" s="36">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O601" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P601" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q601" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R601" s="22" t="s">
-        <v>228</v>
+      <c r="P601" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q601" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R601" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S601" s="35">
-        <v>1</v>
-      </c>
-      <c r="T601" s="35" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="T601" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U601" s="35">
-        <v>25</v>
-      </c>
-      <c r="V601" s="22" t="s">
-        <v>158</v>
+        <v>28</v>
+      </c>
+      <c r="V601" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W601">
         <v>1</v>
@@ -37073,59 +37008,59 @@
         <v>0</v>
       </c>
       <c r="D602" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E602" s="22">
         <v>0</v>
       </c>
       <c r="F602" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G602" s="22">
-        <v>10.54</v>
+        <v>6.1420000000000003</v>
       </c>
       <c r="H602" s="22">
-        <v>4.4000000000000004</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I602" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J602" s="35"/>
       <c r="K602" s="35">
-        <v>25.8</v>
+        <v>22.2</v>
       </c>
       <c r="L602" s="35">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="M602" s="35">
-        <v>3.58</v>
+        <v>3.1179999999999999</v>
       </c>
       <c r="N602" s="36">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O602" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P602" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q602" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R602" s="22" t="s">
+      <c r="P602" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q602" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R602" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S602" s="35">
-        <v>1</v>
-      </c>
-      <c r="T602" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="T602" s="16" t="s">
         <v>105</v>
       </c>
       <c r="U602" s="35">
-        <v>16</v>
-      </c>
-      <c r="V602" s="22" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="V602" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W602">
         <v>1</v>
@@ -37136,10 +37071,10 @@
         <v>3</v>
       </c>
       <c r="B603" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C603" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D603" s="22">
         <v>2</v>
@@ -37148,53 +37083,51 @@
         <v>0</v>
       </c>
       <c r="F603" s="22">
-        <v>1</v>
-      </c>
-      <c r="G603" s="43" t="s">
-        <v>222</v>
+        <v>0</v>
+      </c>
+      <c r="G603" s="43">
+        <v>5.3570000000000002</v>
       </c>
       <c r="H603" s="22">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I603" s="22">
-        <v>0</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="I603" s="22"/>
       <c r="J603" s="35"/>
       <c r="K603" s="35">
-        <v>27.2</v>
+        <v>22</v>
       </c>
       <c r="L603" s="35">
-        <v>18.7</v>
+        <v>17.7</v>
       </c>
       <c r="M603" s="35">
-        <v>3.371</v>
+        <v>2.7389999999999999</v>
       </c>
       <c r="N603" s="36">
-        <v>2.4</v>
-      </c>
-      <c r="O603" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P603" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q603" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R603" s="22" t="s">
-        <v>113</v>
+        <v>2.8</v>
+      </c>
+      <c r="O603" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P603" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q603" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R603" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S603" s="35">
-        <v>1</v>
-      </c>
-      <c r="T603" s="35" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="T603" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U603" s="35">
-        <v>24</v>
-      </c>
-      <c r="V603" s="22" t="s">
-        <v>158</v>
+        <v>29</v>
+      </c>
+      <c r="V603" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W603">
         <v>1</v>
@@ -37214,56 +37147,54 @@
         <v>3</v>
       </c>
       <c r="E604" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F604" s="22">
-        <v>1</v>
-      </c>
-      <c r="G604" s="43" t="s">
-        <v>223</v>
+        <v>0</v>
+      </c>
+      <c r="G604" s="43">
+        <v>6.99</v>
       </c>
       <c r="H604" s="22">
-        <v>3.4</v>
-      </c>
-      <c r="I604" s="22">
-        <v>0</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="I604" s="22"/>
       <c r="J604" s="35"/>
       <c r="K604" s="35">
-        <v>26.6</v>
+        <v>20.7</v>
       </c>
       <c r="L604" s="35">
-        <v>17.5</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="M604" s="35">
-        <v>2.988</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="N604" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="O604" s="38" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="O604" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P604" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q604" s="22" t="s">
+      <c r="P604" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q604" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R604" s="22" t="s">
-        <v>113</v>
+      <c r="R604" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S604" s="35">
-        <v>1</v>
-      </c>
-      <c r="T604" s="35" t="s">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="T604" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U604" s="35">
-        <v>7</v>
-      </c>
-      <c r="V604" s="22" t="s">
-        <v>158</v>
+        <v>31</v>
+      </c>
+      <c r="V604" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W604">
         <v>1</v>
@@ -37274,64 +37205,62 @@
         <v>5</v>
       </c>
       <c r="B605" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C605" s="22">
         <v>0</v>
       </c>
       <c r="D605" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E605" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F605" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G605" s="43">
-        <v>5.819</v>
+        <v>8.8480000000000008</v>
       </c>
       <c r="H605" s="22">
-        <v>2.7</v>
-      </c>
-      <c r="I605" s="22">
-        <v>0</v>
-      </c>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I605" s="22"/>
       <c r="J605" s="35"/>
       <c r="K605" s="35">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="L605" s="35">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="M605" s="35">
-        <v>2.9910000000000001</v>
+        <v>3.0640000000000001</v>
       </c>
       <c r="N605" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="O605" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P605" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q605" s="22" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O605" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P605" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q605" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R605" s="22" t="s">
-        <v>113</v>
+      <c r="R605" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S605" s="35">
-        <v>1</v>
-      </c>
-      <c r="T605" s="35" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="T605" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U605" s="35">
         <v>25</v>
       </c>
-      <c r="V605" s="22" t="s">
+      <c r="V605" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W605">
@@ -37343,13 +37272,13 @@
         <v>6</v>
       </c>
       <c r="B606" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C606" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D606" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E606" s="22">
         <v>1</v>
@@ -37357,51 +37286,49 @@
       <c r="F606" s="22">
         <v>1</v>
       </c>
-      <c r="G606" s="43" t="s">
-        <v>224</v>
+      <c r="G606" s="43">
+        <v>3.8380000000000001</v>
       </c>
       <c r="H606" s="22">
-        <v>3.8</v>
-      </c>
-      <c r="I606" s="22">
-        <v>0</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="I606" s="22"/>
       <c r="J606" s="35"/>
       <c r="K606" s="35">
-        <v>23.2</v>
+        <v>20.6</v>
       </c>
       <c r="L606" s="35">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="M606" s="35">
-        <v>2.2629999999999999</v>
+        <v>2.302</v>
       </c>
       <c r="N606" s="36">
-        <v>2.4</v>
-      </c>
-      <c r="O606" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P606" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q606" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R606" s="22" t="s">
-        <v>113</v>
+        <v>2.5</v>
+      </c>
+      <c r="O606" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P606" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q606" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R606" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S606" s="35">
-        <v>2</v>
-      </c>
-      <c r="T606" s="35" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="T606" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U606" s="35">
-        <v>24</v>
-      </c>
-      <c r="V606" s="22" t="s">
-        <v>158</v>
+        <v>29</v>
+      </c>
+      <c r="V606" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W606">
         <v>1</v>
@@ -37415,10 +37342,10 @@
         <v>4</v>
       </c>
       <c r="C607" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D607" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E607" s="22">
         <v>0</v>
@@ -37427,49 +37354,47 @@
         <v>0</v>
       </c>
       <c r="G607" s="43">
-        <v>5.9640000000000004</v>
+        <v>7.1680000000000001</v>
       </c>
       <c r="H607" s="22">
-        <v>3</v>
-      </c>
-      <c r="I607" s="22">
-        <v>1</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="I607" s="22"/>
       <c r="J607" s="35"/>
       <c r="K607" s="35">
-        <v>22.9</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L607" s="35">
-        <v>18.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="M607" s="35">
-        <v>3.0579999999999998</v>
+        <v>2.8319999999999999</v>
       </c>
       <c r="N607" s="36">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O607" s="38" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="O607" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P607" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q607" s="22" t="s">
+      <c r="P607" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q607" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R607" s="22" t="s">
+      <c r="R607" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S607" s="35">
-        <v>1</v>
-      </c>
-      <c r="T607" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="T607" s="16" t="s">
         <v>105</v>
       </c>
       <c r="U607" s="35">
-        <v>23</v>
-      </c>
-      <c r="V607" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V607" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W607">
@@ -37481,65 +37406,63 @@
         <v>8</v>
       </c>
       <c r="B608" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C608" s="22">
         <v>0</v>
       </c>
       <c r="D608" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E608" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F608" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G608" s="43">
-        <v>2.5750000000000002</v>
+        <v>9.8490000000000002</v>
       </c>
       <c r="H608" s="22">
-        <v>0.7</v>
-      </c>
-      <c r="I608" s="22">
-        <v>1.6</v>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="I608" s="22"/>
       <c r="J608" s="35"/>
       <c r="K608" s="35">
-        <v>19.600000000000001</v>
+        <v>24.4</v>
       </c>
       <c r="L608" s="35">
-        <v>18.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M608" s="35">
-        <v>2.5750000000000002</v>
+        <v>2.4609999999999999</v>
       </c>
       <c r="N608" s="36">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O608" s="38" t="s">
+        <v>2.8</v>
+      </c>
+      <c r="O608" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P608" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q608" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R608" s="22" t="s">
+      <c r="P608" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q608" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R608" s="11" t="s">
         <v>104</v>
       </c>
       <c r="S608" s="35">
-        <v>1</v>
-      </c>
-      <c r="T608" s="35" t="s">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="T608" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U608" s="35">
-        <v>27</v>
-      </c>
-      <c r="V608" s="22" t="s">
-        <v>157</v>
+        <v>26</v>
+      </c>
+      <c r="V608" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W608">
         <v>1</v>
@@ -37550,64 +37473,62 @@
         <v>9</v>
       </c>
       <c r="B609" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C609" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D609" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E609" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F609" s="22">
         <v>0</v>
       </c>
-      <c r="G609" s="43" t="s">
-        <v>225</v>
+      <c r="G609" s="43">
+        <v>5.1980000000000004</v>
       </c>
       <c r="H609" s="22">
-        <v>3.4</v>
-      </c>
-      <c r="I609" s="22">
-        <v>0</v>
-      </c>
+        <v>3.8</v>
+      </c>
+      <c r="I609" s="22"/>
       <c r="J609" s="35"/>
       <c r="K609" s="35">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="L609" s="35">
-        <v>16.8</v>
+        <v>18.3</v>
       </c>
       <c r="M609" s="35">
-        <v>2.41</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="N609" s="36">
-        <v>2.4</v>
-      </c>
-      <c r="O609" s="38" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="O609" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P609" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q609" s="22" t="s">
+      <c r="P609" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q609" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R609" s="22" t="s">
-        <v>113</v>
+      <c r="R609" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S609" s="35">
         <v>1</v>
       </c>
-      <c r="T609" s="35" t="s">
-        <v>114</v>
+      <c r="T609" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U609" s="35">
-        <v>19</v>
-      </c>
-      <c r="V609" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V609" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W609">
@@ -37619,7 +37540,7 @@
         <v>10</v>
       </c>
       <c r="B610" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C610" s="22">
         <v>0</v>
@@ -37628,55 +37549,53 @@
         <v>2</v>
       </c>
       <c r="E610" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F610" s="22">
-        <v>0</v>
-      </c>
-      <c r="G610" s="43" t="s">
-        <v>226</v>
+        <v>2</v>
+      </c>
+      <c r="G610" s="43">
+        <v>5.9420000000000002</v>
       </c>
       <c r="H610" s="22">
-        <v>4.2</v>
-      </c>
-      <c r="I610" s="22">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="I610" s="22"/>
       <c r="J610" s="35"/>
       <c r="K610" s="35">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="L610" s="35">
-        <v>19.3</v>
-      </c>
-      <c r="M610" s="35" t="s">
-        <v>227</v>
+        <v>18.8</v>
+      </c>
+      <c r="M610" s="35">
+        <v>3.0070000000000001</v>
       </c>
       <c r="N610" s="36">
         <v>2.5</v>
       </c>
-      <c r="O610" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P610" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q610" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R610" s="22" t="s">
-        <v>113</v>
+      <c r="O610" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P610" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q610" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R610" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S610" s="35">
         <v>1</v>
       </c>
-      <c r="T610" s="35" t="s">
-        <v>106</v>
+      <c r="T610" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U610" s="35">
-        <v>18</v>
-      </c>
-      <c r="V610" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="V610" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W610">
@@ -37733,10 +37652,10 @@
       <c r="L613" s="13"/>
       <c r="M613" s="12"/>
       <c r="N613" s="14"/>
-      <c r="O613" s="49" t="s">
+      <c r="O613" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P613" s="49"/>
+      <c r="P613" s="51"/>
       <c r="Q613" s="15"/>
       <c r="R613" s="11"/>
       <c r="S613" s="16"/>
@@ -37757,11 +37676,11 @@
       </c>
       <c r="I614" s="11"/>
       <c r="J614" s="18"/>
-      <c r="K614" s="50" t="s">
+      <c r="K614" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L614" s="50"/>
-      <c r="M614" s="50"/>
+      <c r="L614" s="52"/>
+      <c r="M614" s="52"/>
       <c r="N614" s="20" t="s">
         <v>7</v>
       </c>
@@ -37771,10 +37690,10 @@
       <c r="P614" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q614" s="51" t="s">
+      <c r="Q614" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R614" s="51"/>
+      <c r="R614" s="53"/>
       <c r="S614" s="4" t="s">
         <v>11</v>
       </c>
@@ -37950,62 +37869,62 @@
         <v>4</v>
       </c>
       <c r="C618" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D618" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E618" s="22">
         <v>1</v>
       </c>
       <c r="F618" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G618" s="22">
-        <v>6.3570000000000002</v>
+        <v>2.0550000000000002</v>
       </c>
       <c r="H618" s="22">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I618" s="43" t="s">
-        <v>234</v>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I618" s="43">
+        <v>0</v>
       </c>
       <c r="J618" s="35"/>
       <c r="K618" s="35">
-        <v>22.1</v>
+        <v>20.5</v>
       </c>
       <c r="L618" s="35">
-        <v>16.600000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="M618" s="35">
-        <v>2.38</v>
+        <v>2.0550000000000002</v>
       </c>
       <c r="N618" s="36">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O618" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="P618" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q618" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R618" s="22" t="s">
-        <v>103</v>
+      <c r="P618" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q618" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R618" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S618" s="35">
-        <v>1</v>
-      </c>
-      <c r="T618" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T618" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U618" s="35">
-        <v>19</v>
-      </c>
-      <c r="V618" s="22" t="s">
-        <v>158</v>
+        <v>22</v>
+      </c>
+      <c r="V618" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W618">
         <v>1</v>
@@ -38019,38 +37938,38 @@
         <v>4</v>
       </c>
       <c r="C619" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D619" s="22">
         <v>3</v>
       </c>
       <c r="E619" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F619" s="22">
         <v>0</v>
       </c>
       <c r="G619" s="22">
-        <v>7.1719999999999997</v>
+        <v>5.4039999999999999</v>
       </c>
       <c r="H619" s="22">
-        <v>4.5999999999999996</v>
+        <v>3.77</v>
       </c>
       <c r="I619" s="22">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="J619" s="35"/>
       <c r="K619" s="35">
-        <v>21.9</v>
+        <v>21.3</v>
       </c>
       <c r="L619" s="35">
-        <v>19.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="M619" s="35">
-        <v>3.0739999999999998</v>
+        <v>2.73</v>
       </c>
       <c r="N619" s="36">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O619" s="38" t="s">
         <v>40</v>
@@ -38058,23 +37977,23 @@
       <c r="P619" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q619" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R619" s="22" t="s">
-        <v>103</v>
+      <c r="Q619" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R619" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S619" s="35">
         <v>1</v>
       </c>
-      <c r="T619" s="35" t="s">
-        <v>105</v>
+      <c r="T619" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U619" s="35">
-        <v>24</v>
-      </c>
-      <c r="V619" s="22" t="s">
-        <v>158</v>
+        <v>26</v>
+      </c>
+      <c r="V619" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W619">
         <v>1</v>
@@ -38085,25 +38004,25 @@
         <v>3</v>
       </c>
       <c r="B620" s="22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C620" s="22">
         <v>0</v>
       </c>
       <c r="D620" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E620" s="22">
         <v>0</v>
       </c>
       <c r="F620" s="22">
-        <v>0</v>
-      </c>
-      <c r="G620" s="43" t="s">
-        <v>229</v>
+        <v>4</v>
+      </c>
+      <c r="G620" s="43">
+        <v>5.5869999999999997</v>
       </c>
       <c r="H620" s="22">
-        <v>4.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="I620" s="22">
         <v>0</v>
@@ -38113,37 +38032,37 @@
         <v>20.7</v>
       </c>
       <c r="L620" s="35">
-        <v>17.3</v>
-      </c>
-      <c r="M620" s="35" t="s">
-        <v>229</v>
+        <v>18.2</v>
+      </c>
+      <c r="M620" s="35">
+        <v>2.395</v>
       </c>
       <c r="N620" s="36">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O620" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P620" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q620" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R620" s="22" t="s">
-        <v>103</v>
+      <c r="P620" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q620" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R620" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S620" s="35">
-        <v>2</v>
-      </c>
-      <c r="T620" s="35" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="T620" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U620" s="35">
-        <v>9</v>
-      </c>
-      <c r="V620" s="22" t="s">
-        <v>158</v>
+        <v>30</v>
+      </c>
+      <c r="V620" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W620">
         <v>1</v>
@@ -38154,64 +38073,64 @@
         <v>4</v>
       </c>
       <c r="B621" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C621" s="22">
         <v>1</v>
       </c>
       <c r="D621" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E621" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F621" s="22">
         <v>0</v>
       </c>
       <c r="G621" s="43">
-        <v>1.855</v>
+        <v>4.3680000000000003</v>
       </c>
       <c r="H621" s="22">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I621" s="22">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J621" s="35"/>
       <c r="K621" s="35">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="L621" s="35">
-        <v>15.3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="M621" s="35">
-        <v>1.855</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="N621" s="36">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O621" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P621" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q621" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R621" s="22" t="s">
-        <v>103</v>
+      <c r="P621" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q621" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R621" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S621" s="35">
         <v>2</v>
       </c>
-      <c r="T621" s="35" t="s">
-        <v>105</v>
+      <c r="T621" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U621" s="35">
-        <v>7</v>
-      </c>
-      <c r="V621" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V621" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W621">
@@ -38223,64 +38142,64 @@
         <v>5</v>
       </c>
       <c r="B622" s="22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C622" s="22">
         <v>2</v>
       </c>
       <c r="D622" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E622" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F622" s="22">
-        <v>1</v>
-      </c>
-      <c r="G622" s="43" t="s">
-        <v>232</v>
+        <v>0</v>
+      </c>
+      <c r="G622" s="43">
+        <v>2.9460000000000002</v>
       </c>
       <c r="H622" s="22">
-        <v>1.6</v>
+        <v>7.45</v>
       </c>
       <c r="I622" s="22">
         <v>0</v>
       </c>
       <c r="J622" s="35"/>
       <c r="K622" s="35">
-        <v>18.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="L622" s="35">
-        <v>15.4</v>
+        <v>19</v>
       </c>
       <c r="M622" s="35">
-        <v>1.6579999999999999</v>
+        <v>2.9460000000000002</v>
       </c>
       <c r="N622" s="36">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O622" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P622" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q622" s="22" t="s">
+      <c r="P622" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q622" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R622" s="22" t="s">
-        <v>103</v>
+      <c r="R622" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S622" s="35">
         <v>1</v>
       </c>
-      <c r="T622" s="35" t="s">
-        <v>105</v>
+      <c r="T622" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U622" s="35">
-        <v>17</v>
-      </c>
-      <c r="V622" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V622" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W622">
@@ -38292,62 +38211,64 @@
         <v>6</v>
       </c>
       <c r="B623" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C623" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D623" s="22">
         <v>2</v>
       </c>
       <c r="E623" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F623" s="22">
-        <v>0</v>
-      </c>
-      <c r="G623" s="43" t="s">
-        <v>230</v>
+        <v>1</v>
+      </c>
+      <c r="G623" s="43">
+        <v>7.1269999999999998</v>
       </c>
       <c r="H623" s="22">
-        <v>3.4</v>
-      </c>
-      <c r="I623" s="22"/>
+        <v>9.85</v>
+      </c>
+      <c r="I623" s="22">
+        <v>0</v>
+      </c>
       <c r="J623" s="35"/>
       <c r="K623" s="35">
-        <v>18.2</v>
+        <v>22.3</v>
       </c>
       <c r="L623" s="35">
-        <v>16.399999999999999</v>
+        <v>21.3</v>
       </c>
       <c r="M623" s="35">
-        <v>18.89</v>
+        <v>3.798</v>
       </c>
       <c r="N623" s="36">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O623" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P623" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q623" s="22" t="s">
+      <c r="P623" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q623" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R623" s="22" t="s">
-        <v>103</v>
+      <c r="R623" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S623" s="35">
         <v>2</v>
       </c>
-      <c r="T623" s="35" t="s">
-        <v>105</v>
+      <c r="T623" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="U623" s="35">
-        <v>20</v>
-      </c>
-      <c r="V623" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="V623" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W623">
@@ -38359,64 +38280,64 @@
         <v>7</v>
       </c>
       <c r="B624" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C624" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D624" s="22">
         <v>2</v>
       </c>
       <c r="E624" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F624" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G624" s="43">
-        <v>3.14</v>
+        <v>3.3839999999999999</v>
       </c>
       <c r="H624" s="22">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="I624" s="39">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="J624" s="35"/>
       <c r="K624" s="35">
-        <v>18</v>
+        <v>22.1</v>
       </c>
       <c r="L624" s="35">
-        <v>16.7</v>
+        <v>19.8</v>
       </c>
       <c r="M624" s="35">
-        <v>1.7589999999999999</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="N624" s="36">
-        <v>3.1</v>
-      </c>
-      <c r="O624" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P624" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q624" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R624" s="22" t="s">
-        <v>103</v>
+        <v>3.4</v>
+      </c>
+      <c r="O624" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P624" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q624" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R624" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S624" s="35">
-        <v>1</v>
-      </c>
-      <c r="T624" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T624" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U624" s="35">
-        <v>19</v>
-      </c>
-      <c r="V624" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V624" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W624">
@@ -38428,64 +38349,64 @@
         <v>8</v>
       </c>
       <c r="B625" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C625" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D625" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E625" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F625" s="22">
-        <v>1</v>
-      </c>
-      <c r="G625" s="43" t="s">
-        <v>231</v>
+        <v>0</v>
+      </c>
+      <c r="G625" s="43">
+        <v>8.5719999999999992</v>
       </c>
       <c r="H625" s="22">
-        <v>0.3</v>
+        <v>5.07</v>
       </c>
       <c r="I625" s="22">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J625" s="35"/>
       <c r="K625" s="35">
-        <v>20.100000000000001</v>
+        <v>22.1</v>
       </c>
       <c r="L625" s="35">
-        <v>16</v>
+        <v>20.7</v>
       </c>
       <c r="M625" s="35">
-        <v>2.14</v>
+        <v>3.23</v>
       </c>
       <c r="N625" s="36">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O625" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P625" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q625" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R625" s="22" t="s">
-        <v>103</v>
+      <c r="P625" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q625" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R625" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S625" s="35">
-        <v>1</v>
-      </c>
-      <c r="T625" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T625" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U625" s="35">
-        <v>20</v>
-      </c>
-      <c r="V625" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V625" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W625">
@@ -38497,64 +38418,64 @@
         <v>9</v>
       </c>
       <c r="B626" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C626" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D626" s="22">
         <v>2</v>
       </c>
       <c r="E626" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F626" s="22">
         <v>0</v>
       </c>
       <c r="G626" s="43">
-        <v>2.9950000000000001</v>
+        <v>7.0439999999999996</v>
       </c>
       <c r="H626" s="22">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="I626" s="22">
         <v>0</v>
       </c>
       <c r="J626" s="35"/>
       <c r="K626" s="35">
-        <v>20</v>
+        <v>27.3</v>
       </c>
       <c r="L626" s="35">
-        <v>16.3</v>
+        <v>20.3</v>
       </c>
       <c r="M626" s="35">
-        <v>2.077</v>
+        <v>3.8380000000000001</v>
       </c>
       <c r="N626" s="36">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O626" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P626" s="38" t="s">
-        <v>41</v>
+      <c r="P626" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="Q626" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R626" s="22" t="s">
-        <v>103</v>
+      <c r="R626" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S626" s="35">
-        <v>1</v>
-      </c>
-      <c r="T626" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T626" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U626" s="35">
-        <v>8</v>
-      </c>
-      <c r="V626" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V626" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W626">
@@ -38566,64 +38487,64 @@
         <v>10</v>
       </c>
       <c r="B627" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C627" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D627" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E627" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F627" s="22">
         <v>0</v>
       </c>
-      <c r="G627" s="43" t="s">
-        <v>233</v>
+      <c r="G627" s="43">
+        <v>2.3250000000000002</v>
       </c>
       <c r="H627" s="22">
-        <v>7.2</v>
+        <v>1.26</v>
       </c>
       <c r="I627" s="22">
         <v>0</v>
       </c>
       <c r="J627" s="35"/>
       <c r="K627" s="35">
-        <v>23.9</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L627" s="35">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="M627" s="35" t="s">
-        <v>235</v>
+        <v>17</v>
+      </c>
+      <c r="M627" s="35">
+        <v>2.3250000000000002</v>
       </c>
       <c r="N627" s="36">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O627" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P627" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q627" s="22" t="s">
+      <c r="P627" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q627" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="R627" s="22" t="s">
-        <v>103</v>
+      <c r="R627" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="S627" s="35">
-        <v>1</v>
-      </c>
-      <c r="T627" s="35" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="T627" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="U627" s="35">
-        <v>23</v>
-      </c>
-      <c r="V627" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="V627" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W627">
@@ -38705,9 +38626,7 @@
       <c r="H630" s="22">
         <v>3.5</v>
       </c>
-      <c r="I630" s="22">
-        <v>3.5</v>
-      </c>
+      <c r="I630" s="22"/>
       <c r="J630" s="35"/>
       <c r="K630" s="35">
         <v>29.5</v>
@@ -38734,13 +38653,13 @@
         <v>104</v>
       </c>
       <c r="S630" s="35">
-        <v>2</v>
-      </c>
-      <c r="T630" s="35" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="T630" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U630" s="35">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="V630" s="22" t="s">
         <v>158</v>
@@ -38774,9 +38693,7 @@
       <c r="H631" s="22">
         <v>5.5</v>
       </c>
-      <c r="I631" s="22">
-        <v>5.5</v>
-      </c>
+      <c r="I631" s="22"/>
       <c r="J631" s="35"/>
       <c r="K631" s="35">
         <v>26.9</v>
@@ -38809,10 +38726,10 @@
         <v>105</v>
       </c>
       <c r="U631" s="35">
-        <v>12</v>
-      </c>
-      <c r="V631" s="22" t="s">
-        <v>157</v>
+        <v>18</v>
+      </c>
+      <c r="V631" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W631">
         <v>1</v>
@@ -38843,9 +38760,7 @@
       <c r="H632" s="22">
         <v>3.3</v>
       </c>
-      <c r="I632" s="22">
-        <v>3.3</v>
-      </c>
+      <c r="I632" s="22"/>
       <c r="J632" s="35"/>
       <c r="K632" s="35">
         <v>24.3</v>
@@ -38872,15 +38787,15 @@
         <v>104</v>
       </c>
       <c r="S632" s="35">
-        <v>2</v>
-      </c>
-      <c r="T632" s="35" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="T632" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="U632" s="35">
-        <v>12</v>
-      </c>
-      <c r="V632" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V632" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W632">
@@ -38912,9 +38827,7 @@
       <c r="H633" s="22">
         <v>5.4</v>
       </c>
-      <c r="I633" s="22">
-        <v>5.4</v>
-      </c>
+      <c r="I633" s="22"/>
       <c r="J633" s="35"/>
       <c r="K633" s="35">
         <v>26</v>
@@ -38941,16 +38854,16 @@
         <v>104</v>
       </c>
       <c r="S633" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T633" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U633" s="35">
-        <v>21</v>
-      </c>
-      <c r="V633" s="22" t="s">
-        <v>157</v>
+        <v>22</v>
+      </c>
+      <c r="V633" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="W633">
         <v>1</v>
@@ -38981,9 +38894,7 @@
       <c r="H634" s="22">
         <v>2.9</v>
       </c>
-      <c r="I634" s="22">
-        <v>2.9</v>
-      </c>
+      <c r="I634" s="22"/>
       <c r="J634" s="35"/>
       <c r="K634" s="35">
         <v>25.5</v>
@@ -39000,8 +38911,8 @@
       <c r="O634" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P634" s="38" t="s">
-        <v>40</v>
+      <c r="P634" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="Q634" s="22" t="s">
         <v>161</v>
@@ -39016,9 +38927,9 @@
         <v>105</v>
       </c>
       <c r="U634" s="35">
-        <v>21</v>
-      </c>
-      <c r="V634" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V634" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W634">
@@ -39050,9 +38961,7 @@
       <c r="H635" s="22">
         <v>3.9</v>
       </c>
-      <c r="I635" s="22">
-        <v>3.9</v>
-      </c>
+      <c r="I635" s="22"/>
       <c r="J635" s="35"/>
       <c r="K635" s="35">
         <v>30.1</v>
@@ -39081,13 +38990,13 @@
       <c r="S635" s="35">
         <v>2</v>
       </c>
-      <c r="T635" s="35" t="s">
-        <v>106</v>
+      <c r="T635" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="U635" s="35">
-        <v>8</v>
-      </c>
-      <c r="V635" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V635" s="11" t="s">
         <v>158</v>
       </c>
       <c r="W635">
@@ -39119,9 +39028,7 @@
       <c r="H636" s="22">
         <v>3.2</v>
       </c>
-      <c r="I636" s="22">
-        <v>3.2</v>
-      </c>
+      <c r="I636" s="22"/>
       <c r="J636" s="35"/>
       <c r="K636" s="35">
         <v>25.2</v>
@@ -39148,15 +39055,15 @@
         <v>104</v>
       </c>
       <c r="S636" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T636" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U636" s="35">
-        <v>21</v>
-      </c>
-      <c r="V636" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V636" s="11" t="s">
         <v>157</v>
       </c>
       <c r="W636">
@@ -39188,9 +39095,7 @@
       <c r="H637" s="22">
         <v>7</v>
       </c>
-      <c r="I637" s="22">
-        <v>7</v>
-      </c>
+      <c r="I637" s="22"/>
       <c r="J637" s="35"/>
       <c r="K637" s="35">
         <v>23.4</v>
@@ -39217,16 +39122,16 @@
         <v>104</v>
       </c>
       <c r="S637" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T637" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U637" s="35">
-        <v>23</v>
-      </c>
-      <c r="V637" s="22" t="s">
-        <v>158</v>
+        <v>10</v>
+      </c>
+      <c r="V637" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W637">
         <v>1</v>
@@ -39257,9 +39162,7 @@
       <c r="H638" s="22">
         <v>3.1</v>
       </c>
-      <c r="I638" s="22">
-        <v>3.1</v>
-      </c>
+      <c r="I638" s="22"/>
       <c r="J638" s="35"/>
       <c r="K638" s="35">
         <v>27</v>
@@ -39286,16 +39189,16 @@
         <v>104</v>
       </c>
       <c r="S638" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T638" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U638" s="35">
-        <v>29</v>
-      </c>
-      <c r="V638" s="22" t="s">
-        <v>158</v>
+        <v>22</v>
+      </c>
+      <c r="V638" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W638">
         <v>1</v>
@@ -39326,9 +39229,7 @@
       <c r="H639" s="22">
         <v>1.7</v>
       </c>
-      <c r="I639" s="22">
-        <v>1.7</v>
-      </c>
+      <c r="I639" s="22"/>
       <c r="J639" s="35"/>
       <c r="K639" s="35">
         <v>26.1</v>
@@ -39345,8 +39246,8 @@
       <c r="O639" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P639" s="38" t="s">
-        <v>161</v>
+      <c r="P639" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="Q639" s="22" t="s">
         <v>161</v>
@@ -39355,16 +39256,16 @@
         <v>104</v>
       </c>
       <c r="S639" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T639" s="35" t="s">
         <v>105</v>
       </c>
       <c r="U639" s="35">
-        <v>14</v>
-      </c>
-      <c r="V639" s="22" t="s">
-        <v>158</v>
+        <v>27</v>
+      </c>
+      <c r="V639" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="W639">
         <v>1</v>
@@ -39420,10 +39321,10 @@
       <c r="L642" s="13"/>
       <c r="M642" s="12"/>
       <c r="N642" s="14"/>
-      <c r="O642" s="49" t="s">
+      <c r="O642" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P642" s="49"/>
+      <c r="P642" s="51"/>
       <c r="Q642" s="15"/>
       <c r="R642" s="11"/>
       <c r="S642" s="16"/>
@@ -39444,11 +39345,11 @@
       </c>
       <c r="I643" s="11"/>
       <c r="J643" s="18"/>
-      <c r="K643" s="50" t="s">
+      <c r="K643" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L643" s="50"/>
-      <c r="M643" s="50"/>
+      <c r="L643" s="52"/>
+      <c r="M643" s="52"/>
       <c r="N643" s="20" t="s">
         <v>7</v>
       </c>
@@ -39458,10 +39359,10 @@
       <c r="P643" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q643" s="51" t="s">
+      <c r="Q643" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R643" s="51"/>
+      <c r="R643" s="53"/>
       <c r="S643" s="4" t="s">
         <v>11</v>
       </c>
@@ -39654,12 +39555,10 @@
       <c r="H647" s="22">
         <v>2.8</v>
       </c>
-      <c r="I647" s="22">
-        <v>0</v>
-      </c>
+      <c r="I647" s="22"/>
       <c r="J647" s="35"/>
       <c r="K647" s="35">
-        <v>24.85</v>
+        <v>24.8</v>
       </c>
       <c r="L647" s="35">
         <v>16</v>
@@ -39723,9 +39622,7 @@
       <c r="H648" s="22">
         <v>2.9</v>
       </c>
-      <c r="I648" s="22">
-        <v>0</v>
-      </c>
+      <c r="I648" s="22"/>
       <c r="J648" s="35"/>
       <c r="K648" s="35">
         <v>28.4</v>
@@ -39818,9 +39715,7 @@
       <c r="H650" s="22">
         <v>3</v>
       </c>
-      <c r="I650" s="22">
-        <v>0</v>
-      </c>
+      <c r="I650" s="22"/>
       <c r="J650" s="35"/>
       <c r="K650" s="35">
         <v>25.5</v>
@@ -39829,7 +39724,7 @@
         <v>16.5</v>
       </c>
       <c r="M650" s="35">
-        <v>16.5</v>
+        <v>2.617</v>
       </c>
       <c r="N650" s="36">
         <v>2.6</v>
@@ -39887,9 +39782,7 @@
       <c r="H651" s="22">
         <v>1.6</v>
       </c>
-      <c r="I651" s="22">
-        <v>0</v>
-      </c>
+      <c r="I651" s="22"/>
       <c r="J651" s="35"/>
       <c r="K651" s="35">
         <v>27.1</v>
@@ -39898,7 +39791,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="M651" s="35">
-        <v>18.600000000000001</v>
+        <v>3.294</v>
       </c>
       <c r="N651" s="36">
         <v>2.7</v>
@@ -39956,9 +39849,7 @@
       <c r="H652" s="22">
         <v>3.1</v>
       </c>
-      <c r="I652" s="22">
-        <v>0</v>
-      </c>
+      <c r="I652" s="22"/>
       <c r="J652" s="35"/>
       <c r="K652" s="35">
         <v>24.7</v>
@@ -39967,7 +39858,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="M652" s="35">
-        <v>17.399999999999999</v>
+        <v>2.6469999999999998</v>
       </c>
       <c r="N652" s="36">
         <v>2.9</v>
@@ -40020,14 +39911,12 @@
         <v>1</v>
       </c>
       <c r="G653" s="22">
-        <v>0.64800000000000002</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="H653" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I653" s="39">
-        <v>0</v>
-      </c>
+      <c r="I653" s="39"/>
       <c r="J653" s="35"/>
       <c r="K653" s="35">
         <v>19.399999999999999</v>
@@ -40036,7 +39925,7 @@
         <v>10.4</v>
       </c>
       <c r="M653" s="35">
-        <v>10.4</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="N653" s="36">
         <v>2.4</v>
@@ -40094,9 +39983,7 @@
       <c r="H654" s="22">
         <v>3.2</v>
       </c>
-      <c r="I654" s="22">
-        <v>0</v>
-      </c>
+      <c r="I654" s="22"/>
       <c r="J654" s="35"/>
       <c r="K654" s="35">
         <v>26</v>
@@ -40105,7 +39992,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M654" s="35">
-        <v>18.399999999999999</v>
+        <v>3.1659999999999999</v>
       </c>
       <c r="N654" s="36">
         <v>2.6</v>
@@ -40174,7 +40061,7 @@
         <v>19.7</v>
       </c>
       <c r="M655" s="35">
-        <v>19.7</v>
+        <v>4.0339999999999998</v>
       </c>
       <c r="N655" s="36">
         <v>2.8</v>
@@ -40243,11 +40130,9 @@
         <v>19</v>
       </c>
       <c r="M656" s="35">
-        <v>19</v>
-      </c>
-      <c r="N656" s="36">
-        <v>2.7</v>
-      </c>
+        <v>3.2919999999999998</v>
+      </c>
+      <c r="N656" s="36"/>
       <c r="O656" s="38" t="s">
         <v>8</v>
       </c>
@@ -40351,9 +40236,7 @@
       <c r="H659" s="22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I659" s="22">
-        <v>0</v>
-      </c>
+      <c r="I659" s="22"/>
       <c r="J659" s="35"/>
       <c r="K659" s="35">
         <v>29</v>
@@ -40377,7 +40260,7 @@
         <v>104</v>
       </c>
       <c r="R659" s="22" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="S659" s="35">
         <v>1</v>
@@ -40420,9 +40303,7 @@
       <c r="H660" s="22">
         <v>2.4</v>
       </c>
-      <c r="I660" s="22">
-        <v>0</v>
-      </c>
+      <c r="I660" s="22"/>
       <c r="J660" s="35"/>
       <c r="K660" s="35">
         <v>25.2</v>
@@ -40489,9 +40370,7 @@
       <c r="H661" s="22">
         <v>3.7</v>
       </c>
-      <c r="I661" s="22">
-        <v>0</v>
-      </c>
+      <c r="I661" s="22"/>
       <c r="J661" s="35"/>
       <c r="K661" s="35">
         <v>23</v>
@@ -40558,9 +40437,7 @@
       <c r="H662" s="22">
         <v>2.8</v>
       </c>
-      <c r="I662" s="22">
-        <v>0</v>
-      </c>
+      <c r="I662" s="22"/>
       <c r="J662" s="35"/>
       <c r="K662" s="35">
         <v>27.8</v>
@@ -40627,9 +40504,7 @@
       <c r="H663" s="22">
         <v>3.6</v>
       </c>
-      <c r="I663" s="22">
-        <v>0</v>
-      </c>
+      <c r="I663" s="22"/>
       <c r="J663" s="35"/>
       <c r="K663" s="35">
         <v>24.3</v>
@@ -40696,9 +40571,7 @@
       <c r="H664" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I664" s="22">
-        <v>0</v>
-      </c>
+      <c r="I664" s="22"/>
       <c r="J664" s="35"/>
       <c r="K664" s="35">
         <v>23.3</v>
@@ -40765,9 +40638,7 @@
       <c r="H665" s="22">
         <v>1.3</v>
       </c>
-      <c r="I665" s="22">
-        <v>0</v>
-      </c>
+      <c r="I665" s="22"/>
       <c r="J665" s="35"/>
       <c r="K665" s="35">
         <v>17.600000000000001</v>
@@ -40834,9 +40705,7 @@
       <c r="H666" s="22">
         <v>3.3</v>
       </c>
-      <c r="I666" s="22">
-        <v>0</v>
-      </c>
+      <c r="I666" s="22"/>
       <c r="J666" s="35"/>
       <c r="K666" s="35">
         <v>23.3</v>
@@ -40898,14 +40767,12 @@
         <v>0</v>
       </c>
       <c r="G667" s="43" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="H667" s="43">
         <v>2.5</v>
       </c>
-      <c r="I667" s="22">
-        <v>0</v>
-      </c>
+      <c r="I667" s="22"/>
       <c r="J667" s="35"/>
       <c r="K667" s="35">
         <v>24.2</v>
@@ -40972,9 +40839,7 @@
       <c r="H668" s="22">
         <v>3.8</v>
       </c>
-      <c r="I668" s="22">
-        <v>0</v>
-      </c>
+      <c r="I668" s="22"/>
       <c r="J668" s="35"/>
       <c r="K668" s="35">
         <v>24.3</v>
@@ -41063,10 +40928,10 @@
       <c r="L671" s="13"/>
       <c r="M671" s="12"/>
       <c r="N671" s="14"/>
-      <c r="O671" s="49" t="s">
+      <c r="O671" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P671" s="49"/>
+      <c r="P671" s="51"/>
       <c r="Q671" s="15"/>
       <c r="R671" s="11"/>
       <c r="S671" s="16"/>
@@ -41087,11 +40952,11 @@
       </c>
       <c r="I672" s="11"/>
       <c r="J672" s="18"/>
-      <c r="K672" s="50" t="s">
+      <c r="K672" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L672" s="50"/>
-      <c r="M672" s="50"/>
+      <c r="L672" s="52"/>
+      <c r="M672" s="52"/>
       <c r="N672" s="20" t="s">
         <v>7</v>
       </c>
@@ -41101,10 +40966,10 @@
       <c r="P672" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q672" s="51" t="s">
+      <c r="Q672" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R672" s="51"/>
+      <c r="R672" s="53"/>
       <c r="S672" s="4" t="s">
         <v>11</v>
       </c>
@@ -41334,7 +41199,9 @@
       <c r="U676" s="35">
         <v>10</v>
       </c>
-      <c r="V676" s="22"/>
+      <c r="V676" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W676">
         <v>1</v>
       </c>
@@ -41375,7 +41242,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="M677" s="35">
-        <v>2604</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="N677" s="36">
         <v>2.6</v>
@@ -41401,7 +41268,9 @@
       <c r="U677" s="35">
         <v>30</v>
       </c>
-      <c r="V677" s="22"/>
+      <c r="V677" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W677">
         <v>1</v>
       </c>
@@ -41468,7 +41337,9 @@
       <c r="U678" s="35">
         <v>23</v>
       </c>
-      <c r="V678" s="22"/>
+      <c r="V678" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="W678">
         <v>1</v>
       </c>
@@ -41535,7 +41406,9 @@
       <c r="U679" s="35">
         <v>18</v>
       </c>
-      <c r="V679" s="22"/>
+      <c r="V679" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W679">
         <v>1</v>
       </c>
@@ -41602,7 +41475,9 @@
       <c r="U680" s="35">
         <v>9</v>
       </c>
-      <c r="V680" s="22"/>
+      <c r="V680" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="W680">
         <v>1</v>
       </c>
@@ -41669,7 +41544,9 @@
       <c r="U681" s="35">
         <v>23</v>
       </c>
-      <c r="V681" s="22"/>
+      <c r="V681" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W681">
         <v>1</v>
       </c>
@@ -41736,7 +41613,9 @@
       <c r="U682" s="35">
         <v>29</v>
       </c>
-      <c r="V682" s="22"/>
+      <c r="V682" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="W682">
         <v>1</v>
       </c>
@@ -41803,7 +41682,9 @@
       <c r="U683" s="35">
         <v>26</v>
       </c>
-      <c r="V683" s="22"/>
+      <c r="V683" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W683">
         <v>1</v>
       </c>
@@ -41870,7 +41751,9 @@
       <c r="U684" s="35">
         <v>28</v>
       </c>
-      <c r="V684" s="22"/>
+      <c r="V684" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W684">
         <v>1</v>
       </c>
@@ -41937,7 +41820,9 @@
       <c r="U685" s="35">
         <v>22</v>
       </c>
-      <c r="V685" s="22"/>
+      <c r="V685" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W685">
         <v>1</v>
       </c>
@@ -42054,7 +41939,9 @@
       <c r="U688" s="35">
         <v>15</v>
       </c>
-      <c r="V688" s="22"/>
+      <c r="V688" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W688">
         <v>1</v>
       </c>
@@ -42100,8 +41987,8 @@
       <c r="N689" s="36">
         <v>3.1</v>
       </c>
-      <c r="O689" s="38" t="s">
-        <v>40</v>
+      <c r="O689" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="P689" s="38" t="s">
         <v>102</v>
@@ -42121,7 +42008,9 @@
       <c r="U689" s="35">
         <v>17</v>
       </c>
-      <c r="V689" s="22"/>
+      <c r="V689" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="W689">
         <v>1</v>
       </c>
@@ -42188,7 +42077,9 @@
       <c r="U690" s="35">
         <v>22</v>
       </c>
-      <c r="V690" s="22"/>
+      <c r="V690" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W690">
         <v>1</v>
       </c>
@@ -42240,8 +42131,8 @@
       <c r="P691" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="Q691" s="22" t="s">
-        <v>104</v>
+      <c r="Q691" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="R691" s="22" t="s">
         <v>104</v>
@@ -42255,7 +42146,9 @@
       <c r="U691" s="35">
         <v>18</v>
       </c>
-      <c r="V691" s="22"/>
+      <c r="V691" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W691">
         <v>1</v>
       </c>
@@ -42322,7 +42215,9 @@
       <c r="U692" s="35">
         <v>18</v>
       </c>
-      <c r="V692" s="22"/>
+      <c r="V692" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W692">
         <v>1</v>
       </c>
@@ -42389,7 +42284,9 @@
       <c r="U693" s="35">
         <v>17</v>
       </c>
-      <c r="V693" s="22"/>
+      <c r="V693" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="W693">
         <v>1</v>
       </c>
@@ -42456,7 +42353,9 @@
       <c r="U694" s="35">
         <v>16</v>
       </c>
-      <c r="V694" s="22"/>
+      <c r="V694" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="W694">
         <v>1</v>
       </c>
@@ -42523,7 +42422,9 @@
       <c r="U695" s="35">
         <v>13</v>
       </c>
-      <c r="V695" s="22"/>
+      <c r="V695" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="W695">
         <v>1</v>
       </c>
@@ -42590,7 +42491,9 @@
       <c r="U696" s="35">
         <v>20</v>
       </c>
-      <c r="V696" s="22"/>
+      <c r="V696" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="W696">
         <v>1</v>
       </c>
@@ -42631,7 +42534,7 @@
         <v>18.2</v>
       </c>
       <c r="M697" s="35">
-        <v>2.8069999999999999</v>
+        <v>2.867</v>
       </c>
       <c r="N697" s="36">
         <v>2.8</v>
@@ -42657,7 +42560,9 @@
       <c r="U697" s="35">
         <v>10</v>
       </c>
-      <c r="V697" s="22"/>
+      <c r="V697" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="W697">
         <v>1</v>
       </c>
@@ -42712,10 +42617,10 @@
       <c r="L700" s="13"/>
       <c r="M700" s="12"/>
       <c r="N700" s="14"/>
-      <c r="O700" s="49" t="s">
+      <c r="O700" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P700" s="49"/>
+      <c r="P700" s="51"/>
       <c r="Q700" s="15"/>
       <c r="R700" s="11"/>
       <c r="S700" s="16"/>
@@ -42736,11 +42641,11 @@
       </c>
       <c r="I701" s="11"/>
       <c r="J701" s="18"/>
-      <c r="K701" s="50" t="s">
+      <c r="K701" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L701" s="50"/>
-      <c r="M701" s="50"/>
+      <c r="L701" s="52"/>
+      <c r="M701" s="52"/>
       <c r="N701" s="20" t="s">
         <v>7</v>
       </c>
@@ -42750,10 +42655,10 @@
       <c r="P701" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q701" s="51" t="s">
+      <c r="Q701" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R701" s="51"/>
+      <c r="R701" s="53"/>
       <c r="S701" s="4" t="s">
         <v>11</v>
       </c>
@@ -42932,7 +42837,7 @@
         <v>0</v>
       </c>
       <c r="D705" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E705" s="22">
         <v>1</v>
@@ -43016,11 +42921,11 @@
         <v>3.8</v>
       </c>
       <c r="I706" s="43" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="J706" s="35"/>
       <c r="K706" s="35">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="L706" s="35">
         <v>17.600000000000001</v>
@@ -43088,8 +42993,8 @@
         <v>2.6</v>
       </c>
       <c r="J707" s="35"/>
-      <c r="K707" s="35">
-        <v>23.8</v>
+      <c r="K707" s="49">
+        <v>26.3</v>
       </c>
       <c r="L707" s="35">
         <v>18.899999999999999</v>
@@ -43158,7 +43063,7 @@
       </c>
       <c r="J708" s="35"/>
       <c r="K708" s="35">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="L708" s="35">
         <v>16.7</v>
@@ -43217,17 +43122,17 @@
         <v>1</v>
       </c>
       <c r="G709" s="43" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="H709" s="43" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="I709" s="43" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="J709" s="35"/>
       <c r="K709" s="35">
-        <v>25.5</v>
+        <v>23.1</v>
       </c>
       <c r="L709" s="35">
         <v>17.600000000000001</v>
@@ -43254,7 +43159,7 @@
         <v>2</v>
       </c>
       <c r="T709" s="35" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="U709" s="35">
         <v>8</v>
@@ -43263,7 +43168,7 @@
         <v>158</v>
       </c>
       <c r="W709" s="16" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="710" spans="1:23">
@@ -43286,7 +43191,7 @@
         <v>2</v>
       </c>
       <c r="G710" s="43" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="H710" s="43">
         <v>3.5</v>
@@ -43296,7 +43201,7 @@
       </c>
       <c r="J710" s="35"/>
       <c r="K710" s="35">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="L710" s="35">
         <v>17.899999999999999</v>
@@ -43355,7 +43260,7 @@
         <v>0</v>
       </c>
       <c r="G711" s="43" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="H711" s="43">
         <v>2.7</v>
@@ -43365,7 +43270,7 @@
       </c>
       <c r="J711" s="35"/>
       <c r="K711" s="35">
-        <v>26.5</v>
+        <v>24.5</v>
       </c>
       <c r="L711" s="35">
         <v>17.600000000000001</v>
@@ -43493,7 +43398,7 @@
         <v>0</v>
       </c>
       <c r="G713" s="43" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="H713" s="43">
         <v>2.8</v>
@@ -43562,7 +43467,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="43" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="H714" s="43">
         <v>2</v>
@@ -43681,7 +43586,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="43" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="H717" s="43">
         <v>3.1</v>
@@ -43750,7 +43655,7 @@
         <v>1</v>
       </c>
       <c r="G718" s="43" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="H718" s="43">
         <v>2.7</v>
@@ -43763,7 +43668,7 @@
         <v>22.1</v>
       </c>
       <c r="L718" s="35">
-        <v>163</v>
+        <v>16.3</v>
       </c>
       <c r="M718" s="35">
         <v>2.04</v>
@@ -43822,10 +43727,10 @@
         <v>8.1639999999999997</v>
       </c>
       <c r="H719" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="I719" s="43" t="s">
-        <v>173</v>
+        <v>221</v>
+      </c>
+      <c r="I719" s="49" t="s">
+        <v>118</v>
       </c>
       <c r="J719" s="35"/>
       <c r="K719" s="35">
@@ -43865,7 +43770,7 @@
         <v>158</v>
       </c>
       <c r="W719" s="16" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="720" spans="1:23">
@@ -43888,13 +43793,13 @@
         <v>1</v>
       </c>
       <c r="G720" s="43" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="H720" s="43">
         <v>4.5999999999999996</v>
       </c>
       <c r="I720" s="43" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="J720" s="35"/>
       <c r="K720" s="35">
@@ -44095,7 +44000,7 @@
         <v>1</v>
       </c>
       <c r="G723" s="43" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="H723" s="43">
         <v>4.7</v>
@@ -44111,7 +44016,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="M723" s="35" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="N723" s="36">
         <v>2.6</v>
@@ -44401,10 +44306,10 @@
       <c r="L729" s="13"/>
       <c r="M729" s="12"/>
       <c r="N729" s="14"/>
-      <c r="O729" s="49" t="s">
+      <c r="O729" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P729" s="49"/>
+      <c r="P729" s="51"/>
       <c r="Q729" s="15"/>
       <c r="R729" s="11"/>
       <c r="S729" s="16"/>
@@ -44425,11 +44330,11 @@
       </c>
       <c r="I730" s="11"/>
       <c r="J730" s="18"/>
-      <c r="K730" s="50" t="s">
+      <c r="K730" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L730" s="50"/>
-      <c r="M730" s="50"/>
+      <c r="L730" s="52"/>
+      <c r="M730" s="52"/>
       <c r="N730" s="20" t="s">
         <v>7</v>
       </c>
@@ -44439,10 +44344,10 @@
       <c r="P730" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q730" s="51" t="s">
+      <c r="Q730" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R730" s="51"/>
+      <c r="R730" s="53"/>
       <c r="S730" s="4" t="s">
         <v>11</v>
       </c>
@@ -44699,7 +44604,7 @@
         <v>1</v>
       </c>
       <c r="G735" s="43" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="H735" s="22">
         <v>3.5</v>
@@ -44843,7 +44748,7 @@
         <v>7.9</v>
       </c>
       <c r="I737" s="22" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="J737" s="35"/>
       <c r="K737" s="35">
@@ -45512,7 +45417,7 @@
         <v>0</v>
       </c>
       <c r="G748" s="43" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="H748" s="22">
         <v>6.2</v>
@@ -45867,7 +45772,7 @@
         <v>0</v>
       </c>
       <c r="G753" s="43" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="H753" s="22">
         <v>4.5</v>
@@ -46110,10 +46015,10 @@
       <c r="L758" s="13"/>
       <c r="M758" s="12"/>
       <c r="N758" s="14"/>
-      <c r="O758" s="49" t="s">
+      <c r="O758" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P758" s="49"/>
+      <c r="P758" s="51"/>
       <c r="Q758" s="15"/>
       <c r="R758" s="11"/>
       <c r="S758" s="16"/>
@@ -46134,11 +46039,11 @@
       </c>
       <c r="I759" s="11"/>
       <c r="J759" s="18"/>
-      <c r="K759" s="50" t="s">
+      <c r="K759" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L759" s="50"/>
-      <c r="M759" s="50"/>
+      <c r="L759" s="52"/>
+      <c r="M759" s="52"/>
       <c r="N759" s="20" t="s">
         <v>7</v>
       </c>
@@ -46148,10 +46053,10 @@
       <c r="P759" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q759" s="51" t="s">
+      <c r="Q759" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R759" s="51"/>
+      <c r="R759" s="53"/>
       <c r="S759" s="4" t="s">
         <v>11</v>
       </c>
@@ -46342,7 +46247,7 @@
         <v>5.2629999999999999</v>
       </c>
       <c r="H763" s="43" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="I763" s="22">
         <v>0</v>
@@ -46387,7 +46292,7 @@
         <v>108</v>
       </c>
       <c r="W763" s="16" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="764" spans="1:23">
@@ -46422,7 +46327,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="K764" s="35">
-        <v>17.600000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="L764" s="35">
         <v>17.600000000000001</v>
@@ -46493,7 +46398,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="K765" s="35">
-        <v>14.3</v>
+        <v>13.2</v>
       </c>
       <c r="L765" s="35">
         <v>14.3</v>
@@ -46564,7 +46469,7 @@
         <v>0.11</v>
       </c>
       <c r="K766" s="35">
-        <v>19.899999999999999</v>
+        <v>25.5</v>
       </c>
       <c r="L766" s="35">
         <v>19.899999999999999</v>
@@ -46635,7 +46540,7 @@
         <v>0.105</v>
       </c>
       <c r="K767" s="35">
-        <v>14.7</v>
+        <v>18.3</v>
       </c>
       <c r="L767" s="35">
         <v>14.7</v>
@@ -46706,7 +46611,7 @@
         <v>0.106</v>
       </c>
       <c r="K768" s="35">
-        <v>18.600000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="L768" s="35">
         <v>18.600000000000001</v>
@@ -46777,7 +46682,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="K769" s="35">
-        <v>20.6</v>
+        <v>28.1</v>
       </c>
       <c r="L769" s="35">
         <v>20.6</v>
@@ -46848,7 +46753,7 @@
         <v>3.1E-2</v>
       </c>
       <c r="K770" s="35">
-        <v>18.600000000000001</v>
+        <v>23</v>
       </c>
       <c r="L770" s="35">
         <v>18.600000000000001</v>
@@ -46919,7 +46824,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="K771" s="35">
-        <v>15.1</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L771" s="35">
         <v>15.1</v>
@@ -46990,7 +46895,7 @@
         <v>0.151</v>
       </c>
       <c r="K772" s="35">
-        <v>15.8</v>
+        <v>24</v>
       </c>
       <c r="L772" s="35">
         <v>15.8</v>
@@ -47099,7 +47004,7 @@
         <v>0</v>
       </c>
       <c r="G775" s="43" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="H775" s="22">
         <v>5.0999999999999996</v>
@@ -47274,7 +47179,7 @@
         <v>103</v>
       </c>
       <c r="R777" s="22" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="S777" s="35">
         <v>1</v>
@@ -47472,7 +47377,7 @@
         <v>19.8</v>
       </c>
       <c r="M780" s="35">
-        <v>3.0430000000000001</v>
+        <v>3.843</v>
       </c>
       <c r="N780" s="36">
         <v>3</v>
@@ -47573,7 +47478,7 @@
         <v>107</v>
       </c>
       <c r="W781" s="16" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="782" spans="1:23">
@@ -47596,7 +47501,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="43" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="H782" s="22">
         <v>7.5</v>
@@ -47629,7 +47534,7 @@
         <v>104</v>
       </c>
       <c r="R782" s="22" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="S782" s="35">
         <v>2</v>
@@ -47667,7 +47572,7 @@
         <v>0</v>
       </c>
       <c r="G783" s="43" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="H783" s="22">
         <v>3.5</v>
@@ -47791,78 +47696,6 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="K208:M208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="O236:P236"/>
-    <mergeCell ref="K237:M237"/>
-    <mergeCell ref="Q237:R237"/>
-    <mergeCell ref="O265:P265"/>
-    <mergeCell ref="K266:M266"/>
-    <mergeCell ref="Q266:R266"/>
-    <mergeCell ref="O294:P294"/>
-    <mergeCell ref="K295:M295"/>
-    <mergeCell ref="Q295:R295"/>
-    <mergeCell ref="O323:P323"/>
-    <mergeCell ref="K324:M324"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="O352:P352"/>
-    <mergeCell ref="K353:M353"/>
-    <mergeCell ref="Q353:R353"/>
-    <mergeCell ref="O381:P381"/>
-    <mergeCell ref="K382:M382"/>
-    <mergeCell ref="Q382:R382"/>
-    <mergeCell ref="O410:P410"/>
-    <mergeCell ref="K411:M411"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="K440:M440"/>
-    <mergeCell ref="Q440:R440"/>
-    <mergeCell ref="O468:P468"/>
-    <mergeCell ref="K469:M469"/>
-    <mergeCell ref="Q469:R469"/>
-    <mergeCell ref="O497:P497"/>
-    <mergeCell ref="K498:M498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="O526:P526"/>
-    <mergeCell ref="K527:M527"/>
-    <mergeCell ref="Q527:R527"/>
-    <mergeCell ref="O555:P555"/>
-    <mergeCell ref="K556:M556"/>
-    <mergeCell ref="Q556:R556"/>
-    <mergeCell ref="O584:P584"/>
-    <mergeCell ref="K585:M585"/>
-    <mergeCell ref="Q585:R585"/>
-    <mergeCell ref="O613:P613"/>
-    <mergeCell ref="K614:M614"/>
-    <mergeCell ref="Q614:R614"/>
-    <mergeCell ref="O642:P642"/>
-    <mergeCell ref="K643:M643"/>
-    <mergeCell ref="Q643:R643"/>
-    <mergeCell ref="O671:P671"/>
-    <mergeCell ref="K672:M672"/>
-    <mergeCell ref="Q672:R672"/>
     <mergeCell ref="O758:P758"/>
     <mergeCell ref="K759:M759"/>
     <mergeCell ref="Q759:R759"/>
@@ -47872,6 +47705,78 @@
     <mergeCell ref="O729:P729"/>
     <mergeCell ref="K730:M730"/>
     <mergeCell ref="Q730:R730"/>
+    <mergeCell ref="O642:P642"/>
+    <mergeCell ref="K643:M643"/>
+    <mergeCell ref="Q643:R643"/>
+    <mergeCell ref="O671:P671"/>
+    <mergeCell ref="K672:M672"/>
+    <mergeCell ref="Q672:R672"/>
+    <mergeCell ref="O584:P584"/>
+    <mergeCell ref="K585:M585"/>
+    <mergeCell ref="Q585:R585"/>
+    <mergeCell ref="O613:P613"/>
+    <mergeCell ref="K614:M614"/>
+    <mergeCell ref="Q614:R614"/>
+    <mergeCell ref="O526:P526"/>
+    <mergeCell ref="K527:M527"/>
+    <mergeCell ref="Q527:R527"/>
+    <mergeCell ref="O555:P555"/>
+    <mergeCell ref="K556:M556"/>
+    <mergeCell ref="Q556:R556"/>
+    <mergeCell ref="O468:P468"/>
+    <mergeCell ref="K469:M469"/>
+    <mergeCell ref="Q469:R469"/>
+    <mergeCell ref="O497:P497"/>
+    <mergeCell ref="K498:M498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="O410:P410"/>
+    <mergeCell ref="K411:M411"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="K440:M440"/>
+    <mergeCell ref="Q440:R440"/>
+    <mergeCell ref="O352:P352"/>
+    <mergeCell ref="K353:M353"/>
+    <mergeCell ref="Q353:R353"/>
+    <mergeCell ref="O381:P381"/>
+    <mergeCell ref="K382:M382"/>
+    <mergeCell ref="Q382:R382"/>
+    <mergeCell ref="O294:P294"/>
+    <mergeCell ref="K295:M295"/>
+    <mergeCell ref="Q295:R295"/>
+    <mergeCell ref="O323:P323"/>
+    <mergeCell ref="K324:M324"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="O236:P236"/>
+    <mergeCell ref="K237:M237"/>
+    <mergeCell ref="Q237:R237"/>
+    <mergeCell ref="O265:P265"/>
+    <mergeCell ref="K266:M266"/>
+    <mergeCell ref="Q266:R266"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="K208:M208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="Q34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/phenotypic data/RawData/2012 Data/BogUpper5-R9.xlsx
+++ b/Data/phenotypic data/RawData/2012 Data/BogUpper5-R9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="25440" windowHeight="18020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="V775" sqref="V775"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="L348" sqref="L348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22037,7 +22037,7 @@
         <v>25.9</v>
       </c>
       <c r="L348" s="35">
-        <v>1739</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="M348" s="35">
         <v>3.1360000000000001</v>
@@ -47696,6 +47696,78 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="K208:M208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="O236:P236"/>
+    <mergeCell ref="K237:M237"/>
+    <mergeCell ref="Q237:R237"/>
+    <mergeCell ref="O265:P265"/>
+    <mergeCell ref="K266:M266"/>
+    <mergeCell ref="Q266:R266"/>
+    <mergeCell ref="O294:P294"/>
+    <mergeCell ref="K295:M295"/>
+    <mergeCell ref="Q295:R295"/>
+    <mergeCell ref="O323:P323"/>
+    <mergeCell ref="K324:M324"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="O352:P352"/>
+    <mergeCell ref="K353:M353"/>
+    <mergeCell ref="Q353:R353"/>
+    <mergeCell ref="O381:P381"/>
+    <mergeCell ref="K382:M382"/>
+    <mergeCell ref="Q382:R382"/>
+    <mergeCell ref="O410:P410"/>
+    <mergeCell ref="K411:M411"/>
+    <mergeCell ref="Q411:R411"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="K440:M440"/>
+    <mergeCell ref="Q440:R440"/>
+    <mergeCell ref="O468:P468"/>
+    <mergeCell ref="K469:M469"/>
+    <mergeCell ref="Q469:R469"/>
+    <mergeCell ref="O497:P497"/>
+    <mergeCell ref="K498:M498"/>
+    <mergeCell ref="Q498:R498"/>
+    <mergeCell ref="O526:P526"/>
+    <mergeCell ref="K527:M527"/>
+    <mergeCell ref="Q527:R527"/>
+    <mergeCell ref="O555:P555"/>
+    <mergeCell ref="K556:M556"/>
+    <mergeCell ref="Q556:R556"/>
+    <mergeCell ref="O584:P584"/>
+    <mergeCell ref="K585:M585"/>
+    <mergeCell ref="Q585:R585"/>
+    <mergeCell ref="O613:P613"/>
+    <mergeCell ref="K614:M614"/>
+    <mergeCell ref="Q614:R614"/>
+    <mergeCell ref="O642:P642"/>
+    <mergeCell ref="K643:M643"/>
+    <mergeCell ref="Q643:R643"/>
+    <mergeCell ref="O671:P671"/>
+    <mergeCell ref="K672:M672"/>
+    <mergeCell ref="Q672:R672"/>
     <mergeCell ref="O758:P758"/>
     <mergeCell ref="K759:M759"/>
     <mergeCell ref="Q759:R759"/>
@@ -47705,78 +47777,6 @@
     <mergeCell ref="O729:P729"/>
     <mergeCell ref="K730:M730"/>
     <mergeCell ref="Q730:R730"/>
-    <mergeCell ref="O642:P642"/>
-    <mergeCell ref="K643:M643"/>
-    <mergeCell ref="Q643:R643"/>
-    <mergeCell ref="O671:P671"/>
-    <mergeCell ref="K672:M672"/>
-    <mergeCell ref="Q672:R672"/>
-    <mergeCell ref="O584:P584"/>
-    <mergeCell ref="K585:M585"/>
-    <mergeCell ref="Q585:R585"/>
-    <mergeCell ref="O613:P613"/>
-    <mergeCell ref="K614:M614"/>
-    <mergeCell ref="Q614:R614"/>
-    <mergeCell ref="O526:P526"/>
-    <mergeCell ref="K527:M527"/>
-    <mergeCell ref="Q527:R527"/>
-    <mergeCell ref="O555:P555"/>
-    <mergeCell ref="K556:M556"/>
-    <mergeCell ref="Q556:R556"/>
-    <mergeCell ref="O468:P468"/>
-    <mergeCell ref="K469:M469"/>
-    <mergeCell ref="Q469:R469"/>
-    <mergeCell ref="O497:P497"/>
-    <mergeCell ref="K498:M498"/>
-    <mergeCell ref="Q498:R498"/>
-    <mergeCell ref="O410:P410"/>
-    <mergeCell ref="K411:M411"/>
-    <mergeCell ref="Q411:R411"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="K440:M440"/>
-    <mergeCell ref="Q440:R440"/>
-    <mergeCell ref="O352:P352"/>
-    <mergeCell ref="K353:M353"/>
-    <mergeCell ref="Q353:R353"/>
-    <mergeCell ref="O381:P381"/>
-    <mergeCell ref="K382:M382"/>
-    <mergeCell ref="Q382:R382"/>
-    <mergeCell ref="O294:P294"/>
-    <mergeCell ref="K295:M295"/>
-    <mergeCell ref="Q295:R295"/>
-    <mergeCell ref="O323:P323"/>
-    <mergeCell ref="K324:M324"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="O236:P236"/>
-    <mergeCell ref="K237:M237"/>
-    <mergeCell ref="Q237:R237"/>
-    <mergeCell ref="O265:P265"/>
-    <mergeCell ref="K266:M266"/>
-    <mergeCell ref="Q266:R266"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="K208:M208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="K121:M121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="Q34:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/phenotypic data/RawData/2012 Data/BogUpper5-R9.xlsx
+++ b/Data/phenotypic data/RawData/2012 Data/BogUpper5-R9.xlsx
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="L348" sqref="L348"/>
+    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
+      <selection activeCell="L685" sqref="L685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -28171,7 +28171,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="K452" s="35">
-        <v>36.4</v>
+        <v>26.4</v>
       </c>
       <c r="L452" s="35">
         <v>17.3</v>
@@ -41791,7 +41791,7 @@
         <v>22.5</v>
       </c>
       <c r="L685" s="35">
-        <v>2.2189999999999999</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="M685" s="35">
         <v>2.2189999999999999</v>
